--- a/data.xlsx
+++ b/data.xlsx
@@ -4,13 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17560" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Note" sheetId="1" r:id="rId1"/>
     <sheet name="Account" sheetId="2" r:id="rId2"/>
     <sheet name="Context" sheetId="3" r:id="rId3"/>
+    <sheet name="Feedback" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Feedback!$F$1:$F$101</definedName>
+  </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -21,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="178">
   <si>
     <t>tomyeh</t>
   </si>
@@ -498,6 +502,63 @@
   </si>
   <si>
     <t>many birds live here</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>a very interenting person</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>an interesting note</t>
+  </si>
+  <si>
+    <t>Context</t>
+  </si>
+  <si>
+    <t>very fine activity</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>I love this</t>
+  </si>
+  <si>
+    <t>This is terrible</t>
+  </si>
+  <si>
+    <t>I don't like this</t>
+  </si>
+  <si>
+    <t>This is fun</t>
+  </si>
+  <si>
+    <t>What is this?</t>
+  </si>
+  <si>
+    <t>I don't understand</t>
+  </si>
+  <si>
+    <t>What is the point</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t>Media</t>
   </si>
 </sst>
 </file>
@@ -557,7 +618,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="86">
+  <cellStyleXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -643,13 +704,55 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="86">
+  <cellStyles count="128">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -719,6 +822,27 @@
     <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="127" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -735,6 +859,27 @@
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="94" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="96" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="98" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="100" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="102" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="104" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="106" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="108" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="110" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="112" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="114" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="116" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="118" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="120" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="122" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="124" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="126" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1066,8 +1211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27:C32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4096,4 +4241,2152 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1">
+        <v>100</v>
+      </c>
+      <c r="B1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <f t="shared" ref="A4:A7" si="0">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E4" t="s">
+        <v>167</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>161</v>
+      </c>
+      <c r="E6" t="s">
+        <v>165</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <f>A7+1</f>
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>161</v>
+      </c>
+      <c r="E8" t="s">
+        <v>162</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <f>A8+1</f>
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E9" t="s">
+        <v>165</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <f>A9+1</f>
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>161</v>
+      </c>
+      <c r="E10" t="s">
+        <v>167</v>
+      </c>
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <f>A10+1</f>
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>161</v>
+      </c>
+      <c r="E11" t="s">
+        <v>162</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <f>A11+1</f>
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>177</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>161</v>
+      </c>
+      <c r="E12" t="s">
+        <v>165</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <f>A12+1</f>
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>166</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>161</v>
+      </c>
+      <c r="E13" t="s">
+        <v>167</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <f>A13+1</f>
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>166</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>161</v>
+      </c>
+      <c r="E14" t="s">
+        <v>167</v>
+      </c>
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <f>A14+1</f>
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>163</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>161</v>
+      </c>
+      <c r="E15" t="s">
+        <v>162</v>
+      </c>
+      <c r="F15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <f>A15+1</f>
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>177</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>161</v>
+      </c>
+      <c r="E16" t="s">
+        <v>165</v>
+      </c>
+      <c r="F16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <f>A16+1</f>
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>166</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>161</v>
+      </c>
+      <c r="E17" t="s">
+        <v>167</v>
+      </c>
+      <c r="F17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <f>A17+1</f>
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>166</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>161</v>
+      </c>
+      <c r="E18" t="s">
+        <v>167</v>
+      </c>
+      <c r="F18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <f>A18+1</f>
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>163</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>161</v>
+      </c>
+      <c r="E19" t="s">
+        <v>162</v>
+      </c>
+      <c r="F19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <f>A19+1</f>
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>161</v>
+      </c>
+      <c r="E20" t="s">
+        <v>165</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <f>A20+1</f>
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>166</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>161</v>
+      </c>
+      <c r="E21" t="s">
+        <v>167</v>
+      </c>
+      <c r="F21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <f>A21+1</f>
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>166</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>161</v>
+      </c>
+      <c r="E22" t="s">
+        <v>167</v>
+      </c>
+      <c r="F22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <f>A22+1</f>
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>163</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>161</v>
+      </c>
+      <c r="E23" t="s">
+        <v>162</v>
+      </c>
+      <c r="F23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <f>A23+1</f>
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>164</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>161</v>
+      </c>
+      <c r="E24" t="s">
+        <v>165</v>
+      </c>
+      <c r="F24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <f>A24+1</f>
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E25" t="s">
+        <v>167</v>
+      </c>
+      <c r="F25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <f>A25+1</f>
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>166</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>161</v>
+      </c>
+      <c r="E26" t="s">
+        <v>167</v>
+      </c>
+      <c r="F26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <f>A26+1</f>
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>163</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>161</v>
+      </c>
+      <c r="E27" t="s">
+        <v>162</v>
+      </c>
+      <c r="F27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <f>A27+1</f>
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>164</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>161</v>
+      </c>
+      <c r="E28" t="s">
+        <v>165</v>
+      </c>
+      <c r="F28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <f>A28+1</f>
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>166</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>161</v>
+      </c>
+      <c r="E29" t="s">
+        <v>167</v>
+      </c>
+      <c r="F29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <f>A29+1</f>
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>164</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30" t="s">
+        <v>161</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <f>A30+1</f>
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>164</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E31" t="s">
+        <v>169</v>
+      </c>
+      <c r="F31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <f>A31+1</f>
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>164</v>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
+        <v>161</v>
+      </c>
+      <c r="E32" t="s">
+        <v>168</v>
+      </c>
+      <c r="F32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <f>A32+1</f>
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>164</v>
+      </c>
+      <c r="C33">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>161</v>
+      </c>
+      <c r="E33" t="s">
+        <v>170</v>
+      </c>
+      <c r="F33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <f>A33+1</f>
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>164</v>
+      </c>
+      <c r="C34">
+        <v>7</v>
+      </c>
+      <c r="D34" t="s">
+        <v>161</v>
+      </c>
+      <c r="E34" t="s">
+        <v>171</v>
+      </c>
+      <c r="F34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <f>A34+1</f>
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>164</v>
+      </c>
+      <c r="C35">
+        <v>8</v>
+      </c>
+      <c r="D35" t="s">
+        <v>161</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <f>A35+1</f>
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>164</v>
+      </c>
+      <c r="C36">
+        <v>9</v>
+      </c>
+      <c r="D36" t="s">
+        <v>161</v>
+      </c>
+      <c r="E36" t="s">
+        <v>169</v>
+      </c>
+      <c r="F36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <f>A36+1</f>
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>164</v>
+      </c>
+      <c r="C37">
+        <v>10</v>
+      </c>
+      <c r="D37" t="s">
+        <v>161</v>
+      </c>
+      <c r="E37" t="s">
+        <v>168</v>
+      </c>
+      <c r="F37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <f>A37+1</f>
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>164</v>
+      </c>
+      <c r="C38">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s">
+        <v>161</v>
+      </c>
+      <c r="E38" t="s">
+        <v>170</v>
+      </c>
+      <c r="F38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <f>A38+1</f>
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>164</v>
+      </c>
+      <c r="C39">
+        <v>12</v>
+      </c>
+      <c r="D39" t="s">
+        <v>161</v>
+      </c>
+      <c r="E39" t="s">
+        <v>171</v>
+      </c>
+      <c r="F39" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <f>A39+1</f>
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>164</v>
+      </c>
+      <c r="C40">
+        <v>13</v>
+      </c>
+      <c r="D40" t="s">
+        <v>161</v>
+      </c>
+      <c r="E40" t="s">
+        <v>169</v>
+      </c>
+      <c r="F40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <f>A40+1</f>
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>164</v>
+      </c>
+      <c r="C41">
+        <v>14</v>
+      </c>
+      <c r="D41" t="s">
+        <v>161</v>
+      </c>
+      <c r="E41" t="s">
+        <v>168</v>
+      </c>
+      <c r="F41" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <f>A41+1</f>
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>164</v>
+      </c>
+      <c r="C42">
+        <v>15</v>
+      </c>
+      <c r="D42" t="s">
+        <v>161</v>
+      </c>
+      <c r="E42" t="s">
+        <v>172</v>
+      </c>
+      <c r="F42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <f>A42+1</f>
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>164</v>
+      </c>
+      <c r="C43">
+        <v>16</v>
+      </c>
+      <c r="D43" t="s">
+        <v>161</v>
+      </c>
+      <c r="E43" t="s">
+        <v>173</v>
+      </c>
+      <c r="F43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <f>A43+1</f>
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>164</v>
+      </c>
+      <c r="C44">
+        <v>17</v>
+      </c>
+      <c r="D44" t="s">
+        <v>161</v>
+      </c>
+      <c r="E44" t="s">
+        <v>171</v>
+      </c>
+      <c r="F44" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <f>A44+1</f>
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>164</v>
+      </c>
+      <c r="C45">
+        <v>18</v>
+      </c>
+      <c r="D45" t="s">
+        <v>161</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <f>A45+1</f>
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>164</v>
+      </c>
+      <c r="C46">
+        <v>19</v>
+      </c>
+      <c r="D46" t="s">
+        <v>161</v>
+      </c>
+      <c r="E46" t="s">
+        <v>169</v>
+      </c>
+      <c r="F46" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <f>A46+1</f>
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>164</v>
+      </c>
+      <c r="C47">
+        <v>20</v>
+      </c>
+      <c r="D47" t="s">
+        <v>161</v>
+      </c>
+      <c r="E47" t="s">
+        <v>168</v>
+      </c>
+      <c r="F47" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <f>A47+1</f>
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>164</v>
+      </c>
+      <c r="C48">
+        <v>21</v>
+      </c>
+      <c r="D48" t="s">
+        <v>161</v>
+      </c>
+      <c r="E48" t="s">
+        <v>170</v>
+      </c>
+      <c r="F48" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <f>A48+1</f>
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>164</v>
+      </c>
+      <c r="C49">
+        <v>22</v>
+      </c>
+      <c r="D49" t="s">
+        <v>161</v>
+      </c>
+      <c r="E49" t="s">
+        <v>171</v>
+      </c>
+      <c r="F49" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <f>A49+1</f>
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>164</v>
+      </c>
+      <c r="C50">
+        <v>23</v>
+      </c>
+      <c r="D50" t="s">
+        <v>161</v>
+      </c>
+      <c r="E50" t="s">
+        <v>169</v>
+      </c>
+      <c r="F50" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <f>A50+1</f>
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>164</v>
+      </c>
+      <c r="C51">
+        <v>24</v>
+      </c>
+      <c r="D51" t="s">
+        <v>161</v>
+      </c>
+      <c r="E51" t="s">
+        <v>168</v>
+      </c>
+      <c r="F51" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <f>A51+1</f>
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>164</v>
+      </c>
+      <c r="C52">
+        <v>25</v>
+      </c>
+      <c r="D52" t="s">
+        <v>161</v>
+      </c>
+      <c r="E52" t="s">
+        <v>172</v>
+      </c>
+      <c r="F52" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <f>A52+1</f>
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>164</v>
+      </c>
+      <c r="C53">
+        <v>26</v>
+      </c>
+      <c r="D53" t="s">
+        <v>161</v>
+      </c>
+      <c r="E53" t="s">
+        <v>173</v>
+      </c>
+      <c r="F53" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <f>A53+1</f>
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>164</v>
+      </c>
+      <c r="C54">
+        <v>27</v>
+      </c>
+      <c r="D54" t="s">
+        <v>161</v>
+      </c>
+      <c r="E54" t="s">
+        <v>169</v>
+      </c>
+      <c r="F54" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <f>A54+1</f>
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>164</v>
+      </c>
+      <c r="C55">
+        <v>28</v>
+      </c>
+      <c r="D55" t="s">
+        <v>161</v>
+      </c>
+      <c r="E55" t="s">
+        <v>174</v>
+      </c>
+      <c r="F55" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <f>A55+1</f>
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>164</v>
+      </c>
+      <c r="C56">
+        <v>29</v>
+      </c>
+      <c r="D56" t="s">
+        <v>161</v>
+      </c>
+      <c r="E56" t="s">
+        <v>172</v>
+      </c>
+      <c r="F56" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <f>A56+1</f>
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>164</v>
+      </c>
+      <c r="C57">
+        <v>30</v>
+      </c>
+      <c r="D57" t="s">
+        <v>161</v>
+      </c>
+      <c r="E57" t="s">
+        <v>173</v>
+      </c>
+      <c r="F57" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <f>A57+1</f>
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>164</v>
+      </c>
+      <c r="C58">
+        <v>31</v>
+      </c>
+      <c r="D58" t="s">
+        <v>161</v>
+      </c>
+      <c r="E58" t="s">
+        <v>171</v>
+      </c>
+      <c r="F58" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <f>A58+1</f>
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>164</v>
+      </c>
+      <c r="C59">
+        <v>32</v>
+      </c>
+      <c r="D59" t="s">
+        <v>161</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <f>A59+1</f>
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>164</v>
+      </c>
+      <c r="C60">
+        <v>33</v>
+      </c>
+      <c r="D60" t="s">
+        <v>161</v>
+      </c>
+      <c r="E60" t="s">
+        <v>169</v>
+      </c>
+      <c r="F60" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <f>A60+1</f>
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>164</v>
+      </c>
+      <c r="C61">
+        <v>34</v>
+      </c>
+      <c r="D61" t="s">
+        <v>161</v>
+      </c>
+      <c r="E61" t="s">
+        <v>168</v>
+      </c>
+      <c r="F61" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <f>A61+1</f>
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>164</v>
+      </c>
+      <c r="C62">
+        <v>35</v>
+      </c>
+      <c r="D62" t="s">
+        <v>161</v>
+      </c>
+      <c r="E62" t="s">
+        <v>170</v>
+      </c>
+      <c r="F62" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <f>A62+1</f>
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>164</v>
+      </c>
+      <c r="C63">
+        <v>36</v>
+      </c>
+      <c r="D63" t="s">
+        <v>161</v>
+      </c>
+      <c r="E63" t="s">
+        <v>171</v>
+      </c>
+      <c r="F63" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <f>A63+1</f>
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>164</v>
+      </c>
+      <c r="C64">
+        <v>37</v>
+      </c>
+      <c r="D64" t="s">
+        <v>161</v>
+      </c>
+      <c r="E64" t="s">
+        <v>169</v>
+      </c>
+      <c r="F64" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65">
+        <f>A64+1</f>
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>164</v>
+      </c>
+      <c r="C65">
+        <v>38</v>
+      </c>
+      <c r="D65" t="s">
+        <v>161</v>
+      </c>
+      <c r="E65" t="s">
+        <v>168</v>
+      </c>
+      <c r="F65" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <f>A65+1</f>
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>164</v>
+      </c>
+      <c r="C66">
+        <v>39</v>
+      </c>
+      <c r="D66" t="s">
+        <v>161</v>
+      </c>
+      <c r="E66" t="s">
+        <v>172</v>
+      </c>
+      <c r="F66" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67">
+        <f>A66+1</f>
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>164</v>
+      </c>
+      <c r="C67">
+        <v>40</v>
+      </c>
+      <c r="D67" t="s">
+        <v>161</v>
+      </c>
+      <c r="E67" t="s">
+        <v>173</v>
+      </c>
+      <c r="F67" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>164</v>
+      </c>
+      <c r="C68">
+        <v>41</v>
+      </c>
+      <c r="D68" t="s">
+        <v>161</v>
+      </c>
+      <c r="E68" t="s">
+        <v>175</v>
+      </c>
+      <c r="F68" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69">
+        <f>A68+1</f>
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>164</v>
+      </c>
+      <c r="C69">
+        <v>12</v>
+      </c>
+      <c r="D69" t="s">
+        <v>161</v>
+      </c>
+      <c r="E69" t="s">
+        <v>171</v>
+      </c>
+      <c r="F69" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70">
+        <f>A69+1</f>
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>164</v>
+      </c>
+      <c r="C70">
+        <v>13</v>
+      </c>
+      <c r="D70" t="s">
+        <v>161</v>
+      </c>
+      <c r="E70" t="s">
+        <v>169</v>
+      </c>
+      <c r="F70" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71">
+        <f>A70+1</f>
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>164</v>
+      </c>
+      <c r="C71">
+        <v>14</v>
+      </c>
+      <c r="D71" t="s">
+        <v>161</v>
+      </c>
+      <c r="E71" t="s">
+        <v>168</v>
+      </c>
+      <c r="F71" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72">
+        <f>A71+1</f>
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>164</v>
+      </c>
+      <c r="C72">
+        <v>15</v>
+      </c>
+      <c r="D72" t="s">
+        <v>161</v>
+      </c>
+      <c r="E72" t="s">
+        <v>172</v>
+      </c>
+      <c r="F72" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73">
+        <f>A72+1</f>
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>164</v>
+      </c>
+      <c r="C73">
+        <v>16</v>
+      </c>
+      <c r="D73" t="s">
+        <v>161</v>
+      </c>
+      <c r="E73" t="s">
+        <v>173</v>
+      </c>
+      <c r="F73" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74">
+        <f>A73+1</f>
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>164</v>
+      </c>
+      <c r="C74">
+        <v>17</v>
+      </c>
+      <c r="D74" t="s">
+        <v>161</v>
+      </c>
+      <c r="E74" t="s">
+        <v>171</v>
+      </c>
+      <c r="F74" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75">
+        <f>A74+1</f>
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>164</v>
+      </c>
+      <c r="C75">
+        <v>18</v>
+      </c>
+      <c r="D75" t="s">
+        <v>161</v>
+      </c>
+      <c r="E75" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76">
+        <f>A75+1</f>
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>164</v>
+      </c>
+      <c r="C76">
+        <v>19</v>
+      </c>
+      <c r="D76" t="s">
+        <v>161</v>
+      </c>
+      <c r="E76" t="s">
+        <v>169</v>
+      </c>
+      <c r="F76" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77">
+        <f>A76+1</f>
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>164</v>
+      </c>
+      <c r="C77">
+        <v>20</v>
+      </c>
+      <c r="D77" t="s">
+        <v>161</v>
+      </c>
+      <c r="E77" t="s">
+        <v>168</v>
+      </c>
+      <c r="F77" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78">
+        <f>A77+1</f>
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>164</v>
+      </c>
+      <c r="C78">
+        <v>21</v>
+      </c>
+      <c r="D78" t="s">
+        <v>161</v>
+      </c>
+      <c r="E78" t="s">
+        <v>170</v>
+      </c>
+      <c r="F78" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79">
+        <f>A78+1</f>
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>164</v>
+      </c>
+      <c r="C79">
+        <v>22</v>
+      </c>
+      <c r="D79" t="s">
+        <v>161</v>
+      </c>
+      <c r="E79" t="s">
+        <v>171</v>
+      </c>
+      <c r="F79" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80">
+        <f>A79+1</f>
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>164</v>
+      </c>
+      <c r="C80">
+        <v>23</v>
+      </c>
+      <c r="D80" t="s">
+        <v>161</v>
+      </c>
+      <c r="E80" t="s">
+        <v>169</v>
+      </c>
+      <c r="F80" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81">
+        <f>A80+1</f>
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>164</v>
+      </c>
+      <c r="C81">
+        <v>24</v>
+      </c>
+      <c r="D81" t="s">
+        <v>161</v>
+      </c>
+      <c r="E81" t="s">
+        <v>168</v>
+      </c>
+      <c r="F81" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82">
+        <f>A81+1</f>
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>164</v>
+      </c>
+      <c r="C82">
+        <v>25</v>
+      </c>
+      <c r="D82" t="s">
+        <v>161</v>
+      </c>
+      <c r="E82" t="s">
+        <v>172</v>
+      </c>
+      <c r="F82" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83">
+        <f>A82+1</f>
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>164</v>
+      </c>
+      <c r="C83">
+        <v>26</v>
+      </c>
+      <c r="D83" t="s">
+        <v>161</v>
+      </c>
+      <c r="E83" t="s">
+        <v>173</v>
+      </c>
+      <c r="F83" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84">
+        <f>A83+1</f>
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>164</v>
+      </c>
+      <c r="C84">
+        <v>27</v>
+      </c>
+      <c r="D84" t="s">
+        <v>161</v>
+      </c>
+      <c r="E84" t="s">
+        <v>169</v>
+      </c>
+      <c r="F84" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85">
+        <f>A84+1</f>
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>164</v>
+      </c>
+      <c r="C85">
+        <v>28</v>
+      </c>
+      <c r="D85" t="s">
+        <v>161</v>
+      </c>
+      <c r="E85" t="s">
+        <v>174</v>
+      </c>
+      <c r="F85" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86">
+        <f>A85+1</f>
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>164</v>
+      </c>
+      <c r="C86">
+        <v>29</v>
+      </c>
+      <c r="D86" t="s">
+        <v>161</v>
+      </c>
+      <c r="E86" t="s">
+        <v>172</v>
+      </c>
+      <c r="F86" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87">
+        <f>A86+1</f>
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>164</v>
+      </c>
+      <c r="C87">
+        <v>30</v>
+      </c>
+      <c r="D87" t="s">
+        <v>161</v>
+      </c>
+      <c r="E87" t="s">
+        <v>173</v>
+      </c>
+      <c r="F87" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88">
+        <f>A87+1</f>
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>164</v>
+      </c>
+      <c r="C88">
+        <v>31</v>
+      </c>
+      <c r="D88" t="s">
+        <v>161</v>
+      </c>
+      <c r="E88" t="s">
+        <v>171</v>
+      </c>
+      <c r="F88" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89">
+        <f>A88+1</f>
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>164</v>
+      </c>
+      <c r="C89">
+        <v>32</v>
+      </c>
+      <c r="D89" t="s">
+        <v>161</v>
+      </c>
+      <c r="E89" t="s">
+        <v>43</v>
+      </c>
+      <c r="F89" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90">
+        <f>A89+1</f>
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>164</v>
+      </c>
+      <c r="C90">
+        <v>33</v>
+      </c>
+      <c r="D90" t="s">
+        <v>161</v>
+      </c>
+      <c r="E90" t="s">
+        <v>169</v>
+      </c>
+      <c r="F90" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91">
+        <f>A90+1</f>
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>164</v>
+      </c>
+      <c r="C91">
+        <v>34</v>
+      </c>
+      <c r="D91" t="s">
+        <v>161</v>
+      </c>
+      <c r="E91" t="s">
+        <v>168</v>
+      </c>
+      <c r="F91" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92">
+        <f>A91+1</f>
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>164</v>
+      </c>
+      <c r="C92">
+        <v>35</v>
+      </c>
+      <c r="D92" t="s">
+        <v>161</v>
+      </c>
+      <c r="E92" t="s">
+        <v>170</v>
+      </c>
+      <c r="F92" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93">
+        <f>A92+1</f>
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>164</v>
+      </c>
+      <c r="C93">
+        <v>36</v>
+      </c>
+      <c r="D93" t="s">
+        <v>161</v>
+      </c>
+      <c r="E93" t="s">
+        <v>171</v>
+      </c>
+      <c r="F93" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94">
+        <f>A93+1</f>
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>164</v>
+      </c>
+      <c r="C94">
+        <v>37</v>
+      </c>
+      <c r="D94" t="s">
+        <v>161</v>
+      </c>
+      <c r="E94" t="s">
+        <v>169</v>
+      </c>
+      <c r="F94" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95">
+        <f>A94+1</f>
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>164</v>
+      </c>
+      <c r="C95">
+        <v>38</v>
+      </c>
+      <c r="D95" t="s">
+        <v>161</v>
+      </c>
+      <c r="E95" t="s">
+        <v>168</v>
+      </c>
+      <c r="F95" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96">
+        <f>A95+1</f>
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>164</v>
+      </c>
+      <c r="C96">
+        <v>39</v>
+      </c>
+      <c r="D96" t="s">
+        <v>161</v>
+      </c>
+      <c r="E96" t="s">
+        <v>172</v>
+      </c>
+      <c r="F96" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97">
+        <f>A96+1</f>
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>164</v>
+      </c>
+      <c r="C97">
+        <v>40</v>
+      </c>
+      <c r="D97" t="s">
+        <v>161</v>
+      </c>
+      <c r="E97" t="s">
+        <v>173</v>
+      </c>
+      <c r="F97" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98">
+        <f>A97+1</f>
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>164</v>
+      </c>
+      <c r="C98">
+        <v>41</v>
+      </c>
+      <c r="D98" t="s">
+        <v>161</v>
+      </c>
+      <c r="E98" t="s">
+        <v>175</v>
+      </c>
+      <c r="F98" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99">
+        <f>A98+1</f>
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>164</v>
+      </c>
+      <c r="C99">
+        <v>28</v>
+      </c>
+      <c r="D99" t="s">
+        <v>161</v>
+      </c>
+      <c r="E99" t="s">
+        <v>174</v>
+      </c>
+      <c r="F99" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100">
+        <f>A99+1</f>
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>164</v>
+      </c>
+      <c r="C100">
+        <v>29</v>
+      </c>
+      <c r="D100" t="s">
+        <v>161</v>
+      </c>
+      <c r="E100" t="s">
+        <v>172</v>
+      </c>
+      <c r="F100" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101">
+        <f>A100+1</f>
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>164</v>
+      </c>
+      <c r="C101">
+        <v>30</v>
+      </c>
+      <c r="D101" t="s">
+        <v>161</v>
+      </c>
+      <c r="E101" t="s">
+        <v>173</v>
+      </c>
+      <c r="F101" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="F1:F101"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17560" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17560" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Note" sheetId="1" r:id="rId1"/>
@@ -54,9 +54,6 @@
     <t>username</t>
   </si>
   <si>
-    <t>activity</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -72,9 +69,6 @@
     <t>entrance</t>
   </si>
   <si>
-    <t>landmark</t>
-  </si>
-  <si>
     <t>the entrance of the park</t>
   </si>
   <si>
@@ -559,6 +553,12 @@
   </si>
   <si>
     <t>Media</t>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>Landmark</t>
   </si>
 </sst>
 </file>
@@ -618,7 +618,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="128">
+  <cellStyleXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -704,6 +704,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -752,7 +760,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="128">
+  <cellStyles count="136">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -843,6 +851,10 @@
     <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="135" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -880,6 +892,10 @@
     <cellStyle name="Hyperlink" xfId="122" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="124" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="126" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="128" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="130" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="132" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="134" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1256,16 +1272,16 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1282,16 +1298,16 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1302,22 +1318,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
       </c>
       <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" t="s">
         <v>31</v>
       </c>
-      <c r="F4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
       <c r="H4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1334,16 +1350,16 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" t="s">
         <v>34</v>
-      </c>
-      <c r="H5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1351,7 +1367,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
@@ -1360,16 +1376,16 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1377,7 +1393,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
@@ -1386,16 +1402,16 @@
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1403,25 +1419,25 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" t="s">
         <v>35</v>
-      </c>
-      <c r="H8" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1430,25 +1446,25 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1457,25 +1473,25 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1484,25 +1500,25 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1511,25 +1527,25 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1538,25 +1554,25 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s">
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1565,25 +1581,25 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1592,25 +1608,25 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1619,25 +1635,25 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D16" t="s">
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1646,7 +1662,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
         <v>3</v>
@@ -1655,16 +1671,16 @@
         <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1673,7 +1689,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
         <v>3</v>
@@ -1682,16 +1698,16 @@
         <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1700,25 +1716,25 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D19" t="s">
         <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1727,25 +1743,25 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D20" t="s">
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1754,25 +1770,25 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D21" t="s">
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1781,25 +1797,25 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D22" t="s">
         <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H22" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1808,25 +1824,25 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D23" t="s">
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1835,25 +1851,25 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D24" t="s">
         <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1862,25 +1878,25 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D25" t="s">
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1889,25 +1905,25 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D26" t="s">
         <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H26" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1916,25 +1932,25 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D27" t="s">
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H27" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1943,25 +1959,25 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D28" t="s">
         <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H28" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1970,25 +1986,25 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D29" t="s">
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G29" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H29" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1997,25 +2013,25 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D30" t="s">
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G30" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H30" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2024,25 +2040,25 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D31" t="s">
         <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F31" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H31" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2051,25 +2067,25 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D32" t="s">
         <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G32" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H32" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2078,25 +2094,25 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D33" t="s">
         <v>2</v>
       </c>
       <c r="E33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2105,25 +2121,25 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C34" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D34" t="s">
         <v>2</v>
       </c>
       <c r="E34" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G34" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H34" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2132,25 +2148,25 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C35" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D35" t="s">
         <v>2</v>
       </c>
       <c r="E35" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F35" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G35" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H35" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2159,25 +2175,25 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C36" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D36" t="s">
         <v>2</v>
       </c>
       <c r="E36" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F36" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G36" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H36" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2186,25 +2202,25 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C37" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D37" t="s">
         <v>2</v>
       </c>
       <c r="E37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G37" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H37" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2213,25 +2229,25 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C38" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D38" t="s">
         <v>2</v>
       </c>
       <c r="E38" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G38" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H38" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2240,25 +2256,25 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C39" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D39" t="s">
         <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F39" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G39" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H39" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2267,25 +2283,25 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C40" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D40" t="s">
         <v>2</v>
       </c>
       <c r="E40" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F40" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G40" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H40" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2294,25 +2310,25 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C41" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D41" t="s">
         <v>2</v>
       </c>
       <c r="E41" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G41" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H41" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2321,25 +2337,25 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C42" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D42" t="s">
         <v>2</v>
       </c>
       <c r="E42" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F42" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G42" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H42" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2348,25 +2364,25 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C43" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D43" t="s">
         <v>2</v>
       </c>
       <c r="E43" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F43" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G43" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H43" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2375,25 +2391,25 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C44" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D44" t="s">
         <v>2</v>
       </c>
       <c r="E44" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G44" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H44" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2402,25 +2418,25 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C45" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D45" t="s">
         <v>2</v>
       </c>
       <c r="E45" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G45" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H45" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2429,25 +2445,25 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C46" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D46" t="s">
         <v>2</v>
       </c>
       <c r="E46" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G46" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H46" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2456,25 +2472,25 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C47" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D47" t="s">
         <v>2</v>
       </c>
       <c r="E47" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G47" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H47" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2483,25 +2499,25 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C48" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D48" t="s">
         <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G48" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H48" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2510,25 +2526,25 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C49" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D49" t="s">
         <v>2</v>
       </c>
       <c r="E49" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G49" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H49" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2537,25 +2553,25 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C50" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D50" t="s">
         <v>2</v>
       </c>
       <c r="E50" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G50" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H50" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2564,25 +2580,25 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C51" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D51" t="s">
         <v>2</v>
       </c>
       <c r="E51" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G51" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H51" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2591,25 +2607,25 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C52" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D52" t="s">
         <v>2</v>
       </c>
       <c r="E52" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G52" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H52" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2618,25 +2634,25 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C53" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D53" t="s">
         <v>2</v>
       </c>
       <c r="E53" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G53" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H53" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2645,25 +2661,25 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C54" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D54" t="s">
         <v>2</v>
       </c>
       <c r="E54" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G54" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H54" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2672,25 +2688,25 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C55" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D55" t="s">
         <v>2</v>
       </c>
       <c r="E55" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G55" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H55" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2699,25 +2715,25 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C56" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D56" t="s">
         <v>2</v>
       </c>
       <c r="E56" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G56" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H56" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2726,25 +2742,25 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C57" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D57" t="s">
         <v>2</v>
       </c>
       <c r="E57" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G57" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H57" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2753,25 +2769,25 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C58" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D58" t="s">
         <v>2</v>
       </c>
       <c r="E58" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G58" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H58" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2780,25 +2796,25 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C59" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D59" t="s">
         <v>2</v>
       </c>
       <c r="E59" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G59" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H59" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2807,25 +2823,25 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C60" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D60" t="s">
         <v>2</v>
       </c>
       <c r="E60" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G60" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H60" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2834,25 +2850,25 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C61" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D61" t="s">
         <v>2</v>
       </c>
       <c r="E61" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G61" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H61" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2861,25 +2877,25 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C62" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D62" t="s">
         <v>2</v>
       </c>
       <c r="E62" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G62" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H62" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2888,25 +2904,25 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C63" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D63" t="s">
         <v>2</v>
       </c>
       <c r="E63" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G63" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H63" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2915,25 +2931,25 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C64" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D64" t="s">
         <v>2</v>
       </c>
       <c r="E64" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H64" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2945,22 +2961,22 @@
         <v>0</v>
       </c>
       <c r="C65" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D65" t="s">
         <v>2</v>
       </c>
       <c r="E65" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G65" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H65" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2972,22 +2988,22 @@
         <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D66" t="s">
         <v>2</v>
       </c>
       <c r="E66" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G66" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H66" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2996,25 +3012,25 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C67" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D67" t="s">
         <v>2</v>
       </c>
       <c r="E67" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G67" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H67" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3023,25 +3039,25 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C68" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D68" t="s">
         <v>2</v>
       </c>
       <c r="E68" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G68" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H68" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3050,25 +3066,25 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C69" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D69" t="s">
         <v>2</v>
       </c>
       <c r="E69" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G69" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H69" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3077,25 +3093,25 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C70" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D70" t="s">
         <v>2</v>
       </c>
       <c r="E70" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G70" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H70" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3104,25 +3120,25 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C71" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D71" t="s">
         <v>2</v>
       </c>
       <c r="E71" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G71" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H71" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3131,25 +3147,25 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C72" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D72" t="s">
         <v>2</v>
       </c>
       <c r="E72" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G72" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H72" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3158,25 +3174,25 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C73" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D73" t="s">
         <v>2</v>
       </c>
       <c r="E73" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G73" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H73" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3185,25 +3201,25 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C74" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D74" t="s">
         <v>2</v>
       </c>
       <c r="E74" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G74" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H74" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3212,25 +3228,25 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C75" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D75" t="s">
         <v>2</v>
       </c>
       <c r="E75" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G75" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H75" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3239,25 +3255,25 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C76" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D76" t="s">
         <v>2</v>
       </c>
       <c r="E76" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G76" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H76" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3266,25 +3282,25 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C77" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D77" t="s">
         <v>2</v>
       </c>
       <c r="E77" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G77" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H77" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3293,25 +3309,25 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C78" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D78" t="s">
         <v>2</v>
       </c>
       <c r="E78" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G78" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H78" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3320,25 +3336,25 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C79" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D79" t="s">
         <v>2</v>
       </c>
       <c r="E79" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G79" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H79" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3347,25 +3363,25 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C80" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D80" t="s">
         <v>2</v>
       </c>
       <c r="E80" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G80" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H80" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3374,25 +3390,25 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C81" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D81" t="s">
         <v>2</v>
       </c>
       <c r="E81" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G81" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H81" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3401,25 +3417,25 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C82" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D82" t="s">
         <v>2</v>
       </c>
       <c r="E82" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G82" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H82" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3428,25 +3444,25 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C83" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D83" t="s">
         <v>2</v>
       </c>
       <c r="E83" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G83" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H83" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3458,22 +3474,22 @@
         <v>0</v>
       </c>
       <c r="C84" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D84" t="s">
         <v>2</v>
       </c>
       <c r="E84" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G84" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H84" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3485,22 +3501,22 @@
         <v>1</v>
       </c>
       <c r="C85" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D85" t="s">
         <v>2</v>
       </c>
       <c r="E85" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G85" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H85" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3509,25 +3525,25 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C86" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D86" t="s">
         <v>2</v>
       </c>
       <c r="E86" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G86" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H86" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3536,25 +3552,25 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C87" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D87" t="s">
         <v>2</v>
       </c>
       <c r="E87" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G87" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H87" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3563,25 +3579,25 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C88" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D88" t="s">
         <v>2</v>
       </c>
       <c r="E88" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G88" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H88" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3590,25 +3606,25 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C89" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D89" t="s">
         <v>2</v>
       </c>
       <c r="E89" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G89" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H89" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3617,25 +3633,25 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C90" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D90" t="s">
         <v>2</v>
       </c>
       <c r="E90" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G90" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H90" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3644,25 +3660,25 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C91" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D91" t="s">
         <v>2</v>
       </c>
       <c r="E91" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G91" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H91" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3671,25 +3687,25 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C92" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D92" t="s">
         <v>2</v>
       </c>
       <c r="E92" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G92" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H92" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3698,25 +3714,25 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C93" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D93" t="s">
         <v>2</v>
       </c>
       <c r="E93" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G93" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H93" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3725,25 +3741,25 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C94" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D94" t="s">
         <v>2</v>
       </c>
       <c r="E94" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G94" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H94" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3752,25 +3768,25 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C95" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D95" t="s">
         <v>2</v>
       </c>
       <c r="E95" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G95" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H95" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3779,25 +3795,25 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C96" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D96" t="s">
         <v>2</v>
       </c>
       <c r="E96" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G96" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H96" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3806,25 +3822,25 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C97" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D97" t="s">
         <v>2</v>
       </c>
       <c r="E97" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G97" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H97" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3833,25 +3849,25 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C98" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D98" t="s">
         <v>2</v>
       </c>
       <c r="E98" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G98" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H98" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3860,25 +3876,25 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C99" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D99" t="s">
         <v>2</v>
       </c>
       <c r="E99" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G99" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H99" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3887,25 +3903,25 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C100" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D100" t="s">
         <v>2</v>
       </c>
       <c r="E100" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G100" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H100" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3914,25 +3930,25 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C101" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D101" t="s">
         <v>2</v>
       </c>
       <c r="E101" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G101" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H101" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3941,25 +3957,25 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C102" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D102" t="s">
         <v>2</v>
       </c>
       <c r="E102" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G102" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H102" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -4012,7 +4028,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4020,7 +4036,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4028,7 +4044,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4036,7 +4052,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4044,7 +4060,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4052,7 +4068,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4060,7 +4076,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -4078,8 +4094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4095,10 +4111,10 @@
         <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4106,13 +4122,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>176</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4120,13 +4136,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>176</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4134,13 +4150,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>177</v>
       </c>
       <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
         <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4148,13 +4164,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4163,13 +4179,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>176</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4178,13 +4194,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>177</v>
       </c>
       <c r="C7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4193,13 +4209,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>177</v>
       </c>
       <c r="C8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4208,13 +4224,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>177</v>
       </c>
       <c r="C9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4223,13 +4239,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>177</v>
       </c>
       <c r="C10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -4247,8 +4263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4266,10 +4282,10 @@
         <v>100</v>
       </c>
       <c r="B1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D1" t="s">
         <v>6</v>
@@ -4286,16 +4302,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F2" t="s">
         <v>0</v>
@@ -4307,13 +4323,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -4328,19 +4344,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4349,19 +4365,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4370,19 +4386,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4391,19 +4407,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4412,19 +4428,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4433,19 +4449,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4454,19 +4470,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4475,19 +4491,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4496,19 +4512,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4517,19 +4533,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -4538,19 +4554,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E14" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -4559,19 +4575,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -4580,19 +4596,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -4601,19 +4617,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -4622,19 +4638,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C18">
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4643,19 +4659,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -4664,19 +4680,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E20" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -4685,19 +4701,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C21">
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E21" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -4706,19 +4722,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C22">
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E22" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -4727,19 +4743,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E23" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -4748,19 +4764,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C24">
         <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E24" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -4769,19 +4785,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E25" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F25" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -4790,19 +4806,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C26">
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F26" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -4811,19 +4827,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E27" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F27" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -4832,19 +4848,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C28">
         <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E28" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F28" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -4853,19 +4869,19 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C29">
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E29" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F29" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -4874,19 +4890,19 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C30">
         <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -4895,19 +4911,19 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C31">
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E31" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F31" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4916,19 +4932,19 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C32">
         <v>5</v>
       </c>
       <c r="D32" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E32" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F32" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -4937,19 +4953,19 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C33">
         <v>6</v>
       </c>
       <c r="D33" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E33" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F33" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4958,19 +4974,19 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C34">
         <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E34" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F34" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -4979,19 +4995,19 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C35">
         <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F35" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -5000,19 +5016,19 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C36">
         <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E36" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F36" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -5021,19 +5037,19 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C37">
         <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E37" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F37" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -5042,19 +5058,19 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C38">
         <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E38" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F38" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -5063,19 +5079,19 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C39">
         <v>12</v>
       </c>
       <c r="D39" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E39" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F39" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -5084,19 +5100,19 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C40">
         <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E40" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F40" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -5105,19 +5121,19 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C41">
         <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E41" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F41" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -5126,19 +5142,19 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C42">
         <v>15</v>
       </c>
       <c r="D42" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E42" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F42" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -5147,19 +5163,19 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C43">
         <v>16</v>
       </c>
       <c r="D43" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E43" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F43" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -5168,19 +5184,19 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C44">
         <v>17</v>
       </c>
       <c r="D44" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E44" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F44" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -5189,19 +5205,19 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C45">
         <v>18</v>
       </c>
       <c r="D45" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F45" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -5210,19 +5226,19 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C46">
         <v>19</v>
       </c>
       <c r="D46" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E46" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F46" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -5231,19 +5247,19 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C47">
         <v>20</v>
       </c>
       <c r="D47" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E47" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F47" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -5252,19 +5268,19 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C48">
         <v>21</v>
       </c>
       <c r="D48" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E48" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F48" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -5273,19 +5289,19 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C49">
         <v>22</v>
       </c>
       <c r="D49" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E49" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F49" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -5294,19 +5310,19 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C50">
         <v>23</v>
       </c>
       <c r="D50" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E50" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F50" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -5315,19 +5331,19 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C51">
         <v>24</v>
       </c>
       <c r="D51" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E51" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F51" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -5336,19 +5352,19 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C52">
         <v>25</v>
       </c>
       <c r="D52" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E52" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F52" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -5357,19 +5373,19 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C53">
         <v>26</v>
       </c>
       <c r="D53" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E53" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -5378,19 +5394,19 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C54">
         <v>27</v>
       </c>
       <c r="D54" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E54" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F54" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -5399,19 +5415,19 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C55">
         <v>28</v>
       </c>
       <c r="D55" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E55" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F55" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -5420,16 +5436,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C56">
         <v>29</v>
       </c>
       <c r="D56" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E56" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F56" t="s">
         <v>0</v>
@@ -5441,16 +5457,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C57">
         <v>30</v>
       </c>
       <c r="D57" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E57" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F57" t="s">
         <v>1</v>
@@ -5462,19 +5478,19 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C58">
         <v>31</v>
       </c>
       <c r="D58" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E58" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F58" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -5483,19 +5499,19 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C59">
         <v>32</v>
       </c>
       <c r="D59" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E59" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F59" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -5504,19 +5520,19 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C60">
         <v>33</v>
       </c>
       <c r="D60" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E60" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F60" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -5525,19 +5541,19 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C61">
         <v>34</v>
       </c>
       <c r="D61" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E61" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F61" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -5546,19 +5562,19 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C62">
         <v>35</v>
       </c>
       <c r="D62" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E62" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F62" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -5567,19 +5583,19 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C63">
         <v>36</v>
       </c>
       <c r="D63" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E63" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F63" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -5588,19 +5604,19 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C64">
         <v>37</v>
       </c>
       <c r="D64" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E64" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F64" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -5609,19 +5625,19 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C65">
         <v>38</v>
       </c>
       <c r="D65" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E65" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F65" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -5630,19 +5646,19 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C66">
         <v>39</v>
       </c>
       <c r="D66" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E66" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F66" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -5651,19 +5667,19 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C67">
         <v>40</v>
       </c>
       <c r="D67" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E67" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F67" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -5671,19 +5687,19 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C68">
         <v>41</v>
       </c>
       <c r="D68" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E68" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F68" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -5692,19 +5708,19 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C69">
         <v>12</v>
       </c>
       <c r="D69" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E69" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F69" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -5713,19 +5729,19 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C70">
         <v>13</v>
       </c>
       <c r="D70" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E70" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F70" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -5734,19 +5750,19 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C71">
         <v>14</v>
       </c>
       <c r="D71" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E71" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F71" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -5755,19 +5771,19 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C72">
         <v>15</v>
       </c>
       <c r="D72" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E72" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F72" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -5776,19 +5792,19 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C73">
         <v>16</v>
       </c>
       <c r="D73" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E73" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F73" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -5797,19 +5813,19 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C74">
         <v>17</v>
       </c>
       <c r="D74" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E74" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F74" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -5818,16 +5834,16 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C75">
         <v>18</v>
       </c>
       <c r="D75" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E75" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F75" t="s">
         <v>0</v>
@@ -5839,16 +5855,16 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C76">
         <v>19</v>
       </c>
       <c r="D76" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E76" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F76" t="s">
         <v>1</v>
@@ -5860,19 +5876,19 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C77">
         <v>20</v>
       </c>
       <c r="D77" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E77" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F77" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -5881,19 +5897,19 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C78">
         <v>21</v>
       </c>
       <c r="D78" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E78" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F78" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -5902,19 +5918,19 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C79">
         <v>22</v>
       </c>
       <c r="D79" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E79" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F79" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -5923,19 +5939,19 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C80">
         <v>23</v>
       </c>
       <c r="D80" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E80" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F80" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -5944,19 +5960,19 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C81">
         <v>24</v>
       </c>
       <c r="D81" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E81" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F81" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -5965,19 +5981,19 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C82">
         <v>25</v>
       </c>
       <c r="D82" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E82" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F82" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -5986,19 +6002,19 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C83">
         <v>26</v>
       </c>
       <c r="D83" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E83" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F83" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -6007,19 +6023,19 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C84">
         <v>27</v>
       </c>
       <c r="D84" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E84" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F84" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -6028,19 +6044,19 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C85">
         <v>28</v>
       </c>
       <c r="D85" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E85" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F85" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -6049,19 +6065,19 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C86">
         <v>29</v>
       </c>
       <c r="D86" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E86" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F86" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -6070,19 +6086,19 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C87">
         <v>30</v>
       </c>
       <c r="D87" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E87" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F87" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -6091,19 +6107,19 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C88">
         <v>31</v>
       </c>
       <c r="D88" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E88" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F88" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -6112,19 +6128,19 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C89">
         <v>32</v>
       </c>
       <c r="D89" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E89" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F89" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -6133,19 +6149,19 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C90">
         <v>33</v>
       </c>
       <c r="D90" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E90" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F90" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -6154,19 +6170,19 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C91">
         <v>34</v>
       </c>
       <c r="D91" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E91" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F91" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -6175,19 +6191,19 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C92">
         <v>35</v>
       </c>
       <c r="D92" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E92" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F92" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -6196,19 +6212,19 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C93">
         <v>36</v>
       </c>
       <c r="D93" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E93" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F93" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -6217,19 +6233,19 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C94">
         <v>37</v>
       </c>
       <c r="D94" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E94" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F94" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -6238,16 +6254,16 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C95">
         <v>38</v>
       </c>
       <c r="D95" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E95" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F95" t="s">
         <v>0</v>
@@ -6259,16 +6275,16 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C96">
         <v>39</v>
       </c>
       <c r="D96" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E96" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F96" t="s">
         <v>1</v>
@@ -6280,19 +6296,19 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C97">
         <v>40</v>
       </c>
       <c r="D97" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E97" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F97" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -6301,19 +6317,19 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C98">
         <v>41</v>
       </c>
       <c r="D98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E98" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F98" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -6322,19 +6338,19 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C99">
         <v>28</v>
       </c>
       <c r="D99" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E99" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F99" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -6343,19 +6359,19 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C100">
         <v>29</v>
       </c>
       <c r="D100" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E100" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F100" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -6364,19 +6380,19 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C101">
         <v>30</v>
       </c>
       <c r="D101" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E101" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F101" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17560" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17560" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Note" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="200">
   <si>
     <t>tomyeh</t>
   </si>
@@ -559,6 +559,72 @@
   </si>
   <si>
     <t>Landmark</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>consent</t>
+  </si>
+  <si>
+    <t>I have consented</t>
+  </si>
+  <si>
+    <t>Tom Yeh</t>
+  </si>
+  <si>
+    <t>Abby Stangl</t>
+  </si>
+  <si>
+    <t>Mike Skirpan</t>
+  </si>
+  <si>
+    <t>Jose Meti</t>
+  </si>
+  <si>
+    <t>Matt Kesh</t>
+  </si>
+  <si>
+    <t>Jackie Hama</t>
+  </si>
+  <si>
+    <t>Carol Boston</t>
+  </si>
+  <si>
+    <t>Jenny Preece</t>
+  </si>
+  <si>
+    <t>Petter Joisterest</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>tom@mail.com</t>
+  </si>
+  <si>
+    <t>abby@mail.com</t>
+  </si>
+  <si>
+    <t>mike@mail.com</t>
+  </si>
+  <si>
+    <t>jose@mail.com</t>
+  </si>
+  <si>
+    <t>matt@mail.com</t>
+  </si>
+  <si>
+    <t>jackie@mail.com</t>
+  </si>
+  <si>
+    <t>carol@umd.edu</t>
+  </si>
+  <si>
+    <t>jenny@umd.edu</t>
+  </si>
+  <si>
+    <t>petter@umd.edu</t>
   </si>
 </sst>
 </file>
@@ -618,7 +684,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="136">
+  <cellStyleXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -755,12 +821,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="148"/>
   </cellXfs>
-  <cellStyles count="136">
+  <cellStyles count="149">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -855,6 +935,12 @@
     <cellStyle name="Followed Hyperlink" xfId="131" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="133" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="145" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="147" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -896,6 +982,13 @@
     <cellStyle name="Hyperlink" xfId="130" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="132" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="134" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="136" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="138" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="140" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="142" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="144" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="146" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="148" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3991,95 +4084,231 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:6">
       <c r="A1">
         <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E2">
+        <v>1234</v>
+      </c>
+      <c r="F2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E3">
+        <v>1234</v>
+      </c>
+      <c r="F3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E4">
+        <v>1234</v>
+      </c>
+      <c r="F4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E5">
+        <v>1234</v>
+      </c>
+      <c r="F5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E6">
+        <v>1234</v>
+      </c>
+      <c r="F6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E7">
+        <v>1234</v>
+      </c>
+      <c r="F7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E8">
+        <v>1234</v>
+      </c>
+      <c r="F8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" t="s">
+        <v>188</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E9">
+        <v>1234</v>
+      </c>
+      <c r="F9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
       </c>
+      <c r="C10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E10">
+        <v>1234</v>
+      </c>
+      <c r="F10" t="s">
+        <v>180</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="D9" r:id="rId8"/>
+    <hyperlink ref="D10" r:id="rId9"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -4094,7 +4323,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>

--- a/data.xlsx
+++ b/data.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17560" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17560" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Note" sheetId="1" r:id="rId1"/>
     <sheet name="Account" sheetId="2" r:id="rId2"/>
     <sheet name="Context" sheetId="3" r:id="rId3"/>
     <sheet name="Feedback" sheetId="4" r:id="rId4"/>
+    <sheet name="Site" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Feedback!$F$1:$F$101</definedName>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="211">
   <si>
     <t>tomyeh</t>
   </si>
@@ -625,6 +626,39 @@
   </si>
   <si>
     <t>petter@umd.edu</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>umd</t>
+  </si>
+  <si>
+    <t>uncc</t>
+  </si>
+  <si>
+    <t>cu</t>
+  </si>
+  <si>
+    <t>site</t>
+  </si>
+  <si>
+    <t>aces</t>
+  </si>
+  <si>
+    <t>Aspen Center for Environmental Studies</t>
+  </si>
+  <si>
+    <t>University of North Carolina at Charlotte</t>
+  </si>
+  <si>
+    <t>University of Maryland College Park</t>
+  </si>
+  <si>
+    <t>University of Colorado Boulder</t>
+  </si>
+  <si>
+    <t>Test Site</t>
   </si>
 </sst>
 </file>
@@ -684,7 +718,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="149">
+  <cellStyleXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -834,13 +868,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="148"/>
   </cellXfs>
-  <cellStyles count="149">
+  <cellStyles count="150">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -941,6 +976,7 @@
     <cellStyle name="Followed Hyperlink" xfId="143" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="145" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="147" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="149" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1321,7 +1357,7 @@
   <dimension ref="A1:H102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:B92"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4086,15 +4122,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -4321,10 +4358,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4332,7 +4369,7 @@
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1">
         <v>9</v>
       </c>
@@ -4345,8 +4382,11 @@
       <c r="D1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4359,8 +4399,11 @@
       <c r="D2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4373,8 +4416,11 @@
       <c r="D3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4387,8 +4433,11 @@
       <c r="D4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4401,8 +4450,11 @@
       <c r="D5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <f>A5+1</f>
         <v>5</v>
@@ -4416,8 +4468,11 @@
       <c r="D6" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <f t="shared" ref="A7:A10" si="0">A6+1</f>
         <v>6</v>
@@ -4431,8 +4486,11 @@
       <c r="D7" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4446,8 +4504,11 @@
       <c r="D8" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4461,8 +4522,11 @@
       <c r="D9" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4475,6 +4539,9 @@
       </c>
       <c r="D10" t="s">
         <v>156</v>
+      </c>
+      <c r="E10" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -6634,4 +6701,93 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="5.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17560" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17560" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Note" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="215">
   <si>
     <t>tomyeh</t>
   </si>
@@ -659,6 +659,18 @@
   </si>
   <si>
     <t>Test Site</t>
+  </si>
+  <si>
+    <t>visit</t>
+  </si>
+  <si>
+    <t>Take one or more pictures at a campus landmark identified on the map to show you've been there</t>
+  </si>
+  <si>
+    <t>Take a picture, make a recording, or take notes about one or more things that interest you as you use CampusNet.</t>
+  </si>
+  <si>
+    <t>note</t>
   </si>
 </sst>
 </file>
@@ -718,7 +730,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="150">
+  <cellStyleXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -868,6 +880,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
@@ -875,7 +888,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="148"/>
   </cellXfs>
-  <cellStyles count="150">
+  <cellStyles count="151">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -977,6 +990,7 @@
     <cellStyle name="Followed Hyperlink" xfId="145" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="147" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="149" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4358,10 +4372,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4371,7 +4385,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
@@ -4505,7 +4519,7 @@
         <v>154</v>
       </c>
       <c r="E8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4523,7 +4537,7 @@
         <v>155</v>
       </c>
       <c r="E9" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4541,7 +4555,41 @@
         <v>156</v>
       </c>
       <c r="E10" t="s">
-        <v>202</v>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>176</v>
+      </c>
+      <c r="C11" t="s">
+        <v>211</v>
+      </c>
+      <c r="D11" t="s">
+        <v>212</v>
+      </c>
+      <c r="E11" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>176</v>
+      </c>
+      <c r="C12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D12" t="s">
+        <v>213</v>
+      </c>
+      <c r="E12" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -6707,8 +6755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="237">
   <si>
     <t>tomyeh</t>
   </si>
@@ -671,6 +671,94 @@
   </si>
   <si>
     <t>note</t>
+  </si>
+  <si>
+    <t>Hub of Activities</t>
+  </si>
+  <si>
+    <t>Natural springs feed Hallam Lake throughout the year, creating a hub of animal and plant activity. These springs have always served as a gathering place for people and wildlife. Ute Indians believed that springs were sacred places. They would camp near areas like Hallam Lake when they followed game into the mountains during the summer.
+In the mining era, Hallam Lake continued in its tradition as a communal meeting place. There was a boathouse, dance pavilion, and carousel here in the 1880s where Aspen citizens came to socialize and enjoy themselves, much like the waterfowl we will discuss at a later stop! As you walk, try to think about your home and places where plants, animals, and humans gather together.</t>
+  </si>
+  <si>
+    <t>Golden Eagle</t>
+  </si>
+  <si>
+    <t>It's time to meet ACES' resident Golden Eagle, a real Aspen local. In the summer of 1982 this eagle was found on the backside of Aspen Mountain by hikers.  She was brought to a raptor rehabilitation center in Fort Collins, where she was treated for a broken right wing and left leg. She was then returned to Aspen and Hallam Lake where she has lived ever since.
+All educational birds of prey at ACES are non-releasable due to permanent injuries that prevent their return to the wild. While at ACES, these raptors act as ambassadors for their species, promoting appreciation of birds of prey, their long-term protection, and the importance of such predators. Raptors such as our Golden Eagle are essential to a robust predator population, which is an indicator of a strong and healthy ecosystem.
+The Golden Eagle is found in North America, Eurasia, and Northern Africa. Locally, it is found in a variety of habitats, including mountainous areas, canyons, shrub-land, and grasslands. Golden eagles use their impeccable eyesight and powerful talons to snatch up rabbits, marmots, and ground squirrels. This eagle is fed a diet of mice, rats, quail, and elk or deer meat.</t>
+  </si>
+  <si>
+    <t>Take a seat and enjoy the view! The bench here offers us a place of refuge from the sun, rain, or snow, just as the lake offers refuge to a plethora of waterfowl. Geese and ducks return to Hallam Lake every year as the lake provides a safe stepping-stone on the journey of migration. It is a place to rest, relax, recharge, and connect with other travelers. Why do these birds stop here? The lake is an ideal habitat and is full of food. Hallam Lake never completely freezes in winter due to its 48  F spring water source. This provides a consistent, open-water site all year long.  At Hallam Lake we mark the seasons by visits from the birds. We count on their arrival just as they count on the safe haven that Hallam Lake offers.
+Ducks and geese aren't the only ones enjoying the water here. As you walk along the trail, look for clues of other animal activity -  who else might live in the lake?
+Count &amp; record how many ducks are on the lake.  How many geese?</t>
+  </si>
+  <si>
+    <t>A Safe Haven</t>
+  </si>
+  <si>
+    <t>Beavers have been living here at Hallam Lake for many decades. They are most active at dawn and dusk. Do you see any signs of their activity? Chewed sticks, pointed tree stumps, dams, and lodges are all clues that beavers live nearby. The beavers here live in a bank lodge located on the other side of the lake, under the leaning blue spruce tree.
+Beavers create a place for other community members to come together.  Only 5% of Colorado's land touches wetland or riparian areas, yet 80% of all wildlife species depend on these zones for some portion of their life cycle.  Beaver activity creates larger wet areas upon which so much wildlife depends. Plants that rely on significant amounts of water, such as cottonwoods, willows, and blue spruce, thrive in the presence of beaver.  Increased varieties of plant life lead to greater diversity in wildlife.  Yellow warblers, tiger salamanders, cutthroat trout, and mink are just a few species that rely on beaver-created areas.
+In addition to increasing biodiversity, the beaver ensures the future of a community. Beaver dams slow spring runoff, decreasing erosion. Beaver ponds also retain water during the dry times of the year when water sources may be scarce.
+The work of the beaver is a great example of how an individual can have many positive impacts on a community.  At the next stop, you will begin to see how ACES has benefited human members of the Aspen community as well.</t>
+  </si>
+  <si>
+    <t>Beavers: Builders of Community Space</t>
+  </si>
+  <si>
+    <t>Outdoor Classroom</t>
+  </si>
+  <si>
+    <t>As you stand here at the teaching platforms, you are joining a long lineage of visitors who have found Hallam Lake a place of connection and inspiration. Since the very early days of ACES, children and adults have used this spot as an outdoor classroom and laboratory, a place of thoughtful observation and study to reconnect with nature. Artists and writers have used Hallam Lake as an outdoor studio, finding these platforms to be a wonderful spot to express themselves. If you have a camera, a journal, or watercolors, stop and get in touch with your inner artist!</t>
+  </si>
+  <si>
+    <t>Look down and take notice of the strange plants growing next to the trail. The plants below are commonly known as horsetails and are a connection to an ancient part of plant history. Spore-producing horsetails belong to the genus Equisetum, in a plant family that is over 300 million years old!  They are also called scouring rushes because silica, stored in the plant's cells, makes them effective for scrubbing pots or polishing wood.  Native Americans used the horsetails as a blood coagulant, and more recent medical research has shown these plants to be an effective diuretic.  Can you think of other ancient plants or animals that are still living today?
+Horsetails thrived during the Carboniferous (coal-bearing) Period 300 million years ago and formed vast lush forests around the globe. Some scientists think that due to a lack of decomposing fungi and bacteria at the time, these forests did not fully decompose when they died. This dead plant matter, which had absorbed the sun's energy, remained dormant and was covered by sediment for millions of years. Today these ancient horsetail forests are mined as coal in western Colorado and many other places in the United States. The plant in front of you is a connection to the vast energy requirements of our 21st Century technology and economy. 
+Rough Silica: Rub the branches of the horsetail between your fingers to feel how scratchy and rough this plant is; a perfect tool for scouring cooking pots and polishing and sanding furniture.</t>
+  </si>
+  <si>
+    <t>Powerful Ties from Past to Present</t>
+  </si>
+  <si>
+    <t>Overlook the Sanctuary</t>
+  </si>
+  <si>
+    <t>Turn left for an out-and-back to the marsh platform.
+Elizabeth Paepcke's original idea for Hallam Lake was to be a sanctuary for wildlife. Over the years the idea of a sanctuary where wildlife can come together and be safe has been combined with ACES' educational mission. Most of the area we have walked is managed as an outdoor classroom. As you approach the marsh platform you will overlook the part of the Hallam Lake Preserve that remains a sanctuary for wildlife, untrammeled by humans. There are many wilderness areas surrounding Aspen that have similar restrictions.
+As you admire this small pocket of land from the platform, try to imagine all of the acres of wilderness throughout this country that hold a similar peace, beauty, and protection from man-made change.</t>
+  </si>
+  <si>
+    <t>Birding is a great way to connect with wildlife near your home or any place you visit. Take a moment to peek inside Bird Hollow. During the winter, bird feeders are hung from the trees and many species of birds can be seen here. Chickadees, nuthatches, finches, and Steller's Jays all frequent this area looking for food. Bird diversity increases dramatically in the summer.
+How many different bird songs can you hear? Record and identify them if you can!</t>
+  </si>
+  <si>
+    <t>Where Rivers Come Together</t>
+  </si>
+  <si>
+    <t>Bird Hollow</t>
+  </si>
+  <si>
+    <t>The rushing water below is the Roaring Fork River just before it meets Hunter Creek. Hallam Lake can be geographically defined as the low, wet riparian area adjacent to the confluence of Hunter Creek and the Roaring Fork River.
+Imagine, for a moment, the long journey a snowflake takes: landing on the top of the Continental Divide at 12,000 feet, melting, and joining this river on its way hundreds of miles to the southwest, where it carves through the Grand Canyon, and later provides irrigation, recreation, and electricity for people in the Southwest.
+The convergence of the Roaring Fork River and Hunter Creek is merely a snapshot of the snowflake's long journey.  Though you may return here and feel reassured by the continuous presence of the rivers, remember what the Greek philosopher Heroclitus said: You could not step twice into the same river; for other waters are ever flowing on to you.
+Where these streams meet, so do people of all ages, from all over the world.  Children and adults return to Hallam Lake year after year for summer classes, school programs, and evening lectures.  Though this place is always different, like a river, there are things that remain the same.  For over forty years, our center has been a safe haven for animals and people, a place for gathering and connecting to nature and to each other.  Though your time here at ACES may be but a snapshot in your life, we hope that the experience stays with you and you remember the tranquility of this spot overlooking the water.
+Take a moment to listen to all the sounds of the river before continuing on to our final stop.</t>
+  </si>
+  <si>
+    <t>Birds of Prey</t>
+  </si>
+  <si>
+    <t>You are standing in front of the Birds of Prey (BOP) House, the hub of our non-releasable raptor program. While at ACES, the resident BOP serve as our best educators, allowing visitors to get up close and personal to powerful wild animals.
+Over the years, ACES has been home to a Golden Eagle, Red-tail Hawks, Great Horned and Screech Owls, falcons, and many others.
+These educational animals have been staples of ACES' Environmental Science Education program, which reaches over 45,000 student contacts each school year. Children in this valley receive in-school Environmental Education once a week, as well as field programs at our sites and various other locations around Aspen.</t>
+  </si>
+  <si>
+    <t>Journey's End</t>
+  </si>
+  <si>
+    <t>Thank you for visiting Hallam Lake today! This has always been a place of connection for animals and people, from the early times of the Ute Indians to the present-day visitors and guests of our nature center. Birds touch down on the lake and rest, and this is a safe haven for deer, black bears, and beavers to raise their young. Hallam Lake is an important hub for the Aspen community, offering a place for people to share stories and ideas, as well as find inspiration and peace. Nature centers in many communities provide a place where everyone is welcome regardless of race, religion, or financial status.
+The solutions to the many challenges we face today can be found through strong community and collaboration. Together we can be stewards and protectors of this nature preserve, the wilderness surrounding Aspen, and all the wild places around the globe.
+Thank you for collecting information about the Preserve during your walk.  Please drop your observations off at the front desk.
+We are also very interested in the nature centers or hubs where you learn about your own home place. Please list your name, email, and the center near you so we can better learn about their role in community.</t>
   </si>
 </sst>
 </file>
@@ -730,7 +818,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="151">
+  <cellStyleXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -882,13 +970,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="148"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="151">
+  <cellStyles count="167">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -991,6 +1098,22 @@
     <cellStyle name="Followed Hyperlink" xfId="147" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="149" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="151" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="153" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="155" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="157" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="159" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="161" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="163" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="165" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4372,20 +4495,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="124.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
@@ -4414,7 +4538,7 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4431,7 +4555,7 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4448,7 +4572,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4590,6 +4714,201 @@
       </c>
       <c r="E12" t="s">
         <v>201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="90">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>177</v>
+      </c>
+      <c r="C13" t="s">
+        <v>215</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="135">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>177</v>
+      </c>
+      <c r="C14" t="s">
+        <v>217</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E14" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="120">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>177</v>
+      </c>
+      <c r="C15" t="s">
+        <v>220</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E15" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="180">
+      <c r="A16">
+        <f>A15+1</f>
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>177</v>
+      </c>
+      <c r="C16" t="s">
+        <v>222</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E16" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="60">
+      <c r="A17">
+        <f>A16+1</f>
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>177</v>
+      </c>
+      <c r="C17" t="s">
+        <v>223</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="180">
+      <c r="A18">
+        <f>A17+1</f>
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>177</v>
+      </c>
+      <c r="C18" t="s">
+        <v>226</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E18" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="105">
+      <c r="A19">
+        <f>A18+1</f>
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>177</v>
+      </c>
+      <c r="C19" t="s">
+        <v>227</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="60">
+      <c r="A20">
+        <f>A19+1</f>
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C20" t="s">
+        <v>231</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="210">
+      <c r="A21">
+        <f>A20+1</f>
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>177</v>
+      </c>
+      <c r="C21" t="s">
+        <v>230</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E21" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="90">
+      <c r="A22">
+        <f>A21+1</f>
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>177</v>
+      </c>
+      <c r="C22" t="s">
+        <v>233</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E22" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="150">
+      <c r="A23">
+        <f>A22+1</f>
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>177</v>
+      </c>
+      <c r="C23" t="s">
+        <v>235</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E23" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -4768,7 +5087,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <f>A7+1</f>
+        <f t="shared" ref="A8:A39" si="1">A7+1</f>
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -4789,7 +5108,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <f>A8+1</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B9" t="s">
@@ -4810,7 +5129,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <f>A9+1</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B10" t="s">
@@ -4831,7 +5150,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <f>A10+1</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B11" t="s">
@@ -4852,7 +5171,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <f>A11+1</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B12" t="s">
@@ -4873,7 +5192,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <f>A12+1</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B13" t="s">
@@ -4894,7 +5213,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <f>A13+1</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B14" t="s">
@@ -4915,7 +5234,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <f>A14+1</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="B15" t="s">
@@ -4936,7 +5255,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <f>A15+1</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="B16" t="s">
@@ -4957,7 +5276,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <f>A16+1</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="B17" t="s">
@@ -4978,7 +5297,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <f>A17+1</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="B18" t="s">
@@ -4999,7 +5318,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <f>A18+1</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="B19" t="s">
@@ -5020,7 +5339,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <f>A19+1</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="B20" t="s">
@@ -5041,7 +5360,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <f>A20+1</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="B21" t="s">
@@ -5062,7 +5381,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <f>A21+1</f>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="B22" t="s">
@@ -5083,7 +5402,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <f>A22+1</f>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="B23" t="s">
@@ -5104,7 +5423,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <f>A23+1</f>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="B24" t="s">
@@ -5125,7 +5444,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <f>A24+1</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="B25" t="s">
@@ -5146,7 +5465,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <f>A25+1</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="B26" t="s">
@@ -5167,7 +5486,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <f>A26+1</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="B27" t="s">
@@ -5188,7 +5507,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <f>A27+1</f>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="B28" t="s">
@@ -5209,7 +5528,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <f>A28+1</f>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="B29" t="s">
@@ -5230,7 +5549,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <f>A29+1</f>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="B30" t="s">
@@ -5251,7 +5570,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <f>A30+1</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="B31" t="s">
@@ -5272,7 +5591,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <f>A31+1</f>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="B32" t="s">
@@ -5293,7 +5612,7 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <f>A32+1</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="B33" t="s">
@@ -5314,7 +5633,7 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <f>A33+1</f>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="B34" t="s">
@@ -5335,7 +5654,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <f>A34+1</f>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="B35" t="s">
@@ -5356,7 +5675,7 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <f>A35+1</f>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="B36" t="s">
@@ -5377,7 +5696,7 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <f>A36+1</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="B37" t="s">
@@ -5398,7 +5717,7 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <f>A37+1</f>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="B38" t="s">
@@ -5419,7 +5738,7 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <f>A38+1</f>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="B39" t="s">
@@ -5440,7 +5759,7 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <f>A39+1</f>
+        <f t="shared" ref="A40:A67" si="2">A39+1</f>
         <v>39</v>
       </c>
       <c r="B40" t="s">
@@ -5461,7 +5780,7 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <f>A40+1</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="B41" t="s">
@@ -5482,7 +5801,7 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <f>A41+1</f>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="B42" t="s">
@@ -5503,7 +5822,7 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <f>A42+1</f>
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
       <c r="B43" t="s">
@@ -5524,7 +5843,7 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <f>A43+1</f>
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
       <c r="B44" t="s">
@@ -5545,7 +5864,7 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <f>A44+1</f>
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
       <c r="B45" t="s">
@@ -5566,7 +5885,7 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <f>A45+1</f>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
       <c r="B46" t="s">
@@ -5587,7 +5906,7 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <f>A46+1</f>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="B47" t="s">
@@ -5608,7 +5927,7 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <f>A47+1</f>
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
       <c r="B48" t="s">
@@ -5629,7 +5948,7 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <f>A48+1</f>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="B49" t="s">
@@ -5650,7 +5969,7 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <f>A49+1</f>
+        <f t="shared" si="2"/>
         <v>49</v>
       </c>
       <c r="B50" t="s">
@@ -5671,7 +5990,7 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <f>A50+1</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="B51" t="s">
@@ -5692,7 +6011,7 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <f>A51+1</f>
+        <f t="shared" si="2"/>
         <v>51</v>
       </c>
       <c r="B52" t="s">
@@ -5713,7 +6032,7 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <f>A52+1</f>
+        <f t="shared" si="2"/>
         <v>52</v>
       </c>
       <c r="B53" t="s">
@@ -5734,7 +6053,7 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <f>A53+1</f>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="B54" t="s">
@@ -5755,7 +6074,7 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <f>A54+1</f>
+        <f t="shared" si="2"/>
         <v>54</v>
       </c>
       <c r="B55" t="s">
@@ -5776,7 +6095,7 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <f>A55+1</f>
+        <f t="shared" si="2"/>
         <v>55</v>
       </c>
       <c r="B56" t="s">
@@ -5797,7 +6116,7 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <f>A56+1</f>
+        <f t="shared" si="2"/>
         <v>56</v>
       </c>
       <c r="B57" t="s">
@@ -5818,7 +6137,7 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <f>A57+1</f>
+        <f t="shared" si="2"/>
         <v>57</v>
       </c>
       <c r="B58" t="s">
@@ -5839,7 +6158,7 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <f>A58+1</f>
+        <f t="shared" si="2"/>
         <v>58</v>
       </c>
       <c r="B59" t="s">
@@ -5860,7 +6179,7 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <f>A59+1</f>
+        <f t="shared" si="2"/>
         <v>59</v>
       </c>
       <c r="B60" t="s">
@@ -5881,7 +6200,7 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <f>A60+1</f>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="B61" t="s">
@@ -5902,7 +6221,7 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <f>A61+1</f>
+        <f t="shared" si="2"/>
         <v>61</v>
       </c>
       <c r="B62" t="s">
@@ -5923,7 +6242,7 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <f>A62+1</f>
+        <f t="shared" si="2"/>
         <v>62</v>
       </c>
       <c r="B63" t="s">
@@ -5944,7 +6263,7 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <f>A63+1</f>
+        <f t="shared" si="2"/>
         <v>63</v>
       </c>
       <c r="B64" t="s">
@@ -5965,7 +6284,7 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <f>A64+1</f>
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
       <c r="B65" t="s">
@@ -5986,7 +6305,7 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <f>A65+1</f>
+        <f t="shared" si="2"/>
         <v>65</v>
       </c>
       <c r="B66" t="s">
@@ -6007,7 +6326,7 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <f>A66+1</f>
+        <f t="shared" si="2"/>
         <v>66</v>
       </c>
       <c r="B67" t="s">
@@ -6048,7 +6367,7 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <f>A68+1</f>
+        <f t="shared" ref="A69:A101" si="3">A68+1</f>
         <v>68</v>
       </c>
       <c r="B69" t="s">
@@ -6069,7 +6388,7 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <f>A69+1</f>
+        <f t="shared" si="3"/>
         <v>69</v>
       </c>
       <c r="B70" t="s">
@@ -6090,7 +6409,7 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <f>A70+1</f>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="B71" t="s">
@@ -6111,7 +6430,7 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <f>A71+1</f>
+        <f t="shared" si="3"/>
         <v>71</v>
       </c>
       <c r="B72" t="s">
@@ -6132,7 +6451,7 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <f>A72+1</f>
+        <f t="shared" si="3"/>
         <v>72</v>
       </c>
       <c r="B73" t="s">
@@ -6153,7 +6472,7 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <f>A73+1</f>
+        <f t="shared" si="3"/>
         <v>73</v>
       </c>
       <c r="B74" t="s">
@@ -6174,7 +6493,7 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <f>A74+1</f>
+        <f t="shared" si="3"/>
         <v>74</v>
       </c>
       <c r="B75" t="s">
@@ -6195,7 +6514,7 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <f>A75+1</f>
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
       <c r="B76" t="s">
@@ -6216,7 +6535,7 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <f>A76+1</f>
+        <f t="shared" si="3"/>
         <v>76</v>
       </c>
       <c r="B77" t="s">
@@ -6237,7 +6556,7 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <f>A77+1</f>
+        <f t="shared" si="3"/>
         <v>77</v>
       </c>
       <c r="B78" t="s">
@@ -6258,7 +6577,7 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <f>A78+1</f>
+        <f t="shared" si="3"/>
         <v>78</v>
       </c>
       <c r="B79" t="s">
@@ -6279,7 +6598,7 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <f>A79+1</f>
+        <f t="shared" si="3"/>
         <v>79</v>
       </c>
       <c r="B80" t="s">
@@ -6300,7 +6619,7 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <f>A80+1</f>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="B81" t="s">
@@ -6321,7 +6640,7 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <f>A81+1</f>
+        <f t="shared" si="3"/>
         <v>81</v>
       </c>
       <c r="B82" t="s">
@@ -6342,7 +6661,7 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <f>A82+1</f>
+        <f t="shared" si="3"/>
         <v>82</v>
       </c>
       <c r="B83" t="s">
@@ -6363,7 +6682,7 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <f>A83+1</f>
+        <f t="shared" si="3"/>
         <v>83</v>
       </c>
       <c r="B84" t="s">
@@ -6384,7 +6703,7 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <f>A84+1</f>
+        <f t="shared" si="3"/>
         <v>84</v>
       </c>
       <c r="B85" t="s">
@@ -6405,7 +6724,7 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <f>A85+1</f>
+        <f t="shared" si="3"/>
         <v>85</v>
       </c>
       <c r="B86" t="s">
@@ -6426,7 +6745,7 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <f>A86+1</f>
+        <f t="shared" si="3"/>
         <v>86</v>
       </c>
       <c r="B87" t="s">
@@ -6447,7 +6766,7 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <f>A87+1</f>
+        <f t="shared" si="3"/>
         <v>87</v>
       </c>
       <c r="B88" t="s">
@@ -6468,7 +6787,7 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <f>A88+1</f>
+        <f t="shared" si="3"/>
         <v>88</v>
       </c>
       <c r="B89" t="s">
@@ -6489,7 +6808,7 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <f>A89+1</f>
+        <f t="shared" si="3"/>
         <v>89</v>
       </c>
       <c r="B90" t="s">
@@ -6510,7 +6829,7 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <f>A90+1</f>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
       <c r="B91" t="s">
@@ -6531,7 +6850,7 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <f>A91+1</f>
+        <f t="shared" si="3"/>
         <v>91</v>
       </c>
       <c r="B92" t="s">
@@ -6552,7 +6871,7 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <f>A92+1</f>
+        <f t="shared" si="3"/>
         <v>92</v>
       </c>
       <c r="B93" t="s">
@@ -6573,7 +6892,7 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <f>A93+1</f>
+        <f t="shared" si="3"/>
         <v>93</v>
       </c>
       <c r="B94" t="s">
@@ -6594,7 +6913,7 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <f>A94+1</f>
+        <f t="shared" si="3"/>
         <v>94</v>
       </c>
       <c r="B95" t="s">
@@ -6615,7 +6934,7 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <f>A95+1</f>
+        <f t="shared" si="3"/>
         <v>95</v>
       </c>
       <c r="B96" t="s">
@@ -6636,7 +6955,7 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <f>A96+1</f>
+        <f t="shared" si="3"/>
         <v>96</v>
       </c>
       <c r="B97" t="s">
@@ -6657,7 +6976,7 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <f>A97+1</f>
+        <f t="shared" si="3"/>
         <v>97</v>
       </c>
       <c r="B98" t="s">
@@ -6678,7 +6997,7 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <f>A98+1</f>
+        <f t="shared" si="3"/>
         <v>98</v>
       </c>
       <c r="B99" t="s">
@@ -6699,7 +7018,7 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <f>A99+1</f>
+        <f t="shared" si="3"/>
         <v>99</v>
       </c>
       <c r="B100" t="s">
@@ -6720,7 +7039,7 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <f>A100+1</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="B101" t="s">

--- a/data.xlsx
+++ b/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17560" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Note" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="194">
   <si>
     <t>tomyeh</t>
   </si>
@@ -37,15 +37,9 @@
     <t>FieldNote</t>
   </si>
   <si>
-    <t>ask</t>
-  </si>
-  <si>
     <t>context</t>
   </si>
   <si>
-    <t>find</t>
-  </si>
-  <si>
     <t>kind</t>
   </si>
   <si>
@@ -58,27 +52,9 @@
     <t>name</t>
   </si>
   <si>
-    <t>ask a naturalist a really good question</t>
-  </si>
-  <si>
-    <t>find an interesting object</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
-    <t>entrance</t>
-  </si>
-  <si>
-    <t>the entrance of the park</t>
-  </si>
-  <si>
-    <t>classroom</t>
-  </si>
-  <si>
-    <t>the outdoor classroom</t>
-  </si>
-  <si>
     <t>what is this bird</t>
   </si>
   <si>
@@ -124,18 +100,6 @@
     <t>photo of a bird</t>
   </si>
   <si>
-    <t>video of a bird</t>
-  </si>
-  <si>
-    <t>video  of a bird</t>
-  </si>
-  <si>
-    <t>-6eJK9Qu3HY</t>
-  </si>
-  <si>
-    <t>4ENNzjy8QjU</t>
-  </si>
-  <si>
     <t>Photo</t>
   </si>
   <si>
@@ -175,12 +139,6 @@
     <t>awesome</t>
   </si>
   <si>
-    <t>observe</t>
-  </si>
-  <si>
-    <t>make some observation and take a picture</t>
-  </si>
-  <si>
     <t>some photo</t>
   </si>
   <si>
@@ -190,9 +148,6 @@
     <t>pretty</t>
   </si>
   <si>
-    <t>1380218582271.jpg</t>
-  </si>
-  <si>
     <t>1380218657954.jpg</t>
   </si>
   <si>
@@ -475,30 +430,6 @@
     <t>1382377879591.jpg</t>
   </si>
   <si>
-    <t>outdoor</t>
-  </si>
-  <si>
-    <t>bigtree</t>
-  </si>
-  <si>
-    <t>pond</t>
-  </si>
-  <si>
-    <t>birdnest</t>
-  </si>
-  <si>
-    <t>some cool outdoor location</t>
-  </si>
-  <si>
-    <t>a really big tree</t>
-  </si>
-  <si>
-    <t>a pond with lots of fish</t>
-  </si>
-  <si>
-    <t>many birds live here</t>
-  </si>
-  <si>
     <t>table</t>
   </si>
   <si>
@@ -511,18 +442,12 @@
     <t>a very interenting person</t>
   </si>
   <si>
-    <t>Account</t>
-  </si>
-  <si>
     <t>Note</t>
   </si>
   <si>
     <t>an interesting note</t>
   </si>
   <si>
-    <t>Context</t>
-  </si>
-  <si>
     <t>very fine activity</t>
   </si>
   <si>
@@ -553,15 +478,9 @@
     <t>Rating</t>
   </si>
   <si>
-    <t>Media</t>
-  </si>
-  <si>
     <t>Activity</t>
   </si>
   <si>
-    <t>Landmark</t>
-  </si>
-  <si>
     <t>password</t>
   </si>
   <si>
@@ -661,104 +580,34 @@
     <t>Test Site</t>
   </si>
   <si>
-    <t>visit</t>
-  </si>
-  <si>
-    <t>Take one or more pictures at a campus landmark identified on the map to show you've been there</t>
-  </si>
-  <si>
-    <t>Take a picture, make a recording, or take notes about one or more things that interest you as you use CampusNet.</t>
-  </si>
-  <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t>Hub of Activities</t>
-  </si>
-  <si>
-    <t>Natural springs feed Hallam Lake throughout the year, creating a hub of animal and plant activity. These springs have always served as a gathering place for people and wildlife. Ute Indians believed that springs were sacred places. They would camp near areas like Hallam Lake when they followed game into the mountains during the summer.
-In the mining era, Hallam Lake continued in its tradition as a communal meeting place. There was a boathouse, dance pavilion, and carousel here in the 1880s where Aspen citizens came to socialize and enjoy themselves, much like the waterfowl we will discuss at a later stop! As you walk, try to think about your home and places where plants, animals, and humans gather together.</t>
-  </si>
-  <si>
-    <t>Golden Eagle</t>
-  </si>
-  <si>
-    <t>It's time to meet ACES' resident Golden Eagle, a real Aspen local. In the summer of 1982 this eagle was found on the backside of Aspen Mountain by hikers.  She was brought to a raptor rehabilitation center in Fort Collins, where she was treated for a broken right wing and left leg. She was then returned to Aspen and Hallam Lake where she has lived ever since.
-All educational birds of prey at ACES are non-releasable due to permanent injuries that prevent their return to the wild. While at ACES, these raptors act as ambassadors for their species, promoting appreciation of birds of prey, their long-term protection, and the importance of such predators. Raptors such as our Golden Eagle are essential to a robust predator population, which is an indicator of a strong and healthy ecosystem.
-The Golden Eagle is found in North America, Eurasia, and Northern Africa. Locally, it is found in a variety of habitats, including mountainous areas, canyons, shrub-land, and grasslands. Golden eagles use their impeccable eyesight and powerful talons to snatch up rabbits, marmots, and ground squirrels. This eagle is fed a diet of mice, rats, quail, and elk or deer meat.</t>
-  </si>
-  <si>
-    <t>Take a seat and enjoy the view! The bench here offers us a place of refuge from the sun, rain, or snow, just as the lake offers refuge to a plethora of waterfowl. Geese and ducks return to Hallam Lake every year as the lake provides a safe stepping-stone on the journey of migration. It is a place to rest, relax, recharge, and connect with other travelers. Why do these birds stop here? The lake is an ideal habitat and is full of food. Hallam Lake never completely freezes in winter due to its 48  F spring water source. This provides a consistent, open-water site all year long.  At Hallam Lake we mark the seasons by visits from the birds. We count on their arrival just as they count on the safe haven that Hallam Lake offers.
-Ducks and geese aren't the only ones enjoying the water here. As you walk along the trail, look for clues of other animal activity -  who else might live in the lake?
-Count &amp; record how many ducks are on the lake.  How many geese?</t>
-  </si>
-  <si>
-    <t>A Safe Haven</t>
-  </si>
-  <si>
-    <t>Beavers have been living here at Hallam Lake for many decades. They are most active at dawn and dusk. Do you see any signs of their activity? Chewed sticks, pointed tree stumps, dams, and lodges are all clues that beavers live nearby. The beavers here live in a bank lodge located on the other side of the lake, under the leaning blue spruce tree.
-Beavers create a place for other community members to come together.  Only 5% of Colorado's land touches wetland or riparian areas, yet 80% of all wildlife species depend on these zones for some portion of their life cycle.  Beaver activity creates larger wet areas upon which so much wildlife depends. Plants that rely on significant amounts of water, such as cottonwoods, willows, and blue spruce, thrive in the presence of beaver.  Increased varieties of plant life lead to greater diversity in wildlife.  Yellow warblers, tiger salamanders, cutthroat trout, and mink are just a few species that rely on beaver-created areas.
-In addition to increasing biodiversity, the beaver ensures the future of a community. Beaver dams slow spring runoff, decreasing erosion. Beaver ponds also retain water during the dry times of the year when water sources may be scarce.
-The work of the beaver is a great example of how an individual can have many positive impacts on a community.  At the next stop, you will begin to see how ACES has benefited human members of the Aspen community as well.</t>
-  </si>
-  <si>
-    <t>Beavers: Builders of Community Space</t>
-  </si>
-  <si>
-    <t>Outdoor Classroom</t>
-  </si>
-  <si>
-    <t>As you stand here at the teaching platforms, you are joining a long lineage of visitors who have found Hallam Lake a place of connection and inspiration. Since the very early days of ACES, children and adults have used this spot as an outdoor classroom and laboratory, a place of thoughtful observation and study to reconnect with nature. Artists and writers have used Hallam Lake as an outdoor studio, finding these platforms to be a wonderful spot to express themselves. If you have a camera, a journal, or watercolors, stop and get in touch with your inner artist!</t>
-  </si>
-  <si>
-    <t>Look down and take notice of the strange plants growing next to the trail. The plants below are commonly known as horsetails and are a connection to an ancient part of plant history. Spore-producing horsetails belong to the genus Equisetum, in a plant family that is over 300 million years old!  They are also called scouring rushes because silica, stored in the plant's cells, makes them effective for scrubbing pots or polishing wood.  Native Americans used the horsetails as a blood coagulant, and more recent medical research has shown these plants to be an effective diuretic.  Can you think of other ancient plants or animals that are still living today?
-Horsetails thrived during the Carboniferous (coal-bearing) Period 300 million years ago and formed vast lush forests around the globe. Some scientists think that due to a lack of decomposing fungi and bacteria at the time, these forests did not fully decompose when they died. This dead plant matter, which had absorbed the sun's energy, remained dormant and was covered by sediment for millions of years. Today these ancient horsetail forests are mined as coal in western Colorado and many other places in the United States. The plant in front of you is a connection to the vast energy requirements of our 21st Century technology and economy. 
-Rough Silica: Rub the branches of the horsetail between your fingers to feel how scratchy and rough this plant is; a perfect tool for scouring cooking pots and polishing and sanding furniture.</t>
-  </si>
-  <si>
-    <t>Powerful Ties from Past to Present</t>
-  </si>
-  <si>
-    <t>Overlook the Sanctuary</t>
-  </si>
-  <si>
-    <t>Turn left for an out-and-back to the marsh platform.
-Elizabeth Paepcke's original idea for Hallam Lake was to be a sanctuary for wildlife. Over the years the idea of a sanctuary where wildlife can come together and be safe has been combined with ACES' educational mission. Most of the area we have walked is managed as an outdoor classroom. As you approach the marsh platform you will overlook the part of the Hallam Lake Preserve that remains a sanctuary for wildlife, untrammeled by humans. There are many wilderness areas surrounding Aspen that have similar restrictions.
-As you admire this small pocket of land from the platform, try to imagine all of the acres of wilderness throughout this country that hold a similar peace, beauty, and protection from man-made change.</t>
-  </si>
-  <si>
-    <t>Birding is a great way to connect with wildlife near your home or any place you visit. Take a moment to peek inside Bird Hollow. During the winter, bird feeders are hung from the trees and many species of birds can be seen here. Chickadees, nuthatches, finches, and Steller's Jays all frequent this area looking for food. Bird diversity increases dramatically in the summer.
-How many different bird songs can you hear? Record and identify them if you can!</t>
-  </si>
-  <si>
-    <t>Where Rivers Come Together</t>
-  </si>
-  <si>
-    <t>Bird Hollow</t>
-  </si>
-  <si>
-    <t>The rushing water below is the Roaring Fork River just before it meets Hunter Creek. Hallam Lake can be geographically defined as the low, wet riparian area adjacent to the confluence of Hunter Creek and the Roaring Fork River.
-Imagine, for a moment, the long journey a snowflake takes: landing on the top of the Continental Divide at 12,000 feet, melting, and joining this river on its way hundreds of miles to the southwest, where it carves through the Grand Canyon, and later provides irrigation, recreation, and electricity for people in the Southwest.
-The convergence of the Roaring Fork River and Hunter Creek is merely a snapshot of the snowflake's long journey.  Though you may return here and feel reassured by the continuous presence of the rivers, remember what the Greek philosopher Heroclitus said: You could not step twice into the same river; for other waters are ever flowing on to you.
-Where these streams meet, so do people of all ages, from all over the world.  Children and adults return to Hallam Lake year after year for summer classes, school programs, and evening lectures.  Though this place is always different, like a river, there are things that remain the same.  For over forty years, our center has been a safe haven for animals and people, a place for gathering and connecting to nature and to each other.  Though your time here at ACES may be but a snapshot in your life, we hope that the experience stays with you and you remember the tranquility of this spot overlooking the water.
-Take a moment to listen to all the sounds of the river before continuing on to our final stop.</t>
-  </si>
-  <si>
-    <t>Birds of Prey</t>
-  </si>
-  <si>
-    <t>You are standing in front of the Birds of Prey (BOP) House, the hub of our non-releasable raptor program. While at ACES, the resident BOP serve as our best educators, allowing visitors to get up close and personal to powerful wild animals.
-Over the years, ACES has been home to a Golden Eagle, Red-tail Hawks, Great Horned and Screech Owls, falcons, and many others.
-These educational animals have been staples of ACES' Environmental Science Education program, which reaches over 45,000 student contacts each school year. Children in this valley receive in-school Environmental Education once a week, as well as field programs at our sites and various other locations around Aspen.</t>
-  </si>
-  <si>
-    <t>Journey's End</t>
-  </si>
-  <si>
-    <t>Thank you for visiting Hallam Lake today! This has always been a place of connection for animals and people, from the early times of the Ute Indians to the present-day visitors and guests of our nature center. Birds touch down on the lake and rest, and this is a safe haven for deer, black bears, and beavers to raise their young. Hallam Lake is an important hub for the Aspen community, offering a place for people to share stories and ideas, as well as find inspiration and peace. Nature centers in many communities provide a place where everyone is welcome regardless of race, religion, or financial status.
-The solutions to the many challenges we face today can be found through strong community and collaboration. Together we can be stewards and protectors of this nature preserve, the wilderness surrounding Aspen, and all the wild places around the globe.
-Thank you for collecting information about the Preserve during your walk.  Please drop your observations off at the front desk.
-We are also very interested in the nature centers or hubs where you learn about your own home place. Please list your name, email, and the center near you so we can better learn about their role in community.</t>
+    <t>Buildings</t>
+  </si>
+  <si>
+    <t>Take a picture of trees you see and leave a note about it.</t>
+  </si>
+  <si>
+    <t>Take a picture of buildings you find interesting and leave a note about it.</t>
+  </si>
+  <si>
+    <t>Trees</t>
+  </si>
+  <si>
+    <t>rcripe</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Richelle Cripe</t>
+  </si>
+  <si>
+    <t>richele@mail.com</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>lng</t>
   </si>
 </sst>
 </file>
@@ -771,7 +620,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="136"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -818,7 +667,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="167">
+  <cellStyleXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -986,16 +835,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="148"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="167">
+  <cellStyles count="179">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1114,6 +972,18 @@
     <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="165" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="167" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="169" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="171" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="173" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="175" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="177" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1491,10 +1361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:J102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1507,24 +1377,30 @@
     <col min="8" max="8" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1">
         <v>101</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
       <c r="E1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>192</v>
+      </c>
+      <c r="J1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1532,25 +1408,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>187</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>130</v>
+      </c>
+      <c r="I2">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J2">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1558,25 +1440,31 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>187</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>131</v>
+      </c>
+      <c r="I3">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J3">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1584,25 +1472,31 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>187</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I4">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J4">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1610,1615 +1504,1975 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>187</v>
       </c>
       <c r="D5" t="s">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I5">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J5">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" t="s">
-        <v>31</v>
-      </c>
       <c r="H6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>133</v>
+      </c>
+      <c r="I6">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J6">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>187</v>
       </c>
       <c r="D7" t="s">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>133</v>
+      </c>
+      <c r="I7">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J7">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" t="s">
-        <v>30</v>
-      </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I8">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J8">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9">
         <f>A8+1</f>
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="D9" t="s">
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I9">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J9">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10">
         <f t="shared" ref="A10:A73" si="0">A9+1</f>
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="D10" t="s">
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I10">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J10">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="D11" t="s">
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G11" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I11">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J11">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="D12" t="s">
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="I12">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J12">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="D13" t="s">
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G13" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I13">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J13">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="D14" t="s">
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G14" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I14">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J14">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="D15" t="s">
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F15" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G15" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>45</v>
+      </c>
+      <c r="I15">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J15">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="D16" t="s">
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="F16" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G16" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="I16">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J16">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>3</v>
+        <v>187</v>
       </c>
       <c r="D17" t="s">
         <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G17" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>47</v>
+      </c>
+      <c r="I17">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J17">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>3</v>
+        <v>187</v>
       </c>
       <c r="D18" t="s">
         <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G18" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I18">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J18">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>188</v>
       </c>
       <c r="C19" t="s">
+        <v>187</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" t="s">
         <v>49</v>
       </c>
-      <c r="D19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" t="s">
-        <v>48</v>
-      </c>
-      <c r="F19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" t="s">
-        <v>51</v>
-      </c>
-      <c r="H19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J19">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>188</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="D20" t="s">
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G20" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I20">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J20">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>188</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="D21" t="s">
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G21" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" t="s">
         <v>51</v>
       </c>
-      <c r="H21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J21">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>188</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="D22" t="s">
         <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G22" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I22">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J22">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>188</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="D23" t="s">
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G23" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H23" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="I23">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J23">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>188</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="D24" t="s">
         <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G24" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H24" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I24">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J24">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>188</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="D25" t="s">
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G25" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H25" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>55</v>
+      </c>
+      <c r="I25">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J25">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="D26" t="s">
         <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G26" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H26" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I26">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J26">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="C27" t="s">
+        <v>187</v>
       </c>
       <c r="D27" t="s">
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G27" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H27" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>57</v>
+      </c>
+      <c r="I27">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J27">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>49</v>
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>187</v>
       </c>
       <c r="D28" t="s">
         <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G28" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H28" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I28">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J28">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>149</v>
+        <v>11</v>
+      </c>
+      <c r="C29" t="s">
+        <v>187</v>
       </c>
       <c r="D29" t="s">
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G29" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H29" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>59</v>
+      </c>
+      <c r="I29">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J29">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>150</v>
+        <v>14</v>
+      </c>
+      <c r="C30" t="s">
+        <v>187</v>
       </c>
       <c r="D30" t="s">
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F30" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G30" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H30" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I30">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J30">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>151</v>
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>187</v>
       </c>
       <c r="D31" t="s">
         <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="F31" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G31" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H31" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I31">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J31">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>152</v>
+        <v>11</v>
+      </c>
+      <c r="C32" t="s">
+        <v>187</v>
       </c>
       <c r="D32" t="s">
         <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="F32" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G32" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>62</v>
+      </c>
+      <c r="I32">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J32">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="D33" t="s">
         <v>2</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G33" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H33" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I33">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J33">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C34" t="s">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="D34" t="s">
         <v>2</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F34" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G34" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H34" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>64</v>
+      </c>
+      <c r="I34">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J34">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C35" t="s">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="D35" t="s">
         <v>2</v>
       </c>
       <c r="E35" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="F35" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G35" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H35" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I35">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J35">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="D36" t="s">
         <v>2</v>
       </c>
       <c r="E36" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G36" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H36" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>66</v>
+      </c>
+      <c r="I36">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J36">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="D37" t="s">
         <v>2</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F37" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G37" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H37" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I37">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J37">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C38" t="s">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="D38" t="s">
         <v>2</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G38" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H38" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>68</v>
+      </c>
+      <c r="I38">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J38">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="D39" t="s">
         <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G39" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H39" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I39">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J39">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="D40" t="s">
         <v>2</v>
       </c>
       <c r="E40" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G40" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H40" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I40">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J40">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C41" t="s">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="D41" t="s">
         <v>2</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F41" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G41" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H41" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I41">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J41">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C42" t="s">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="D42" t="s">
         <v>2</v>
       </c>
       <c r="E42" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="F42" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G42" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H42" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>72</v>
+      </c>
+      <c r="I42">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J42">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C43" t="s">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="D43" t="s">
         <v>2</v>
       </c>
       <c r="E43" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="F43" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G43" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H43" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="I43">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J43">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C44" t="s">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="D44" t="s">
         <v>2</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G44" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H44" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I44">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J44">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="D45" t="s">
         <v>2</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G45" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H45" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I45">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J45">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C46" t="s">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="D46" t="s">
         <v>2</v>
       </c>
       <c r="E46" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G46" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H46" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I46">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J46">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C47" t="s">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="D47" t="s">
         <v>2</v>
       </c>
       <c r="E47" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G47" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H47" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I47">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J47">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="D48" t="s">
         <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G48" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H48" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I48">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J48">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C49" t="s">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="D49" t="s">
         <v>2</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G49" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H49" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I49">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J49">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C50" t="s">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="D50" t="s">
         <v>2</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G50" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H50" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I50">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J50">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C51" t="s">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="D51" t="s">
         <v>2</v>
       </c>
       <c r="E51" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G51" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H51" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>81</v>
+      </c>
+      <c r="I51">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J51">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C52" t="s">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="D52" t="s">
         <v>2</v>
       </c>
       <c r="E52" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G52" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H52" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I52">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J52">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="D53" t="s">
         <v>2</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G53" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H53" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I53">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J53">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C54" t="s">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="D54" t="s">
         <v>2</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G54" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H54" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I54">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J54">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C55" t="s">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="D55" t="s">
         <v>2</v>
       </c>
       <c r="E55" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G55" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H55" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I55">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J55">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="D56" t="s">
         <v>2</v>
       </c>
       <c r="E56" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G56" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H56" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>86</v>
+      </c>
+      <c r="I56">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J56">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C57" t="s">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="D57" t="s">
         <v>2</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G57" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H57" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I57">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J57">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C58" t="s">
-        <v>15</v>
+        <v>187</v>
       </c>
       <c r="D58" t="s">
         <v>2</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G58" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H58" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>88</v>
+      </c>
+      <c r="I58">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J58">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C59" t="s">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="D59" t="s">
         <v>2</v>
       </c>
       <c r="E59" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G59" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H59" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I59">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J59">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C60" t="s">
-        <v>149</v>
+        <v>187</v>
       </c>
       <c r="D60" t="s">
         <v>2</v>
       </c>
       <c r="E60" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G60" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H60" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I60">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J60">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C61" t="s">
-        <v>150</v>
+        <v>187</v>
       </c>
       <c r="D61" t="s">
         <v>2</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G61" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H61" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="I61">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J61">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C62" t="s">
-        <v>151</v>
+        <v>187</v>
       </c>
       <c r="D62" t="s">
         <v>2</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G62" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H62" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I62">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J62">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C63" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="D63" t="s">
         <v>2</v>
       </c>
       <c r="E63" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G63" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H63" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I63">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J63">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C64" t="s">
-        <v>15</v>
+        <v>187</v>
       </c>
       <c r="D64" t="s">
         <v>2</v>
       </c>
       <c r="E64" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G64" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H64" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>94</v>
+      </c>
+      <c r="I64">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J64">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -3227,25 +3481,31 @@
         <v>0</v>
       </c>
       <c r="C65" t="s">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="D65" t="s">
         <v>2</v>
       </c>
       <c r="E65" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G65" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H65" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>95</v>
+      </c>
+      <c r="I65">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J65">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -3254,484 +3514,592 @@
         <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>149</v>
+        <v>187</v>
       </c>
       <c r="D66" t="s">
         <v>2</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G66" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H66" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I66">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J66">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C67" t="s">
-        <v>150</v>
+        <v>187</v>
       </c>
       <c r="D67" t="s">
         <v>2</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G67" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H67" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I67">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J67">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68">
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C68" t="s">
-        <v>151</v>
+        <v>187</v>
       </c>
       <c r="D68" t="s">
         <v>2</v>
       </c>
       <c r="E68" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G68" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H68" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>98</v>
+      </c>
+      <c r="I68">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J68">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C69" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="D69" t="s">
         <v>2</v>
       </c>
       <c r="E69" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G69" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H69" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>99</v>
+      </c>
+      <c r="I69">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J69">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70">
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C70" t="s">
-        <v>15</v>
+        <v>187</v>
       </c>
       <c r="D70" t="s">
         <v>2</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G70" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H70" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I70">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J70">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C71" t="s">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="D71" t="s">
         <v>2</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G71" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H71" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I71">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J71">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72">
         <f t="shared" si="0"/>
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C72" t="s">
-        <v>149</v>
+        <v>187</v>
       </c>
       <c r="D72" t="s">
         <v>2</v>
       </c>
       <c r="E72" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G72" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H72" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>102</v>
+      </c>
+      <c r="I72">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J72">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C73" t="s">
-        <v>150</v>
+        <v>187</v>
       </c>
       <c r="D73" t="s">
         <v>2</v>
       </c>
       <c r="E73" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G73" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H73" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>103</v>
+      </c>
+      <c r="I73">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J73">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74">
         <f t="shared" ref="A74:A102" si="1">A73+1</f>
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C74" t="s">
-        <v>151</v>
+        <v>187</v>
       </c>
       <c r="D74" t="s">
         <v>2</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G74" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H74" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>104</v>
+      </c>
+      <c r="I74">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J74">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C75" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="D75" t="s">
         <v>2</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G75" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H75" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I75">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J75">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C76" t="s">
-        <v>15</v>
+        <v>187</v>
       </c>
       <c r="D76" t="s">
         <v>2</v>
       </c>
       <c r="E76" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G76" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H76" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I76">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J76">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C77" t="s">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="D77" t="s">
         <v>2</v>
       </c>
       <c r="E77" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G77" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H77" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>107</v>
+      </c>
+      <c r="I77">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J77">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C78" t="s">
-        <v>149</v>
+        <v>187</v>
       </c>
       <c r="D78" t="s">
         <v>2</v>
       </c>
       <c r="E78" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G78" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H78" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>108</v>
+      </c>
+      <c r="I78">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J78">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C79" t="s">
-        <v>150</v>
+        <v>187</v>
       </c>
       <c r="D79" t="s">
         <v>2</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G79" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H79" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>109</v>
+      </c>
+      <c r="I79">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J79">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C80" t="s">
-        <v>151</v>
+        <v>187</v>
       </c>
       <c r="D80" t="s">
         <v>2</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G80" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H80" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>110</v>
+      </c>
+      <c r="I80">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J80">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C81" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="D81" t="s">
         <v>2</v>
       </c>
       <c r="E81" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G81" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H81" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I81">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J81">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C82" t="s">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="D82" t="s">
         <v>2</v>
       </c>
       <c r="E82" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G82" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H82" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>112</v>
+      </c>
+      <c r="I82">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J82">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C83" t="s">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="D83" t="s">
         <v>2</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G83" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H83" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I83">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J83">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -3740,25 +4108,31 @@
         <v>0</v>
       </c>
       <c r="C84" t="s">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="D84" t="s">
         <v>2</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G84" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H84" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I84">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J84">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -3767,481 +4141,589 @@
         <v>1</v>
       </c>
       <c r="C85" t="s">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="D85" t="s">
         <v>2</v>
       </c>
       <c r="E85" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G85" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H85" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>115</v>
+      </c>
+      <c r="I85">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J85">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C86" t="s">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="D86" t="s">
         <v>2</v>
       </c>
       <c r="E86" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G86" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H86" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>116</v>
+      </c>
+      <c r="I86">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J86">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C87" t="s">
-        <v>15</v>
+        <v>187</v>
       </c>
       <c r="D87" t="s">
         <v>2</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G87" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H87" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>117</v>
+      </c>
+      <c r="I87">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J87">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88">
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C88" t="s">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="D88" t="s">
         <v>2</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G88" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H88" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>118</v>
+      </c>
+      <c r="I88">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J88">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C89" t="s">
-        <v>149</v>
+        <v>187</v>
       </c>
       <c r="D89" t="s">
         <v>2</v>
       </c>
       <c r="E89" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G89" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H89" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>119</v>
+      </c>
+      <c r="I89">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J89">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C90" t="s">
-        <v>150</v>
+        <v>187</v>
       </c>
       <c r="D90" t="s">
         <v>2</v>
       </c>
       <c r="E90" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G90" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H90" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I90">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J90">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C91" t="s">
-        <v>151</v>
+        <v>187</v>
       </c>
       <c r="D91" t="s">
         <v>2</v>
       </c>
       <c r="E91" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G91" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H91" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>121</v>
+      </c>
+      <c r="I91">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J91">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C92" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="D92" t="s">
         <v>2</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G92" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H92" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>122</v>
+      </c>
+      <c r="I92">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J92">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C93" t="s">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="D93" t="s">
         <v>2</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G93" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H93" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>123</v>
+      </c>
+      <c r="I93">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J93">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C94" t="s">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="D94" t="s">
         <v>2</v>
       </c>
       <c r="E94" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G94" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H94" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>124</v>
+      </c>
+      <c r="I94">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J94">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C95" t="s">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="D95" t="s">
         <v>2</v>
       </c>
       <c r="E95" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G95" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H95" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>125</v>
+      </c>
+      <c r="I95">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J95">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C96" t="s">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="D96" t="s">
         <v>2</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G96" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H96" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>126</v>
+      </c>
+      <c r="I96">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J96">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C97" t="s">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="D97" t="s">
         <v>2</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G97" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H97" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>127</v>
+      </c>
+      <c r="I97">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J97">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C98" t="s">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="D98" t="s">
         <v>2</v>
       </c>
       <c r="E98" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G98" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H98" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>128</v>
+      </c>
+      <c r="I98">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J98">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C99" t="s">
-        <v>15</v>
+        <v>187</v>
       </c>
       <c r="D99" t="s">
         <v>2</v>
       </c>
       <c r="E99" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G99" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H99" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I99">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J99">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C100" t="s">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="D100" t="s">
         <v>2</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G100" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H100" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>130</v>
+      </c>
+      <c r="I100">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J100">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C101" t="s">
-        <v>149</v>
+        <v>187</v>
       </c>
       <c r="D101" t="s">
         <v>2</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G101" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H101" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>131</v>
+      </c>
+      <c r="I101">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J101">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C102" t="s">
-        <v>150</v>
+        <v>187</v>
       </c>
       <c r="D102" t="s">
         <v>2</v>
       </c>
       <c r="E102" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G102" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H102" t="s">
-        <v>147</v>
+        <v>132</v>
+      </c>
+      <c r="I102">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J102">
+        <v>-106.8210536</v>
       </c>
     </row>
   </sheetData>
@@ -4257,10 +4739,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4273,22 +4755,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="E1" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="F1" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4299,16 +4781,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="E2">
         <v>1234</v>
       </c>
       <c r="F2" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4319,16 +4801,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="E3">
         <v>1234</v>
       </c>
       <c r="F3" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4336,19 +4818,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="E4">
         <v>1234</v>
       </c>
       <c r="F4" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4356,19 +4838,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="E5">
         <v>1234</v>
       </c>
       <c r="F5" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4376,19 +4858,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="E6">
         <v>1234</v>
       </c>
       <c r="F6" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4396,19 +4878,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="E7">
         <v>1234</v>
       </c>
       <c r="F7" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4416,19 +4898,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="E8">
         <v>1234</v>
       </c>
       <c r="F8" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4436,19 +4918,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="E9">
         <v>1234</v>
       </c>
       <c r="F9" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4456,19 +4938,44 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>189</v>
+        <v>162</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="E10">
         <v>1234</v>
       </c>
       <c r="F10" t="s">
-        <v>180</v>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>188</v>
+      </c>
+      <c r="C11" t="s">
+        <v>190</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E11">
+        <v>1234</v>
+      </c>
+      <c r="F11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="C12" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -4482,6 +4989,7 @@
     <hyperlink ref="D8" r:id="rId7"/>
     <hyperlink ref="D9" r:id="rId8"/>
     <hyperlink ref="D10" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4495,10 +5003,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4509,19 +5017,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4529,16 +5037,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E2" t="s">
         <v>176</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4546,369 +5054,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E3" t="s">
         <v>176</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
-        <f>A5+1</f>
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>176</v>
-      </c>
-      <c r="C6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
-        <f t="shared" ref="A7:A10" si="0">A6+1</f>
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>177</v>
-      </c>
-      <c r="C7" t="s">
-        <v>149</v>
-      </c>
-      <c r="D7" t="s">
-        <v>153</v>
-      </c>
-      <c r="E7" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>177</v>
-      </c>
-      <c r="C8" t="s">
-        <v>150</v>
-      </c>
-      <c r="D8" t="s">
-        <v>154</v>
-      </c>
-      <c r="E8" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>177</v>
-      </c>
-      <c r="C9" t="s">
-        <v>151</v>
-      </c>
-      <c r="D9" t="s">
-        <v>155</v>
-      </c>
-      <c r="E9" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>177</v>
-      </c>
-      <c r="C10" t="s">
-        <v>152</v>
-      </c>
-      <c r="D10" t="s">
-        <v>156</v>
-      </c>
-      <c r="E10" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>176</v>
-      </c>
-      <c r="C11" t="s">
-        <v>211</v>
-      </c>
-      <c r="D11" t="s">
-        <v>212</v>
-      </c>
-      <c r="E11" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>176</v>
-      </c>
-      <c r="C12" t="s">
-        <v>214</v>
-      </c>
-      <c r="D12" t="s">
-        <v>213</v>
-      </c>
-      <c r="E12" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="90">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>177</v>
-      </c>
-      <c r="C13" t="s">
-        <v>215</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="E13" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="135">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>177</v>
-      </c>
-      <c r="C14" t="s">
-        <v>217</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="E14" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="120">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>177</v>
-      </c>
-      <c r="C15" t="s">
-        <v>220</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E15" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="180">
-      <c r="A16">
-        <f>A15+1</f>
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>177</v>
-      </c>
-      <c r="C16" t="s">
-        <v>222</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="E16" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="60">
-      <c r="A17">
-        <f>A16+1</f>
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>177</v>
-      </c>
-      <c r="C17" t="s">
-        <v>223</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="E17" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="180">
-      <c r="A18">
-        <f>A17+1</f>
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>177</v>
-      </c>
-      <c r="C18" t="s">
-        <v>226</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="E18" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="105">
-      <c r="A19">
-        <f>A18+1</f>
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>177</v>
-      </c>
-      <c r="C19" t="s">
-        <v>227</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="E19" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="60">
-      <c r="A20">
-        <f>A19+1</f>
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>177</v>
-      </c>
-      <c r="C20" t="s">
-        <v>231</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="E20" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="210">
-      <c r="A21">
-        <f>A20+1</f>
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>177</v>
-      </c>
-      <c r="C21" t="s">
-        <v>230</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E21" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="90">
-      <c r="A22">
-        <f>A21+1</f>
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>177</v>
-      </c>
-      <c r="C22" t="s">
-        <v>233</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="E22" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="150">
-      <c r="A23">
-        <f>A22+1</f>
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>177</v>
-      </c>
-      <c r="C23" t="s">
-        <v>235</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="E23" t="s">
-        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -4926,8 +5081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4945,19 +5100,19 @@
         <v>100</v>
       </c>
       <c r="B1" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="C1" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
         <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4965,16 +5120,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E2" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="F2" t="s">
         <v>0</v>
@@ -4986,13 +5141,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -5007,19 +5162,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E4" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5028,19 +5183,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E5" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5049,19 +5204,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E6" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5070,19 +5225,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E7" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5091,19 +5246,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E8" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5112,19 +5267,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E9" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5133,19 +5288,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E10" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -5154,19 +5309,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E11" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -5175,19 +5330,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>175</v>
+        <v>138</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E12" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -5196,19 +5351,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E13" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -5217,19 +5372,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E14" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -5238,19 +5393,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E15" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="F15" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -5259,19 +5414,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>175</v>
+        <v>138</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E16" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="F16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -5280,19 +5435,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E17" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="F17" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -5301,19 +5456,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="C18">
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E18" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="F18" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -5322,19 +5477,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E19" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -5343,19 +5498,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>175</v>
+        <v>138</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E20" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="F20" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -5364,19 +5519,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="C21">
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E21" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="F21" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -5385,19 +5540,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="C22">
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E22" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -5406,19 +5561,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E23" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="F23" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -5427,19 +5582,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C24">
         <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E24" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="F24" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -5448,19 +5603,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E25" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="F25" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -5469,19 +5624,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="C26">
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E26" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="F26" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -5490,19 +5645,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E27" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -5511,19 +5666,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C28">
         <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E28" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="F28" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -5532,19 +5687,19 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="C29">
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E29" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="F29" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -5553,19 +5708,19 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C30">
         <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E30" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -5574,19 +5729,19 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C31">
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E31" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="F31" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -5595,19 +5750,19 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C32">
         <v>5</v>
       </c>
       <c r="D32" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E32" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="F32" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -5616,19 +5771,19 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C33">
         <v>6</v>
       </c>
       <c r="D33" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E33" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="F33" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -5637,19 +5792,19 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C34">
         <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E34" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="F34" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -5658,19 +5813,19 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C35">
         <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E35" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F35" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -5679,19 +5834,19 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C36">
         <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E36" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="F36" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -5700,19 +5855,19 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C37">
         <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E37" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="F37" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -5721,19 +5876,19 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C38">
         <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E38" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -5742,19 +5897,19 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C39">
         <v>12</v>
       </c>
       <c r="D39" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E39" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="F39" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -5763,19 +5918,19 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C40">
         <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E40" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="F40" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -5784,19 +5939,19 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C41">
         <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E41" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="F41" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -5805,19 +5960,19 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C42">
         <v>15</v>
       </c>
       <c r="D42" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E42" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="F42" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -5826,19 +5981,19 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C43">
         <v>16</v>
       </c>
       <c r="D43" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E43" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="F43" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -5847,19 +6002,19 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C44">
         <v>17</v>
       </c>
       <c r="D44" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E44" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="F44" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -5868,19 +6023,19 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C45">
         <v>18</v>
       </c>
       <c r="D45" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E45" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F45" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -5889,19 +6044,19 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C46">
         <v>19</v>
       </c>
       <c r="D46" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E46" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="F46" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -5910,19 +6065,19 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C47">
         <v>20</v>
       </c>
       <c r="D47" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E47" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="F47" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -5931,19 +6086,19 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C48">
         <v>21</v>
       </c>
       <c r="D48" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E48" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="F48" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -5952,19 +6107,19 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C49">
         <v>22</v>
       </c>
       <c r="D49" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E49" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="F49" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -5973,19 +6128,19 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C50">
         <v>23</v>
       </c>
       <c r="D50" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E50" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="F50" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -5994,19 +6149,19 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C51">
         <v>24</v>
       </c>
       <c r="D51" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E51" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="F51" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -6015,19 +6170,19 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C52">
         <v>25</v>
       </c>
       <c r="D52" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E52" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="F52" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -6036,19 +6191,19 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C53">
         <v>26</v>
       </c>
       <c r="D53" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E53" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="F53" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -6057,19 +6212,19 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C54">
         <v>27</v>
       </c>
       <c r="D54" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E54" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="F54" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -6078,19 +6233,19 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C55">
         <v>28</v>
       </c>
       <c r="D55" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E55" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="F55" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -6099,16 +6254,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C56">
         <v>29</v>
       </c>
       <c r="D56" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E56" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="F56" t="s">
         <v>0</v>
@@ -6120,16 +6275,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C57">
         <v>30</v>
       </c>
       <c r="D57" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E57" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="F57" t="s">
         <v>1</v>
@@ -6141,19 +6296,19 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C58">
         <v>31</v>
       </c>
       <c r="D58" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E58" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="F58" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -6162,19 +6317,19 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C59">
         <v>32</v>
       </c>
       <c r="D59" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E59" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F59" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -6183,19 +6338,19 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C60">
         <v>33</v>
       </c>
       <c r="D60" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E60" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="F60" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -6204,19 +6359,19 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C61">
         <v>34</v>
       </c>
       <c r="D61" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E61" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="F61" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -6225,19 +6380,19 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C62">
         <v>35</v>
       </c>
       <c r="D62" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E62" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="F62" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -6246,19 +6401,19 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C63">
         <v>36</v>
       </c>
       <c r="D63" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E63" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="F63" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -6267,19 +6422,19 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C64">
         <v>37</v>
       </c>
       <c r="D64" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E64" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="F64" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -6288,19 +6443,19 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C65">
         <v>38</v>
       </c>
       <c r="D65" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E65" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="F65" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -6309,19 +6464,19 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C66">
         <v>39</v>
       </c>
       <c r="D66" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E66" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="F66" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -6330,19 +6485,19 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C67">
         <v>40</v>
       </c>
       <c r="D67" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E67" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="F67" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -6350,19 +6505,19 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C68">
         <v>41</v>
       </c>
       <c r="D68" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E68" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="F68" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -6371,19 +6526,19 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C69">
         <v>12</v>
       </c>
       <c r="D69" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E69" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="F69" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -6392,19 +6547,19 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C70">
         <v>13</v>
       </c>
       <c r="D70" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E70" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="F70" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -6413,19 +6568,19 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C71">
         <v>14</v>
       </c>
       <c r="D71" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E71" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="F71" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -6434,19 +6589,19 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C72">
         <v>15</v>
       </c>
       <c r="D72" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E72" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="F72" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -6455,19 +6610,19 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C73">
         <v>16</v>
       </c>
       <c r="D73" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E73" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="F73" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -6476,19 +6631,19 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C74">
         <v>17</v>
       </c>
       <c r="D74" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E74" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="F74" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -6497,16 +6652,16 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C75">
         <v>18</v>
       </c>
       <c r="D75" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E75" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F75" t="s">
         <v>0</v>
@@ -6518,16 +6673,16 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C76">
         <v>19</v>
       </c>
       <c r="D76" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E76" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="F76" t="s">
         <v>1</v>
@@ -6539,19 +6694,19 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C77">
         <v>20</v>
       </c>
       <c r="D77" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E77" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="F77" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -6560,19 +6715,19 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C78">
         <v>21</v>
       </c>
       <c r="D78" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E78" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="F78" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -6581,19 +6736,19 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C79">
         <v>22</v>
       </c>
       <c r="D79" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E79" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="F79" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -6602,19 +6757,19 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C80">
         <v>23</v>
       </c>
       <c r="D80" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E80" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="F80" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -6623,19 +6778,19 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C81">
         <v>24</v>
       </c>
       <c r="D81" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E81" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="F81" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -6644,19 +6799,19 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C82">
         <v>25</v>
       </c>
       <c r="D82" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E82" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="F82" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -6665,19 +6820,19 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C83">
         <v>26</v>
       </c>
       <c r="D83" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E83" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="F83" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -6686,19 +6841,19 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C84">
         <v>27</v>
       </c>
       <c r="D84" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E84" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="F84" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -6707,19 +6862,19 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C85">
         <v>28</v>
       </c>
       <c r="D85" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E85" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="F85" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -6728,19 +6883,19 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C86">
         <v>29</v>
       </c>
       <c r="D86" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E86" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="F86" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -6749,19 +6904,19 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C87">
         <v>30</v>
       </c>
       <c r="D87" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E87" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="F87" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -6770,19 +6925,19 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C88">
         <v>31</v>
       </c>
       <c r="D88" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E88" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="F88" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -6791,19 +6946,19 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C89">
         <v>32</v>
       </c>
       <c r="D89" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E89" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F89" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -6812,19 +6967,19 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C90">
         <v>33</v>
       </c>
       <c r="D90" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E90" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="F90" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -6833,19 +6988,19 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C91">
         <v>34</v>
       </c>
       <c r="D91" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E91" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="F91" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -6854,19 +7009,19 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C92">
         <v>35</v>
       </c>
       <c r="D92" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E92" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="F92" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -6875,19 +7030,19 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C93">
         <v>36</v>
       </c>
       <c r="D93" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E93" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="F93" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -6896,19 +7051,19 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C94">
         <v>37</v>
       </c>
       <c r="D94" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E94" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="F94" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -6917,16 +7072,16 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C95">
         <v>38</v>
       </c>
       <c r="D95" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E95" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="F95" t="s">
         <v>0</v>
@@ -6938,16 +7093,16 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C96">
         <v>39</v>
       </c>
       <c r="D96" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E96" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="F96" t="s">
         <v>1</v>
@@ -6959,19 +7114,19 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C97">
         <v>40</v>
       </c>
       <c r="D97" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E97" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="F97" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -6980,19 +7135,19 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C98">
         <v>41</v>
       </c>
       <c r="D98" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E98" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="F98" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -7001,19 +7156,19 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C99">
         <v>28</v>
       </c>
       <c r="D99" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E99" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="F99" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -7022,19 +7177,19 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C100">
         <v>29</v>
       </c>
       <c r="D100" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E100" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="F100" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -7043,19 +7198,19 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C101">
         <v>30</v>
       </c>
       <c r="D101" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E101" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="F101" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -7088,10 +7243,10 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -7099,10 +7254,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="C2" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -7110,10 +7265,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="C3" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -7121,10 +7276,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="C4" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -7132,10 +7287,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="C5" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -7143,10 +7298,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="C6" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17560" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Note" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="215">
   <si>
     <t>tomyeh</t>
   </si>
@@ -103,9 +103,6 @@
     <t>Photo</t>
   </si>
   <si>
-    <t>Video</t>
-  </si>
-  <si>
     <t>this eagle is huge</t>
   </si>
   <si>
@@ -148,288 +145,6 @@
     <t>pretty</t>
   </si>
   <si>
-    <t>1380218657954.jpg</t>
-  </si>
-  <si>
-    <t>1380218690979.jpg</t>
-  </si>
-  <si>
-    <t>1380218748963.jpg</t>
-  </si>
-  <si>
-    <t>1380218865847.jpg</t>
-  </si>
-  <si>
-    <t>1380218923624.jpg</t>
-  </si>
-  <si>
-    <t>1380218954983.jpg</t>
-  </si>
-  <si>
-    <t>1380219051751.jpg</t>
-  </si>
-  <si>
-    <t>1380219166696.jpg</t>
-  </si>
-  <si>
-    <t>1380219248874.jpg</t>
-  </si>
-  <si>
-    <t>1381427592061.jpg</t>
-  </si>
-  <si>
-    <t>1381442033602.jpg</t>
-  </si>
-  <si>
-    <t>1381442148758.jpg</t>
-  </si>
-  <si>
-    <t>1381442524918.jpg</t>
-  </si>
-  <si>
-    <t>1381442986485.jpg</t>
-  </si>
-  <si>
-    <t>1381443012335.jpg</t>
-  </si>
-  <si>
-    <t>1381443139350.jpg</t>
-  </si>
-  <si>
-    <t>1381443196061.jpg</t>
-  </si>
-  <si>
-    <t>1381512527963.jpg</t>
-  </si>
-  <si>
-    <t>1381513201924.jpg</t>
-  </si>
-  <si>
-    <t>1381514063980.jpg</t>
-  </si>
-  <si>
-    <t>1381514388426.jpg</t>
-  </si>
-  <si>
-    <t>1381524348426.jpg</t>
-  </si>
-  <si>
-    <t>1381524476967.jpg</t>
-  </si>
-  <si>
-    <t>1381525650666.jpg</t>
-  </si>
-  <si>
-    <t>1381594521289.jpg</t>
-  </si>
-  <si>
-    <t>1381615221592.jpg</t>
-  </si>
-  <si>
-    <t>1381615234630.jpg</t>
-  </si>
-  <si>
-    <t>1381615243324.jpg</t>
-  </si>
-  <si>
-    <t>1381615248884.jpg</t>
-  </si>
-  <si>
-    <t>1381615257845.jpg</t>
-  </si>
-  <si>
-    <t>1381615324098.jpg</t>
-  </si>
-  <si>
-    <t>1381767630138.jpg</t>
-  </si>
-  <si>
-    <t>1381767728488.jpg</t>
-  </si>
-  <si>
-    <t>1381767779409.jpg</t>
-  </si>
-  <si>
-    <t>1381767789576.jpg</t>
-  </si>
-  <si>
-    <t>1381767803366.jpg</t>
-  </si>
-  <si>
-    <t>1381767857048.jpg</t>
-  </si>
-  <si>
-    <t>1381767873870.jpg</t>
-  </si>
-  <si>
-    <t>1381767911048.jpg</t>
-  </si>
-  <si>
-    <t>1381767947275.jpg</t>
-  </si>
-  <si>
-    <t>1381768006139.jpg</t>
-  </si>
-  <si>
-    <t>1381768054624.jpg</t>
-  </si>
-  <si>
-    <t>1381768081929.jpg</t>
-  </si>
-  <si>
-    <t>1381768111750.jpg</t>
-  </si>
-  <si>
-    <t>1381768127599.jpg</t>
-  </si>
-  <si>
-    <t>1381768175910.jpg</t>
-  </si>
-  <si>
-    <t>1381768220576.jpg</t>
-  </si>
-  <si>
-    <t>1381768291357.jpg</t>
-  </si>
-  <si>
-    <t>1381768317572.jpg</t>
-  </si>
-  <si>
-    <t>1381768339463.jpg</t>
-  </si>
-  <si>
-    <t>1381768409687.jpg</t>
-  </si>
-  <si>
-    <t>1381768439107.jpg</t>
-  </si>
-  <si>
-    <t>1381768548671.jpg</t>
-  </si>
-  <si>
-    <t>1381768565730.jpg</t>
-  </si>
-  <si>
-    <t>1381768619306.jpg</t>
-  </si>
-  <si>
-    <t>1381768667846.jpg</t>
-  </si>
-  <si>
-    <t>1381768693454.jpg</t>
-  </si>
-  <si>
-    <t>1381768730993.jpg</t>
-  </si>
-  <si>
-    <t>1381768765108.jpg</t>
-  </si>
-  <si>
-    <t>1381768825421.jpg</t>
-  </si>
-  <si>
-    <t>1381768837085.jpg</t>
-  </si>
-  <si>
-    <t>1381768845236.jpg</t>
-  </si>
-  <si>
-    <t>1381768863545.jpg</t>
-  </si>
-  <si>
-    <t>1381768883792.jpg</t>
-  </si>
-  <si>
-    <t>1381768917754.jpg</t>
-  </si>
-  <si>
-    <t>1381769021930.jpg</t>
-  </si>
-  <si>
-    <t>1381769108368.jpg</t>
-  </si>
-  <si>
-    <t>1381769129970.jpg</t>
-  </si>
-  <si>
-    <t>1381769142411.jpg</t>
-  </si>
-  <si>
-    <t>1381769152590.jpg</t>
-  </si>
-  <si>
-    <t>1381769169120.jpg</t>
-  </si>
-  <si>
-    <t>1381769180444.jpg</t>
-  </si>
-  <si>
-    <t>1381769203857.jpg</t>
-  </si>
-  <si>
-    <t>1381769219547.jpg</t>
-  </si>
-  <si>
-    <t>1381769241461.jpg</t>
-  </si>
-  <si>
-    <t>1381769250811.jpg</t>
-  </si>
-  <si>
-    <t>1381769277949.jpg</t>
-  </si>
-  <si>
-    <t>1381769325110.jpg</t>
-  </si>
-  <si>
-    <t>1381769350716.jpg</t>
-  </si>
-  <si>
-    <t>1381769397392.jpg</t>
-  </si>
-  <si>
-    <t>1381769442377.jpg</t>
-  </si>
-  <si>
-    <t>1381770749765.jpg</t>
-  </si>
-  <si>
-    <t>1381772117169.jpg</t>
-  </si>
-  <si>
-    <t>1381772347214.jpg</t>
-  </si>
-  <si>
-    <t>1381772678536.jpg</t>
-  </si>
-  <si>
-    <t>1381772756609.jpg</t>
-  </si>
-  <si>
-    <t>1381772923478.jpg</t>
-  </si>
-  <si>
-    <t>1381773571322.jpg</t>
-  </si>
-  <si>
-    <t>1381774013169.jpg</t>
-  </si>
-  <si>
-    <t>1381858701747.jpg</t>
-  </si>
-  <si>
-    <t>1381859734269.jpg</t>
-  </si>
-  <si>
-    <t>1381859759764.jpg</t>
-  </si>
-  <si>
-    <t>1381860125167.jpg</t>
-  </si>
-  <si>
-    <t>1382377879591.jpg</t>
-  </si>
-  <si>
     <t>table</t>
   </si>
   <si>
@@ -595,9 +310,6 @@
     <t>rcripe</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Richelle Cripe</t>
   </si>
   <si>
@@ -608,6 +320,357 @@
   </si>
   <si>
     <t>lng</t>
+  </si>
+  <si>
+    <t>osdlhqxuhtgt7sdherkv</t>
+  </si>
+  <si>
+    <t>k2ipuboypopeljpgc6wa</t>
+  </si>
+  <si>
+    <t>jws5u1fugi3lmy0k3umo</t>
+  </si>
+  <si>
+    <t>qyrtnc9vcr0umk3no5pa</t>
+  </si>
+  <si>
+    <t>yuagpgxyfxi9bv1jwbm6</t>
+  </si>
+  <si>
+    <t>pynwzltojyvdpqpboavk</t>
+  </si>
+  <si>
+    <t>ki37glhxpqgjqb5tf8za</t>
+  </si>
+  <si>
+    <t>k9bfatyeazccyvvfp3t7</t>
+  </si>
+  <si>
+    <t>mthtbjsipcjt2lz6c52f</t>
+  </si>
+  <si>
+    <t>ncviyoajw3pwrphcydqw</t>
+  </si>
+  <si>
+    <t>o9ts9vkre1rgsf7yffce</t>
+  </si>
+  <si>
+    <t>nq71toufjkzbtusxhqr0</t>
+  </si>
+  <si>
+    <t>gkbsiz0ssswcbtxanpe2</t>
+  </si>
+  <si>
+    <t>jsapgklqhkz8xrkzo5wf</t>
+  </si>
+  <si>
+    <t>q0hseza1mflzrefty5ga</t>
+  </si>
+  <si>
+    <t>dlzwhhpg2rf3ep3gljiq</t>
+  </si>
+  <si>
+    <t>jc1nqe0ujqse9ntdwhvi</t>
+  </si>
+  <si>
+    <t>wg0l1melwn7n7hajxt5b</t>
+  </si>
+  <si>
+    <t>tzkmz9cucs5562vpeauj</t>
+  </si>
+  <si>
+    <t>gyuc3k1pddtwynqnrggn</t>
+  </si>
+  <si>
+    <t>grjtwjbodv3hpqs12xpl</t>
+  </si>
+  <si>
+    <t>jhu2iocxkzc5whzppd0g</t>
+  </si>
+  <si>
+    <t>acspaygfjywijg8c4lth</t>
+  </si>
+  <si>
+    <t>se2e4gsxoxeoarivxnxy</t>
+  </si>
+  <si>
+    <t>fchouf7cgwizoqktfilk</t>
+  </si>
+  <si>
+    <t>yxckxlepgizzoocxe3bz</t>
+  </si>
+  <si>
+    <t>h96lnqzkbi5sputfpxpd</t>
+  </si>
+  <si>
+    <t>imqcyrwhjvyku53omloa</t>
+  </si>
+  <si>
+    <t>ajopp1stbt9a1urtm9bb</t>
+  </si>
+  <si>
+    <t>ohryldboqvuv8f7ksou8</t>
+  </si>
+  <si>
+    <t>iuotcdlpqewivc83tsaf</t>
+  </si>
+  <si>
+    <t>jtunnvpyf9latvpsqebl</t>
+  </si>
+  <si>
+    <t>s69qamqog430p5bysn2o</t>
+  </si>
+  <si>
+    <t>nuborihtuuxullfopea5</t>
+  </si>
+  <si>
+    <t>qnulndzzwdwf8fwflpdm</t>
+  </si>
+  <si>
+    <t>bmqwplyimi21tlxpaple</t>
+  </si>
+  <si>
+    <t>c7b6rm3lrqey2dc5ednp</t>
+  </si>
+  <si>
+    <t>xdhsaldgr0a9fqjff2dv</t>
+  </si>
+  <si>
+    <t>qdi8uvxb1or1jowmrv5j</t>
+  </si>
+  <si>
+    <t>etmpwxks9txmduue1esk</t>
+  </si>
+  <si>
+    <t>se2cfmlfs8h1nxujp131</t>
+  </si>
+  <si>
+    <t>zueqojmu7wlvztppu4b7</t>
+  </si>
+  <si>
+    <t>mzfbs7cus8dfydc2vihq</t>
+  </si>
+  <si>
+    <t>z8yqqjjed1jjkplvjz8t</t>
+  </si>
+  <si>
+    <t>eme70xnb7ucrarx7vare</t>
+  </si>
+  <si>
+    <t>g4ul6zc9kh0cbzjdgler</t>
+  </si>
+  <si>
+    <t>mpty3crithozfj1p4qon</t>
+  </si>
+  <si>
+    <t>v9smt4h9cn4nrwp25gqv</t>
+  </si>
+  <si>
+    <t>db11nn9bj7jpxmknhdv6</t>
+  </si>
+  <si>
+    <t>i6qutmivx6onrdxudlw6</t>
+  </si>
+  <si>
+    <t>j5ctofwwaglspz6jnflg</t>
+  </si>
+  <si>
+    <t>q0gsujgdgsdkesa3juli</t>
+  </si>
+  <si>
+    <t>sklp9tvidnjdd5irsvqx</t>
+  </si>
+  <si>
+    <t>og6dwgqzetlffpvdoi01</t>
+  </si>
+  <si>
+    <t>fv7auxs2l5k5whlfhafk</t>
+  </si>
+  <si>
+    <t>fevbprsofqvh2xw2ny6p</t>
+  </si>
+  <si>
+    <t>uiryzlyvcrdkiejhszka</t>
+  </si>
+  <si>
+    <t>faa3jmo2gdqbtkgxg4nl</t>
+  </si>
+  <si>
+    <t>nbsjlnx1pxpr3gtwln9m</t>
+  </si>
+  <si>
+    <t>qdrzqgxdzgmj4lrdlbzg</t>
+  </si>
+  <si>
+    <t>isehdhuzpz5schhsgiot</t>
+  </si>
+  <si>
+    <t>gto3y2d8up7ie6btnjkk</t>
+  </si>
+  <si>
+    <t>igqhop6hrwlcxi5rkar4</t>
+  </si>
+  <si>
+    <t>zke3u7djmmgqeb7qusli</t>
+  </si>
+  <si>
+    <t>nlpxgrurqnukv6aaksbm</t>
+  </si>
+  <si>
+    <t>azaod3qfa4fohs6bngaj</t>
+  </si>
+  <si>
+    <t>dxu4py9xhs3qxtdxxiyz</t>
+  </si>
+  <si>
+    <t>bxfji91mqukm9fazwdqc</t>
+  </si>
+  <si>
+    <t>mkbqgo4atc392qmsvwq2</t>
+  </si>
+  <si>
+    <t>jaoen4ijbsdgqptdmai1</t>
+  </si>
+  <si>
+    <t>qkxdy07njamdrbeqmt6z</t>
+  </si>
+  <si>
+    <t>azkhe3rt3cafzvbkyirk</t>
+  </si>
+  <si>
+    <t>grdemw2xjx0rmu4ehhy2</t>
+  </si>
+  <si>
+    <t>kuftnquz9bnvkqvzjyko</t>
+  </si>
+  <si>
+    <t>mh2nh4eycpqxmp6tv5e1</t>
+  </si>
+  <si>
+    <t>uodarpyedqfjjlqarxri</t>
+  </si>
+  <si>
+    <t>hzauqof2chxaoutuauci</t>
+  </si>
+  <si>
+    <t>cqjsogrorekjcwk22b68</t>
+  </si>
+  <si>
+    <t>fv0unqsymzdybzlozw3t</t>
+  </si>
+  <si>
+    <t>yiic4fqj0q9e01yjspd9</t>
+  </si>
+  <si>
+    <t>edkionidq3zal9c2b0nv</t>
+  </si>
+  <si>
+    <t>wbon9yo3mblkmkhcervd</t>
+  </si>
+  <si>
+    <t>lsml2e7h7qg9pprs3xon</t>
+  </si>
+  <si>
+    <t>wvijbcrabnoifep2fvqe</t>
+  </si>
+  <si>
+    <t>x7i05nmv7wuhrbvnl2mq</t>
+  </si>
+  <si>
+    <t>flnutpqps6b9abpvvt5f</t>
+  </si>
+  <si>
+    <t>m7z8buweaygdiyytg6ot</t>
+  </si>
+  <si>
+    <t>bki9qeokn0cptha4bwuq</t>
+  </si>
+  <si>
+    <t>qbi3tfr7c3o4a8owvjl8</t>
+  </si>
+  <si>
+    <t>txmeptzwx2tz37k6ue3w</t>
+  </si>
+  <si>
+    <t>ks21zakpx4d3lk1ldiif</t>
+  </si>
+  <si>
+    <t>pel3aw2xfir3myvmcg8u</t>
+  </si>
+  <si>
+    <t>adqchvnkdii9p43drs1s</t>
+  </si>
+  <si>
+    <t>ce7o2tmwpb5f40npvgwf</t>
+  </si>
+  <si>
+    <t>xy5sh2h3az5gbvj6znfd</t>
+  </si>
+  <si>
+    <t>janeg</t>
+  </si>
+  <si>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>trunk of a white ash tree</t>
+  </si>
+  <si>
+    <t>European linden tree. it didn't grow a lot after it was replanted on campus.</t>
+  </si>
+  <si>
+    <t>locust tree in front of the theater building</t>
+  </si>
+  <si>
+    <t>big plains cottonwood - centerpiece tree - over 100 feet tall</t>
+  </si>
+  <si>
+    <t>This is a chestnut oak tree. its an oak tree not a chestnut tree.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">twin catalpas - not dead! </t>
+  </si>
+  <si>
+    <t>former library 1902</t>
+  </si>
+  <si>
+    <t>talking about the american elms on campus. there are about 30 now but there used to be over 100. this is due to beetles.</t>
+  </si>
+  <si>
+    <t>american elm</t>
+  </si>
+  <si>
+    <t>Blue spruce tree has problems in the wind.</t>
+  </si>
+  <si>
+    <t>university theater building</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tiny crab apple tree </t>
+  </si>
+  <si>
+    <t>janeg@gmail.com</t>
+  </si>
+  <si>
+    <t>Janet Garrity</t>
+  </si>
+  <si>
+    <t>cu_tree</t>
+  </si>
+  <si>
+    <t>cu_building</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>aces_pilot</t>
+  </si>
+  <si>
+    <t>Pilot</t>
+  </si>
+  <si>
+    <t>Pilot test</t>
   </si>
 </sst>
 </file>
@@ -667,7 +730,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="179">
+  <cellStyleXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -817,6 +880,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -853,7 +933,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="148"/>
   </cellXfs>
-  <cellStyles count="179">
+  <cellStyles count="196">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -984,6 +1064,23 @@
     <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="177" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="179" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="181" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="183" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="185" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="187" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="189" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="191" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="193" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="195" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1361,10 +1458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J102"/>
+  <dimension ref="A1:K109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:J102"/>
+    <sheetView topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1372,14 +1469,17 @@
     <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.1640625" customWidth="1"/>
     <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
@@ -1394,10 +1494,10 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>192</v>
+        <v>96</v>
       </c>
       <c r="J1" t="s">
-        <v>193</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1408,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -1423,7 +1523,7 @@
         <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="I2">
         <v>39.197670199999997</v>
@@ -1440,7 +1540,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
@@ -1455,7 +1555,7 @@
         <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="I3">
         <v>39.197670199999997</v>
@@ -1472,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
@@ -1487,7 +1587,7 @@
         <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="I4">
         <v>39.197670199999997</v>
@@ -1504,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D5" t="s">
         <v>2</v>
@@ -1513,13 +1613,13 @@
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
         <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="I5">
         <v>39.197670199999997</v>
@@ -1536,7 +1636,7 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D6" t="s">
         <v>2</v>
@@ -1551,7 +1651,7 @@
         <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="I6">
         <v>39.197670199999997</v>
@@ -1568,7 +1668,7 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D7" t="s">
         <v>2</v>
@@ -1583,7 +1683,7 @@
         <v>23</v>
       </c>
       <c r="H7" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="I7">
         <v>39.197670199999997</v>
@@ -1600,7 +1700,7 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D8" t="s">
         <v>2</v>
@@ -1609,13 +1709,13 @@
         <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G8" t="s">
         <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="I8">
         <v>39.197670199999997</v>
@@ -1633,22 +1733,22 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D9" t="s">
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F9" t="s">
         <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H9" t="s">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="I9">
         <v>39.197670199999997</v>
@@ -1666,22 +1766,22 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D10" t="s">
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F10" t="s">
         <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="I10">
         <v>39.197670199999997</v>
@@ -1699,22 +1799,22 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D11" t="s">
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F11" t="s">
         <v>24</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H11" t="s">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="I11">
         <v>39.197670199999997</v>
@@ -1732,22 +1832,22 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D12" t="s">
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F12" t="s">
         <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H12" t="s">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="I12">
         <v>39.197670199999997</v>
@@ -1765,22 +1865,22 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D13" t="s">
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F13" t="s">
         <v>24</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H13" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="I13">
         <v>39.197670199999997</v>
@@ -1798,22 +1898,22 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D14" t="s">
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F14" t="s">
         <v>24</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H14" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="I14">
         <v>39.197670199999997</v>
@@ -1831,22 +1931,22 @@
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D15" t="s">
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F15" t="s">
         <v>24</v>
       </c>
       <c r="G15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H15" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="I15">
         <v>39.197670199999997</v>
@@ -1864,22 +1964,22 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D16" t="s">
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F16" t="s">
         <v>24</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>112</v>
       </c>
       <c r="I16">
         <v>39.197670199999997</v>
@@ -1897,22 +1997,22 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D17" t="s">
         <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F17" t="s">
         <v>24</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="I17">
         <v>39.197670199999997</v>
@@ -1930,22 +2030,22 @@
         <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D18" t="s">
         <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F18" t="s">
         <v>24</v>
       </c>
       <c r="G18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>114</v>
       </c>
       <c r="I18">
         <v>39.197670199999997</v>
@@ -1960,25 +2060,25 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>188</v>
+        <v>93</v>
       </c>
       <c r="C19" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D19" t="s">
         <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F19" t="s">
         <v>24</v>
       </c>
       <c r="G19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H19" t="s">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="I19">
         <v>39.197670199999997</v>
@@ -1993,25 +2093,25 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>188</v>
+        <v>93</v>
       </c>
       <c r="C20" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D20" t="s">
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F20" t="s">
         <v>24</v>
       </c>
       <c r="G20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H20" t="s">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="I20">
         <v>39.197670199999997</v>
@@ -2026,25 +2126,25 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>188</v>
+        <v>93</v>
       </c>
       <c r="C21" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D21" t="s">
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F21" t="s">
         <v>24</v>
       </c>
       <c r="G21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H21" t="s">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="I21">
         <v>39.197670199999997</v>
@@ -2059,25 +2159,25 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>188</v>
+        <v>93</v>
       </c>
       <c r="C22" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D22" t="s">
         <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F22" t="s">
         <v>24</v>
       </c>
       <c r="G22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H22" t="s">
-        <v>52</v>
+        <v>118</v>
       </c>
       <c r="I22">
         <v>39.197670199999997</v>
@@ -2092,25 +2192,25 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>188</v>
+        <v>93</v>
       </c>
       <c r="C23" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D23" t="s">
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F23" t="s">
         <v>24</v>
       </c>
       <c r="G23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H23" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
       <c r="I23">
         <v>39.197670199999997</v>
@@ -2125,25 +2225,25 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>188</v>
+        <v>93</v>
       </c>
       <c r="C24" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D24" t="s">
         <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F24" t="s">
         <v>24</v>
       </c>
       <c r="G24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H24" t="s">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c r="I24">
         <v>39.197670199999997</v>
@@ -2158,25 +2258,25 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>188</v>
+        <v>93</v>
       </c>
       <c r="C25" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D25" t="s">
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F25" t="s">
         <v>24</v>
       </c>
       <c r="G25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H25" t="s">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="I25">
         <v>39.197670199999997</v>
@@ -2194,22 +2294,22 @@
         <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D26" t="s">
         <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F26" t="s">
         <v>24</v>
       </c>
       <c r="G26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H26" t="s">
-        <v>56</v>
+        <v>122</v>
       </c>
       <c r="I26">
         <v>39.197670199999997</v>
@@ -2227,22 +2327,22 @@
         <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D27" t="s">
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F27" t="s">
         <v>24</v>
       </c>
       <c r="G27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H27" t="s">
-        <v>57</v>
+        <v>123</v>
       </c>
       <c r="I27">
         <v>39.197670199999997</v>
@@ -2260,22 +2360,22 @@
         <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D28" t="s">
         <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F28" t="s">
         <v>24</v>
       </c>
       <c r="G28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H28" t="s">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="I28">
         <v>39.197670199999997</v>
@@ -2293,22 +2393,22 @@
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D29" t="s">
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F29" t="s">
         <v>24</v>
       </c>
       <c r="G29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H29" t="s">
-        <v>59</v>
+        <v>125</v>
       </c>
       <c r="I29">
         <v>39.197670199999997</v>
@@ -2326,22 +2426,22 @@
         <v>14</v>
       </c>
       <c r="C30" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D30" t="s">
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F30" t="s">
         <v>24</v>
       </c>
       <c r="G30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H30" t="s">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="I30">
         <v>39.197670199999997</v>
@@ -2359,22 +2459,22 @@
         <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D31" t="s">
         <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F31" t="s">
         <v>24</v>
       </c>
       <c r="G31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H31" t="s">
-        <v>61</v>
+        <v>127</v>
       </c>
       <c r="I31">
         <v>39.197670199999997</v>
@@ -2392,22 +2492,22 @@
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D32" t="s">
         <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F32" t="s">
         <v>24</v>
       </c>
       <c r="G32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H32" t="s">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="I32">
         <v>39.197670199999997</v>
@@ -2425,22 +2525,22 @@
         <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D33" t="s">
         <v>2</v>
       </c>
       <c r="E33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F33" t="s">
         <v>24</v>
       </c>
       <c r="G33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H33" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="I33">
         <v>39.197670199999997</v>
@@ -2458,22 +2558,22 @@
         <v>12</v>
       </c>
       <c r="C34" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D34" t="s">
         <v>2</v>
       </c>
       <c r="E34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F34" t="s">
         <v>24</v>
       </c>
       <c r="G34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H34" t="s">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="I34">
         <v>39.197670199999997</v>
@@ -2491,22 +2591,22 @@
         <v>14</v>
       </c>
       <c r="C35" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D35" t="s">
         <v>2</v>
       </c>
       <c r="E35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F35" t="s">
         <v>24</v>
       </c>
       <c r="G35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H35" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="I35">
         <v>39.197670199999997</v>
@@ -2524,22 +2624,22 @@
         <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D36" t="s">
         <v>2</v>
       </c>
       <c r="E36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F36" t="s">
         <v>24</v>
       </c>
       <c r="G36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H36" t="s">
-        <v>66</v>
+        <v>132</v>
       </c>
       <c r="I36">
         <v>39.197670199999997</v>
@@ -2557,22 +2657,22 @@
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D37" t="s">
         <v>2</v>
       </c>
       <c r="E37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F37" t="s">
         <v>24</v>
       </c>
       <c r="G37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H37" t="s">
-        <v>67</v>
+        <v>133</v>
       </c>
       <c r="I37">
         <v>39.197670199999997</v>
@@ -2590,22 +2690,22 @@
         <v>14</v>
       </c>
       <c r="C38" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D38" t="s">
         <v>2</v>
       </c>
       <c r="E38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F38" t="s">
         <v>24</v>
       </c>
       <c r="G38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H38" t="s">
-        <v>68</v>
+        <v>134</v>
       </c>
       <c r="I38">
         <v>39.197670199999997</v>
@@ -2623,22 +2723,22 @@
         <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D39" t="s">
         <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F39" t="s">
         <v>24</v>
       </c>
       <c r="G39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H39" t="s">
-        <v>69</v>
+        <v>135</v>
       </c>
       <c r="I39">
         <v>39.197670199999997</v>
@@ -2656,22 +2756,22 @@
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D40" t="s">
         <v>2</v>
       </c>
       <c r="E40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F40" t="s">
         <v>24</v>
       </c>
       <c r="G40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H40" t="s">
-        <v>70</v>
+        <v>136</v>
       </c>
       <c r="I40">
         <v>39.197670199999997</v>
@@ -2689,22 +2789,22 @@
         <v>15</v>
       </c>
       <c r="C41" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D41" t="s">
         <v>2</v>
       </c>
       <c r="E41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F41" t="s">
         <v>24</v>
       </c>
       <c r="G41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H41" t="s">
-        <v>71</v>
+        <v>137</v>
       </c>
       <c r="I41">
         <v>39.197670199999997</v>
@@ -2722,22 +2822,22 @@
         <v>12</v>
       </c>
       <c r="C42" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D42" t="s">
         <v>2</v>
       </c>
       <c r="E42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F42" t="s">
         <v>24</v>
       </c>
       <c r="G42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H42" t="s">
-        <v>72</v>
+        <v>138</v>
       </c>
       <c r="I42">
         <v>39.197670199999997</v>
@@ -2755,22 +2855,22 @@
         <v>14</v>
       </c>
       <c r="C43" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D43" t="s">
         <v>2</v>
       </c>
       <c r="E43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F43" t="s">
         <v>24</v>
       </c>
       <c r="G43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H43" t="s">
-        <v>73</v>
+        <v>139</v>
       </c>
       <c r="I43">
         <v>39.197670199999997</v>
@@ -2788,22 +2888,22 @@
         <v>10</v>
       </c>
       <c r="C44" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D44" t="s">
         <v>2</v>
       </c>
       <c r="E44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H44" t="s">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c r="I44">
         <v>39.197670199999997</v>
@@ -2821,22 +2921,22 @@
         <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D45" t="s">
         <v>2</v>
       </c>
       <c r="E45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H45" t="s">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="I45">
         <v>39.197670199999997</v>
@@ -2854,22 +2954,22 @@
         <v>14</v>
       </c>
       <c r="C46" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D46" t="s">
         <v>2</v>
       </c>
       <c r="E46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H46" t="s">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="I46">
         <v>39.197670199999997</v>
@@ -2887,22 +2987,22 @@
         <v>10</v>
       </c>
       <c r="C47" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D47" t="s">
         <v>2</v>
       </c>
       <c r="E47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H47" t="s">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="I47">
         <v>39.197670199999997</v>
@@ -2920,22 +3020,22 @@
         <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D48" t="s">
         <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H48" t="s">
-        <v>78</v>
+        <v>144</v>
       </c>
       <c r="I48">
         <v>39.197670199999997</v>
@@ -2953,22 +3053,22 @@
         <v>15</v>
       </c>
       <c r="C49" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D49" t="s">
         <v>2</v>
       </c>
       <c r="E49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H49" t="s">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="I49">
         <v>39.197670199999997</v>
@@ -2986,22 +3086,22 @@
         <v>12</v>
       </c>
       <c r="C50" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D50" t="s">
         <v>2</v>
       </c>
       <c r="E50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H50" t="s">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="I50">
         <v>39.197670199999997</v>
@@ -3019,22 +3119,22 @@
         <v>14</v>
       </c>
       <c r="C51" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D51" t="s">
         <v>2</v>
       </c>
       <c r="E51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H51" t="s">
-        <v>81</v>
+        <v>147</v>
       </c>
       <c r="I51">
         <v>39.197670199999997</v>
@@ -3052,22 +3152,22 @@
         <v>10</v>
       </c>
       <c r="C52" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D52" t="s">
         <v>2</v>
       </c>
       <c r="E52" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G52" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H52" t="s">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="I52">
         <v>39.197670199999997</v>
@@ -3085,22 +3185,22 @@
         <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D53" t="s">
         <v>2</v>
       </c>
       <c r="E53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G53" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H53" t="s">
-        <v>83</v>
+        <v>149</v>
       </c>
       <c r="I53">
         <v>39.197670199999997</v>
@@ -3118,22 +3218,22 @@
         <v>14</v>
       </c>
       <c r="C54" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D54" t="s">
         <v>2</v>
       </c>
       <c r="E54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G54" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H54" t="s">
-        <v>84</v>
+        <v>150</v>
       </c>
       <c r="I54">
         <v>39.197670199999997</v>
@@ -3151,22 +3251,22 @@
         <v>10</v>
       </c>
       <c r="C55" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D55" t="s">
         <v>2</v>
       </c>
       <c r="E55" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G55" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H55" t="s">
-        <v>85</v>
+        <v>151</v>
       </c>
       <c r="I55">
         <v>39.197670199999997</v>
@@ -3184,22 +3284,22 @@
         <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D56" t="s">
         <v>2</v>
       </c>
       <c r="E56" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G56" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H56" t="s">
-        <v>86</v>
+        <v>152</v>
       </c>
       <c r="I56">
         <v>39.197670199999997</v>
@@ -3217,22 +3317,22 @@
         <v>15</v>
       </c>
       <c r="C57" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D57" t="s">
         <v>2</v>
       </c>
       <c r="E57" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G57" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H57" t="s">
-        <v>87</v>
+        <v>153</v>
       </c>
       <c r="I57">
         <v>39.197670199999997</v>
@@ -3250,22 +3350,22 @@
         <v>12</v>
       </c>
       <c r="C58" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D58" t="s">
         <v>2</v>
       </c>
       <c r="E58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H58" t="s">
-        <v>88</v>
+        <v>154</v>
       </c>
       <c r="I58">
         <v>39.197670199999997</v>
@@ -3283,22 +3383,22 @@
         <v>14</v>
       </c>
       <c r="C59" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D59" t="s">
         <v>2</v>
       </c>
       <c r="E59" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G59" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H59" t="s">
-        <v>89</v>
+        <v>155</v>
       </c>
       <c r="I59">
         <v>39.197670199999997</v>
@@ -3316,22 +3416,22 @@
         <v>10</v>
       </c>
       <c r="C60" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D60" t="s">
         <v>2</v>
       </c>
       <c r="E60" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G60" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H60" t="s">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="I60">
         <v>39.197670199999997</v>
@@ -3349,22 +3449,22 @@
         <v>11</v>
       </c>
       <c r="C61" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D61" t="s">
         <v>2</v>
       </c>
       <c r="E61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G61" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H61" t="s">
-        <v>91</v>
+        <v>157</v>
       </c>
       <c r="I61">
         <v>39.197670199999997</v>
@@ -3382,22 +3482,22 @@
         <v>10</v>
       </c>
       <c r="C62" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D62" t="s">
         <v>2</v>
       </c>
       <c r="E62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H62" t="s">
-        <v>92</v>
+        <v>158</v>
       </c>
       <c r="I62">
         <v>39.197670199999997</v>
@@ -3415,22 +3515,22 @@
         <v>11</v>
       </c>
       <c r="C63" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D63" t="s">
         <v>2</v>
       </c>
       <c r="E63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G63" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H63" t="s">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c r="I63">
         <v>39.197670199999997</v>
@@ -3448,22 +3548,22 @@
         <v>10</v>
       </c>
       <c r="C64" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D64" t="s">
         <v>2</v>
       </c>
       <c r="E64" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G64" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H64" t="s">
-        <v>94</v>
+        <v>160</v>
       </c>
       <c r="I64">
         <v>39.197670199999997</v>
@@ -3481,22 +3581,22 @@
         <v>0</v>
       </c>
       <c r="C65" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D65" t="s">
         <v>2</v>
       </c>
       <c r="E65" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G65" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H65" t="s">
-        <v>95</v>
+        <v>161</v>
       </c>
       <c r="I65">
         <v>39.197670199999997</v>
@@ -3514,22 +3614,22 @@
         <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D66" t="s">
         <v>2</v>
       </c>
       <c r="E66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G66" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H66" t="s">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="I66">
         <v>39.197670199999997</v>
@@ -3547,22 +3647,22 @@
         <v>11</v>
       </c>
       <c r="C67" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D67" t="s">
         <v>2</v>
       </c>
       <c r="E67" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G67" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H67" t="s">
-        <v>97</v>
+        <v>163</v>
       </c>
       <c r="I67">
         <v>39.197670199999997</v>
@@ -3580,22 +3680,22 @@
         <v>15</v>
       </c>
       <c r="C68" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D68" t="s">
         <v>2</v>
       </c>
       <c r="E68" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G68" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H68" t="s">
-        <v>98</v>
+        <v>164</v>
       </c>
       <c r="I68">
         <v>39.197670199999997</v>
@@ -3613,22 +3713,22 @@
         <v>12</v>
       </c>
       <c r="C69" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D69" t="s">
         <v>2</v>
       </c>
       <c r="E69" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G69" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H69" t="s">
-        <v>99</v>
+        <v>165</v>
       </c>
       <c r="I69">
         <v>39.197670199999997</v>
@@ -3646,22 +3746,22 @@
         <v>14</v>
       </c>
       <c r="C70" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D70" t="s">
         <v>2</v>
       </c>
       <c r="E70" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G70" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H70" t="s">
-        <v>100</v>
+        <v>166</v>
       </c>
       <c r="I70">
         <v>39.197670199999997</v>
@@ -3679,22 +3779,22 @@
         <v>10</v>
       </c>
       <c r="C71" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D71" t="s">
         <v>2</v>
       </c>
       <c r="E71" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G71" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H71" t="s">
-        <v>101</v>
+        <v>167</v>
       </c>
       <c r="I71">
         <v>39.197670199999997</v>
@@ -3712,22 +3812,22 @@
         <v>11</v>
       </c>
       <c r="C72" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D72" t="s">
         <v>2</v>
       </c>
       <c r="E72" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G72" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H72" t="s">
-        <v>102</v>
+        <v>168</v>
       </c>
       <c r="I72">
         <v>39.197670199999997</v>
@@ -3745,22 +3845,22 @@
         <v>14</v>
       </c>
       <c r="C73" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D73" t="s">
         <v>2</v>
       </c>
       <c r="E73" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G73" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H73" t="s">
-        <v>103</v>
+        <v>169</v>
       </c>
       <c r="I73">
         <v>39.197670199999997</v>
@@ -3771,29 +3871,29 @@
     </row>
     <row r="74" spans="1:10">
       <c r="A74">
-        <f t="shared" ref="A74:A102" si="1">A73+1</f>
+        <f t="shared" ref="A74:A109" si="1">A73+1</f>
         <v>73</v>
       </c>
       <c r="B74" t="s">
         <v>10</v>
       </c>
       <c r="C74" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D74" t="s">
         <v>2</v>
       </c>
       <c r="E74" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G74" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H74" t="s">
-        <v>104</v>
+        <v>170</v>
       </c>
       <c r="I74">
         <v>39.197670199999997</v>
@@ -3811,22 +3911,22 @@
         <v>11</v>
       </c>
       <c r="C75" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D75" t="s">
         <v>2</v>
       </c>
       <c r="E75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G75" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H75" t="s">
-        <v>105</v>
+        <v>171</v>
       </c>
       <c r="I75">
         <v>39.197670199999997</v>
@@ -3844,22 +3944,22 @@
         <v>15</v>
       </c>
       <c r="C76" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D76" t="s">
         <v>2</v>
       </c>
       <c r="E76" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G76" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H76" t="s">
-        <v>106</v>
+        <v>172</v>
       </c>
       <c r="I76">
         <v>39.197670199999997</v>
@@ -3877,22 +3977,22 @@
         <v>12</v>
       </c>
       <c r="C77" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D77" t="s">
         <v>2</v>
       </c>
       <c r="E77" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G77" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H77" t="s">
-        <v>107</v>
+        <v>173</v>
       </c>
       <c r="I77">
         <v>39.197670199999997</v>
@@ -3910,22 +4010,22 @@
         <v>14</v>
       </c>
       <c r="C78" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D78" t="s">
         <v>2</v>
       </c>
       <c r="E78" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G78" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H78" t="s">
-        <v>108</v>
+        <v>174</v>
       </c>
       <c r="I78">
         <v>39.197670199999997</v>
@@ -3943,22 +4043,22 @@
         <v>10</v>
       </c>
       <c r="C79" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D79" t="s">
         <v>2</v>
       </c>
       <c r="E79" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G79" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H79" t="s">
-        <v>109</v>
+        <v>175</v>
       </c>
       <c r="I79">
         <v>39.197670199999997</v>
@@ -3976,22 +4076,22 @@
         <v>11</v>
       </c>
       <c r="C80" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D80" t="s">
         <v>2</v>
       </c>
       <c r="E80" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G80" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H80" t="s">
-        <v>110</v>
+        <v>176</v>
       </c>
       <c r="I80">
         <v>39.197670199999997</v>
@@ -4009,22 +4109,22 @@
         <v>10</v>
       </c>
       <c r="C81" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D81" t="s">
         <v>2</v>
       </c>
       <c r="E81" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G81" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H81" t="s">
-        <v>111</v>
+        <v>177</v>
       </c>
       <c r="I81">
         <v>39.197670199999997</v>
@@ -4042,22 +4142,22 @@
         <v>11</v>
       </c>
       <c r="C82" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D82" t="s">
         <v>2</v>
       </c>
       <c r="E82" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G82" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H82" t="s">
-        <v>112</v>
+        <v>178</v>
       </c>
       <c r="I82">
         <v>39.197670199999997</v>
@@ -4075,22 +4175,22 @@
         <v>10</v>
       </c>
       <c r="C83" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D83" t="s">
         <v>2</v>
       </c>
       <c r="E83" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G83" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H83" t="s">
-        <v>113</v>
+        <v>179</v>
       </c>
       <c r="I83">
         <v>39.197670199999997</v>
@@ -4108,22 +4208,22 @@
         <v>0</v>
       </c>
       <c r="C84" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D84" t="s">
         <v>2</v>
       </c>
       <c r="E84" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G84" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H84" t="s">
-        <v>114</v>
+        <v>180</v>
       </c>
       <c r="I84">
         <v>39.197670199999997</v>
@@ -4141,22 +4241,22 @@
         <v>1</v>
       </c>
       <c r="C85" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D85" t="s">
         <v>2</v>
       </c>
       <c r="E85" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G85" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H85" t="s">
-        <v>115</v>
+        <v>181</v>
       </c>
       <c r="I85">
         <v>39.197670199999997</v>
@@ -4174,22 +4274,22 @@
         <v>11</v>
       </c>
       <c r="C86" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D86" t="s">
         <v>2</v>
       </c>
       <c r="E86" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G86" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H86" t="s">
-        <v>116</v>
+        <v>182</v>
       </c>
       <c r="I86">
         <v>39.197670199999997</v>
@@ -4207,22 +4307,22 @@
         <v>15</v>
       </c>
       <c r="C87" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D87" t="s">
         <v>2</v>
       </c>
       <c r="E87" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G87" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H87" t="s">
-        <v>117</v>
+        <v>183</v>
       </c>
       <c r="I87">
         <v>39.197670199999997</v>
@@ -4240,22 +4340,22 @@
         <v>12</v>
       </c>
       <c r="C88" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D88" t="s">
         <v>2</v>
       </c>
       <c r="E88" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G88" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H88" t="s">
-        <v>118</v>
+        <v>184</v>
       </c>
       <c r="I88">
         <v>39.197670199999997</v>
@@ -4273,22 +4373,22 @@
         <v>14</v>
       </c>
       <c r="C89" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D89" t="s">
         <v>2</v>
       </c>
       <c r="E89" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G89" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H89" t="s">
-        <v>119</v>
+        <v>185</v>
       </c>
       <c r="I89">
         <v>39.197670199999997</v>
@@ -4306,22 +4406,22 @@
         <v>10</v>
       </c>
       <c r="C90" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D90" t="s">
         <v>2</v>
       </c>
       <c r="E90" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G90" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H90" t="s">
-        <v>120</v>
+        <v>186</v>
       </c>
       <c r="I90">
         <v>39.197670199999997</v>
@@ -4339,22 +4439,22 @@
         <v>11</v>
       </c>
       <c r="C91" t="s">
+        <v>212</v>
+      </c>
+      <c r="D91" t="s">
+        <v>2</v>
+      </c>
+      <c r="E91" t="s">
+        <v>38</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G91" t="s">
+        <v>36</v>
+      </c>
+      <c r="H91" t="s">
         <v>187</v>
-      </c>
-      <c r="D91" t="s">
-        <v>2</v>
-      </c>
-      <c r="E91" t="s">
-        <v>39</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G91" t="s">
-        <v>37</v>
-      </c>
-      <c r="H91" t="s">
-        <v>121</v>
       </c>
       <c r="I91">
         <v>39.197670199999997</v>
@@ -4372,22 +4472,22 @@
         <v>14</v>
       </c>
       <c r="C92" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D92" t="s">
         <v>2</v>
       </c>
       <c r="E92" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G92" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H92" t="s">
-        <v>122</v>
+        <v>188</v>
       </c>
       <c r="I92">
         <v>39.197670199999997</v>
@@ -4405,22 +4505,22 @@
         <v>10</v>
       </c>
       <c r="C93" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D93" t="s">
         <v>2</v>
       </c>
       <c r="E93" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G93" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H93" t="s">
-        <v>123</v>
+        <v>189</v>
       </c>
       <c r="I93">
         <v>39.197670199999997</v>
@@ -4438,22 +4538,22 @@
         <v>11</v>
       </c>
       <c r="C94" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D94" t="s">
         <v>2</v>
       </c>
       <c r="E94" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G94" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H94" t="s">
-        <v>124</v>
+        <v>190</v>
       </c>
       <c r="I94">
         <v>39.197670199999997</v>
@@ -4471,22 +4571,22 @@
         <v>15</v>
       </c>
       <c r="C95" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D95" t="s">
         <v>2</v>
       </c>
       <c r="E95" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G95" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H95" t="s">
-        <v>125</v>
+        <v>191</v>
       </c>
       <c r="I95">
         <v>39.197670199999997</v>
@@ -4504,22 +4604,22 @@
         <v>12</v>
       </c>
       <c r="C96" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D96" t="s">
         <v>2</v>
       </c>
       <c r="E96" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G96" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H96" t="s">
-        <v>126</v>
+        <v>192</v>
       </c>
       <c r="I96">
         <v>39.197670199999997</v>
@@ -4528,202 +4628,472 @@
         <v>-106.8210536</v>
       </c>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:11">
       <c r="A97">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="C97" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="D97" t="s">
         <v>2</v>
       </c>
       <c r="E97" t="s">
-        <v>32</v>
+        <v>203</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G97" t="s">
-        <v>37</v>
-      </c>
-      <c r="H97" t="s">
-        <v>127</v>
+        <v>36</v>
+      </c>
+      <c r="H97">
+        <v>102</v>
       </c>
       <c r="I97">
-        <v>39.197670199999997</v>
+        <v>40.008105899999997</v>
       </c>
       <c r="J97">
-        <v>-106.8210536</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10">
+        <v>-105.2742353</v>
+      </c>
+      <c r="K97">
+        <v>1400024707</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>10</v>
+        <v>193</v>
       </c>
       <c r="C98" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="D98" t="s">
         <v>2</v>
       </c>
       <c r="E98" t="s">
-        <v>38</v>
+        <v>204</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G98" t="s">
-        <v>37</v>
-      </c>
-      <c r="H98" t="s">
-        <v>128</v>
+        <v>36</v>
+      </c>
+      <c r="H98">
+        <v>103</v>
       </c>
       <c r="I98">
-        <v>39.197670199999997</v>
+        <v>40.007796300000003</v>
       </c>
       <c r="J98">
-        <v>-106.8210536</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10">
+        <v>-105.2729914</v>
+      </c>
+      <c r="K98">
+        <v>1400024757</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>11</v>
+        <v>193</v>
       </c>
       <c r="C99" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="D99" t="s">
         <v>2</v>
       </c>
       <c r="E99" t="s">
-        <v>39</v>
+        <v>196</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G99" t="s">
-        <v>37</v>
-      </c>
-      <c r="H99" t="s">
-        <v>129</v>
+        <v>36</v>
+      </c>
+      <c r="H99">
+        <v>104</v>
       </c>
       <c r="I99">
-        <v>39.197670199999997</v>
+        <v>40.007920499999997</v>
       </c>
       <c r="J99">
-        <v>-106.8210536</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10">
+        <v>-105.27320810000001</v>
+      </c>
+      <c r="K99">
+        <v>1400024793</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>10</v>
+        <v>193</v>
       </c>
       <c r="C100" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="D100" t="s">
         <v>2</v>
       </c>
       <c r="E100" t="s">
-        <v>32</v>
+        <v>205</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G100" t="s">
-        <v>37</v>
-      </c>
-      <c r="H100" t="s">
-        <v>130</v>
+        <v>36</v>
+      </c>
+      <c r="H100">
+        <v>105</v>
       </c>
       <c r="I100">
-        <v>39.197670199999997</v>
+        <v>40.007806299999999</v>
       </c>
       <c r="J100">
-        <v>-106.8210536</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10">
+        <v>-105.27325380000001</v>
+      </c>
+      <c r="K100">
+        <v>1400025289</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="C101" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="D101" t="s">
         <v>2</v>
       </c>
       <c r="E101" t="s">
-        <v>32</v>
+        <v>206</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G101" t="s">
-        <v>37</v>
-      </c>
-      <c r="H101" t="s">
-        <v>131</v>
+        <v>36</v>
+      </c>
+      <c r="H101">
+        <v>107</v>
       </c>
       <c r="I101">
-        <v>39.197670199999997</v>
+        <v>40.008056500000002</v>
       </c>
       <c r="J101">
-        <v>-106.8210536</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10">
+        <v>-105.274083</v>
+      </c>
+      <c r="K101">
+        <v>1400025324</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>10</v>
+        <v>193</v>
       </c>
       <c r="C102" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="D102" t="s">
         <v>2</v>
       </c>
       <c r="E102" t="s">
-        <v>38</v>
+        <v>202</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G102" t="s">
-        <v>37</v>
-      </c>
-      <c r="H102" t="s">
-        <v>132</v>
+        <v>36</v>
+      </c>
+      <c r="H102">
+        <v>106</v>
       </c>
       <c r="I102">
-        <v>39.197670199999997</v>
+        <v>40.0078599</v>
       </c>
       <c r="J102">
-        <v>-106.8210536</v>
+        <v>-105.2740452</v>
+      </c>
+      <c r="K102">
+        <v>1400025322</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>93</v>
+      </c>
+      <c r="C103" t="s">
+        <v>210</v>
+      </c>
+      <c r="D103" t="s">
+        <v>2</v>
+      </c>
+      <c r="E103" t="s">
+        <v>201</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G103" t="s">
+        <v>36</v>
+      </c>
+      <c r="H103">
+        <v>108</v>
+      </c>
+      <c r="I103">
+        <v>40.008125999999997</v>
+      </c>
+      <c r="J103">
+        <v>-105.2737118</v>
+      </c>
+      <c r="K103">
+        <v>1400083728</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104">
+        <f t="shared" si="1"/>
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>93</v>
+      </c>
+      <c r="C104" t="s">
+        <v>209</v>
+      </c>
+      <c r="D104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E104" t="s">
+        <v>200</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G104" t="s">
+        <v>36</v>
+      </c>
+      <c r="H104">
+        <v>109</v>
+      </c>
+      <c r="I104">
+        <v>40.008192800000003</v>
+      </c>
+      <c r="J104">
+        <v>-105.2737276</v>
+      </c>
+      <c r="K104">
+        <v>1400083750</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>193</v>
+      </c>
+      <c r="C105" t="s">
+        <v>209</v>
+      </c>
+      <c r="D105" t="s">
+        <v>2</v>
+      </c>
+      <c r="E105" t="s">
+        <v>194</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G105" t="s">
+        <v>36</v>
+      </c>
+      <c r="H105">
+        <v>110</v>
+      </c>
+      <c r="I105">
+        <v>40.008660200000001</v>
+      </c>
+      <c r="J105">
+        <v>-105.2734275</v>
+      </c>
+      <c r="K105">
+        <v>1400084134</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>193</v>
+      </c>
+      <c r="C106" t="s">
+        <v>209</v>
+      </c>
+      <c r="D106" t="s">
+        <v>2</v>
+      </c>
+      <c r="E106" t="s">
+        <v>199</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G106" t="s">
+        <v>36</v>
+      </c>
+      <c r="H106">
+        <v>111</v>
+      </c>
+      <c r="I106">
+        <v>40.008328800000001</v>
+      </c>
+      <c r="J106">
+        <v>-105.2735813</v>
+      </c>
+      <c r="K106">
+        <v>1400084155</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>93</v>
+      </c>
+      <c r="C107" t="s">
+        <v>209</v>
+      </c>
+      <c r="D107" t="s">
+        <v>2</v>
+      </c>
+      <c r="E107" t="s">
+        <v>197</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G107" t="s">
+        <v>36</v>
+      </c>
+      <c r="H107">
+        <v>112</v>
+      </c>
+      <c r="I107">
+        <v>40.008361700000002</v>
+      </c>
+      <c r="J107">
+        <v>-105.2735852</v>
+      </c>
+      <c r="K107">
+        <v>1400084325</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108">
+        <f t="shared" si="1"/>
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>93</v>
+      </c>
+      <c r="C108" t="s">
+        <v>209</v>
+      </c>
+      <c r="D108" t="s">
+        <v>2</v>
+      </c>
+      <c r="E108" t="s">
+        <v>198</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G108" t="s">
+        <v>36</v>
+      </c>
+      <c r="H108">
+        <v>113</v>
+      </c>
+      <c r="I108">
+        <v>40.008261699999998</v>
+      </c>
+      <c r="J108">
+        <v>-105.273601</v>
+      </c>
+      <c r="K108">
+        <v>1400084345</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>93</v>
+      </c>
+      <c r="C109" t="s">
+        <v>209</v>
+      </c>
+      <c r="D109" t="s">
+        <v>2</v>
+      </c>
+      <c r="E109" t="s">
+        <v>195</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G109" t="s">
+        <v>36</v>
+      </c>
+      <c r="H109">
+        <v>114</v>
+      </c>
+      <c r="I109">
+        <v>40.0091319</v>
+      </c>
+      <c r="J109">
+        <v>-105.273428</v>
+      </c>
+      <c r="K109">
+        <v>1400084381</v>
       </c>
     </row>
   </sheetData>
@@ -4741,9 +5111,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -4755,7 +5123,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
@@ -4764,13 +5132,13 @@
         <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>163</v>
+        <v>68</v>
       </c>
       <c r="E1" t="s">
-        <v>151</v>
+        <v>56</v>
       </c>
       <c r="F1" t="s">
-        <v>152</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4781,16 +5149,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>154</v>
+        <v>59</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>164</v>
+        <v>69</v>
       </c>
       <c r="E2">
         <v>1234</v>
       </c>
       <c r="F2" t="s">
-        <v>153</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4801,16 +5169,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>155</v>
+        <v>60</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>165</v>
+        <v>70</v>
       </c>
       <c r="E3">
         <v>1234</v>
       </c>
       <c r="F3" t="s">
-        <v>153</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4821,16 +5189,16 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>156</v>
+        <v>61</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>166</v>
+        <v>71</v>
       </c>
       <c r="E4">
         <v>1234</v>
       </c>
       <c r="F4" t="s">
-        <v>153</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4841,16 +5209,16 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>157</v>
+        <v>62</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>167</v>
+        <v>72</v>
       </c>
       <c r="E5">
         <v>1234</v>
       </c>
       <c r="F5" t="s">
-        <v>153</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4861,16 +5229,16 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>158</v>
+        <v>63</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>168</v>
+        <v>73</v>
       </c>
       <c r="E6">
         <v>1234</v>
       </c>
       <c r="F6" t="s">
-        <v>153</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4881,16 +5249,16 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>159</v>
+        <v>64</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>169</v>
+        <v>74</v>
       </c>
       <c r="E7">
         <v>1234</v>
       </c>
       <c r="F7" t="s">
-        <v>153</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4901,16 +5269,16 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>160</v>
+        <v>65</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>170</v>
+        <v>75</v>
       </c>
       <c r="E8">
         <v>1234</v>
       </c>
       <c r="F8" t="s">
-        <v>153</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4921,16 +5289,16 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>161</v>
+        <v>66</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>171</v>
+        <v>76</v>
       </c>
       <c r="E9">
         <v>1234</v>
       </c>
       <c r="F9" t="s">
-        <v>153</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4941,16 +5309,16 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>162</v>
+        <v>67</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c r="E10">
         <v>1234</v>
       </c>
       <c r="F10" t="s">
-        <v>153</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4958,24 +5326,39 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>188</v>
+        <v>93</v>
       </c>
       <c r="C11" t="s">
-        <v>190</v>
+        <v>94</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>191</v>
+        <v>95</v>
       </c>
       <c r="E11">
         <v>1234</v>
       </c>
       <c r="F11" t="s">
-        <v>153</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:6">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>193</v>
+      </c>
       <c r="C12" t="s">
-        <v>189</v>
+        <v>208</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E12">
+        <v>1234</v>
+      </c>
+      <c r="F12" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -4990,6 +5373,7 @@
     <hyperlink ref="D9" r:id="rId8"/>
     <hyperlink ref="D10" r:id="rId9"/>
     <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D12" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5003,21 +5387,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="124.83203125" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -5026,44 +5412,73 @@
         <v>7</v>
       </c>
       <c r="D1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="D2" t="s">
-        <v>185</v>
+        <v>92</v>
       </c>
       <c r="E2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>90</v>
+      </c>
+      <c r="F2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="D3" t="s">
-        <v>186</v>
+        <v>89</v>
       </c>
       <c r="E3" t="s">
-        <v>176</v>
+        <v>91</v>
+      </c>
+      <c r="F3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D4" t="s">
+        <v>213</v>
+      </c>
+      <c r="E4" t="s">
+        <v>214</v>
+      </c>
+      <c r="F4" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -5100,10 +5515,10 @@
         <v>100</v>
       </c>
       <c r="B1" t="s">
-        <v>134</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>135</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
@@ -5120,16 +5535,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>137</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
         <v>0</v>
@@ -5141,13 +5556,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>149</v>
+        <v>54</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -5162,16 +5577,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>140</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
@@ -5183,16 +5598,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>137</v>
+        <v>42</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
@@ -5204,16 +5619,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
@@ -5225,16 +5640,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>140</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
@@ -5246,16 +5661,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>137</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
         <v>15</v>
@@ -5267,16 +5682,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
@@ -5288,16 +5703,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>140</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
         <v>14</v>
@@ -5309,16 +5724,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>137</v>
+        <v>42</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
@@ -5330,16 +5745,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E12" t="s">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
         <v>11</v>
@@ -5351,16 +5766,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E13" t="s">
-        <v>140</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
         <v>14</v>
@@ -5372,16 +5787,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E14" t="s">
-        <v>140</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
         <v>10</v>
@@ -5393,16 +5808,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E15" t="s">
-        <v>137</v>
+        <v>42</v>
       </c>
       <c r="F15" t="s">
         <v>11</v>
@@ -5414,16 +5829,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E16" t="s">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
         <v>15</v>
@@ -5435,16 +5850,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E17" t="s">
-        <v>140</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
         <v>12</v>
@@ -5456,16 +5871,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C18">
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E18" t="s">
-        <v>140</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
         <v>14</v>
@@ -5477,16 +5892,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E19" t="s">
-        <v>137</v>
+        <v>42</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
@@ -5498,16 +5913,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E20" t="s">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
         <v>11</v>
@@ -5519,16 +5934,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C21">
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E21" t="s">
-        <v>140</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
         <v>14</v>
@@ -5540,16 +5955,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C22">
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E22" t="s">
-        <v>140</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
         <v>10</v>
@@ -5561,16 +5976,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E23" t="s">
-        <v>137</v>
+        <v>42</v>
       </c>
       <c r="F23" t="s">
         <v>11</v>
@@ -5582,16 +5997,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C24">
         <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E24" t="s">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
         <v>15</v>
@@ -5603,16 +6018,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E25" t="s">
-        <v>140</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
         <v>12</v>
@@ -5624,16 +6039,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C26">
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E26" t="s">
-        <v>140</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
         <v>14</v>
@@ -5645,16 +6060,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E27" t="s">
-        <v>137</v>
+        <v>42</v>
       </c>
       <c r="F27" t="s">
         <v>10</v>
@@ -5666,16 +6081,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C28">
         <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E28" t="s">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
         <v>11</v>
@@ -5687,16 +6102,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C29">
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E29" t="s">
-        <v>140</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
         <v>14</v>
@@ -5708,16 +6123,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C30">
         <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F30" t="s">
         <v>10</v>
@@ -5729,16 +6144,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C31">
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E31" t="s">
-        <v>142</v>
+        <v>47</v>
       </c>
       <c r="F31" t="s">
         <v>11</v>
@@ -5750,16 +6165,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C32">
         <v>5</v>
       </c>
       <c r="D32" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E32" t="s">
-        <v>141</v>
+        <v>46</v>
       </c>
       <c r="F32" t="s">
         <v>15</v>
@@ -5771,16 +6186,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C33">
         <v>6</v>
       </c>
       <c r="D33" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E33" t="s">
-        <v>143</v>
+        <v>48</v>
       </c>
       <c r="F33" t="s">
         <v>12</v>
@@ -5792,16 +6207,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C34">
         <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E34" t="s">
-        <v>144</v>
+        <v>49</v>
       </c>
       <c r="F34" t="s">
         <v>14</v>
@@ -5813,16 +6228,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C35">
         <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F35" t="s">
         <v>10</v>
@@ -5834,16 +6249,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C36">
         <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E36" t="s">
-        <v>142</v>
+        <v>47</v>
       </c>
       <c r="F36" t="s">
         <v>11</v>
@@ -5855,16 +6270,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C37">
         <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E37" t="s">
-        <v>141</v>
+        <v>46</v>
       </c>
       <c r="F37" t="s">
         <v>14</v>
@@ -5876,16 +6291,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C38">
         <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E38" t="s">
-        <v>143</v>
+        <v>48</v>
       </c>
       <c r="F38" t="s">
         <v>10</v>
@@ -5897,16 +6312,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C39">
         <v>12</v>
       </c>
       <c r="D39" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E39" t="s">
-        <v>144</v>
+        <v>49</v>
       </c>
       <c r="F39" t="s">
         <v>11</v>
@@ -5918,16 +6333,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C40">
         <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E40" t="s">
-        <v>142</v>
+        <v>47</v>
       </c>
       <c r="F40" t="s">
         <v>15</v>
@@ -5939,16 +6354,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C41">
         <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E41" t="s">
-        <v>141</v>
+        <v>46</v>
       </c>
       <c r="F41" t="s">
         <v>12</v>
@@ -5960,16 +6375,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C42">
         <v>15</v>
       </c>
       <c r="D42" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>145</v>
+        <v>50</v>
       </c>
       <c r="F42" t="s">
         <v>14</v>
@@ -5981,16 +6396,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C43">
         <v>16</v>
       </c>
       <c r="D43" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E43" t="s">
-        <v>146</v>
+        <v>51</v>
       </c>
       <c r="F43" t="s">
         <v>10</v>
@@ -6002,16 +6417,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C44">
         <v>17</v>
       </c>
       <c r="D44" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E44" t="s">
-        <v>144</v>
+        <v>49</v>
       </c>
       <c r="F44" t="s">
         <v>11</v>
@@ -6023,16 +6438,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C45">
         <v>18</v>
       </c>
       <c r="D45" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F45" t="s">
         <v>14</v>
@@ -6044,16 +6459,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C46">
         <v>19</v>
       </c>
       <c r="D46" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E46" t="s">
-        <v>142</v>
+        <v>47</v>
       </c>
       <c r="F46" t="s">
         <v>10</v>
@@ -6065,16 +6480,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C47">
         <v>20</v>
       </c>
       <c r="D47" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E47" t="s">
-        <v>141</v>
+        <v>46</v>
       </c>
       <c r="F47" t="s">
         <v>11</v>
@@ -6086,16 +6501,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C48">
         <v>21</v>
       </c>
       <c r="D48" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E48" t="s">
-        <v>143</v>
+        <v>48</v>
       </c>
       <c r="F48" t="s">
         <v>15</v>
@@ -6107,16 +6522,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C49">
         <v>22</v>
       </c>
       <c r="D49" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E49" t="s">
-        <v>144</v>
+        <v>49</v>
       </c>
       <c r="F49" t="s">
         <v>12</v>
@@ -6128,16 +6543,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C50">
         <v>23</v>
       </c>
       <c r="D50" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E50" t="s">
-        <v>142</v>
+        <v>47</v>
       </c>
       <c r="F50" t="s">
         <v>14</v>
@@ -6149,16 +6564,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C51">
         <v>24</v>
       </c>
       <c r="D51" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E51" t="s">
-        <v>141</v>
+        <v>46</v>
       </c>
       <c r="F51" t="s">
         <v>10</v>
@@ -6170,16 +6585,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C52">
         <v>25</v>
       </c>
       <c r="D52" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E52" t="s">
-        <v>145</v>
+        <v>50</v>
       </c>
       <c r="F52" t="s">
         <v>11</v>
@@ -6191,16 +6606,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C53">
         <v>26</v>
       </c>
       <c r="D53" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E53" t="s">
-        <v>146</v>
+        <v>51</v>
       </c>
       <c r="F53" t="s">
         <v>10</v>
@@ -6212,16 +6627,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C54">
         <v>27</v>
       </c>
       <c r="D54" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E54" t="s">
-        <v>142</v>
+        <v>47</v>
       </c>
       <c r="F54" t="s">
         <v>11</v>
@@ -6233,16 +6648,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C55">
         <v>28</v>
       </c>
       <c r="D55" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E55" t="s">
-        <v>147</v>
+        <v>52</v>
       </c>
       <c r="F55" t="s">
         <v>10</v>
@@ -6254,16 +6669,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C56">
         <v>29</v>
       </c>
       <c r="D56" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E56" t="s">
-        <v>145</v>
+        <v>50</v>
       </c>
       <c r="F56" t="s">
         <v>0</v>
@@ -6275,16 +6690,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C57">
         <v>30</v>
       </c>
       <c r="D57" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E57" t="s">
-        <v>146</v>
+        <v>51</v>
       </c>
       <c r="F57" t="s">
         <v>1</v>
@@ -6296,16 +6711,16 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C58">
         <v>31</v>
       </c>
       <c r="D58" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E58" t="s">
-        <v>144</v>
+        <v>49</v>
       </c>
       <c r="F58" t="s">
         <v>11</v>
@@ -6317,16 +6732,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C59">
         <v>32</v>
       </c>
       <c r="D59" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E59" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F59" t="s">
         <v>15</v>
@@ -6338,16 +6753,16 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C60">
         <v>33</v>
       </c>
       <c r="D60" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E60" t="s">
-        <v>142</v>
+        <v>47</v>
       </c>
       <c r="F60" t="s">
         <v>12</v>
@@ -6359,16 +6774,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C61">
         <v>34</v>
       </c>
       <c r="D61" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E61" t="s">
-        <v>141</v>
+        <v>46</v>
       </c>
       <c r="F61" t="s">
         <v>14</v>
@@ -6380,16 +6795,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C62">
         <v>35</v>
       </c>
       <c r="D62" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E62" t="s">
-        <v>143</v>
+        <v>48</v>
       </c>
       <c r="F62" t="s">
         <v>10</v>
@@ -6401,16 +6816,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C63">
         <v>36</v>
       </c>
       <c r="D63" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E63" t="s">
-        <v>144</v>
+        <v>49</v>
       </c>
       <c r="F63" t="s">
         <v>11</v>
@@ -6422,16 +6837,16 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C64">
         <v>37</v>
       </c>
       <c r="D64" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E64" t="s">
-        <v>142</v>
+        <v>47</v>
       </c>
       <c r="F64" t="s">
         <v>14</v>
@@ -6443,16 +6858,16 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C65">
         <v>38</v>
       </c>
       <c r="D65" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E65" t="s">
-        <v>141</v>
+        <v>46</v>
       </c>
       <c r="F65" t="s">
         <v>10</v>
@@ -6464,16 +6879,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C66">
         <v>39</v>
       </c>
       <c r="D66" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E66" t="s">
-        <v>145</v>
+        <v>50</v>
       </c>
       <c r="F66" t="s">
         <v>11</v>
@@ -6485,16 +6900,16 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C67">
         <v>40</v>
       </c>
       <c r="D67" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E67" t="s">
-        <v>146</v>
+        <v>51</v>
       </c>
       <c r="F67" t="s">
         <v>15</v>
@@ -6505,16 +6920,16 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C68">
         <v>41</v>
       </c>
       <c r="D68" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E68" t="s">
-        <v>148</v>
+        <v>53</v>
       </c>
       <c r="F68" t="s">
         <v>12</v>
@@ -6526,16 +6941,16 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C69">
         <v>12</v>
       </c>
       <c r="D69" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E69" t="s">
-        <v>144</v>
+        <v>49</v>
       </c>
       <c r="F69" t="s">
         <v>14</v>
@@ -6547,16 +6962,16 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C70">
         <v>13</v>
       </c>
       <c r="D70" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E70" t="s">
-        <v>142</v>
+        <v>47</v>
       </c>
       <c r="F70" t="s">
         <v>10</v>
@@ -6568,16 +6983,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C71">
         <v>14</v>
       </c>
       <c r="D71" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E71" t="s">
-        <v>141</v>
+        <v>46</v>
       </c>
       <c r="F71" t="s">
         <v>11</v>
@@ -6589,16 +7004,16 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C72">
         <v>15</v>
       </c>
       <c r="D72" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E72" t="s">
-        <v>145</v>
+        <v>50</v>
       </c>
       <c r="F72" t="s">
         <v>10</v>
@@ -6610,16 +7025,16 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C73">
         <v>16</v>
       </c>
       <c r="D73" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E73" t="s">
-        <v>146</v>
+        <v>51</v>
       </c>
       <c r="F73" t="s">
         <v>11</v>
@@ -6631,16 +7046,16 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C74">
         <v>17</v>
       </c>
       <c r="D74" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E74" t="s">
-        <v>144</v>
+        <v>49</v>
       </c>
       <c r="F74" t="s">
         <v>10</v>
@@ -6652,16 +7067,16 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C75">
         <v>18</v>
       </c>
       <c r="D75" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E75" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F75" t="s">
         <v>0</v>
@@ -6673,16 +7088,16 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C76">
         <v>19</v>
       </c>
       <c r="D76" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E76" t="s">
-        <v>142</v>
+        <v>47</v>
       </c>
       <c r="F76" t="s">
         <v>1</v>
@@ -6694,16 +7109,16 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C77">
         <v>20</v>
       </c>
       <c r="D77" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E77" t="s">
-        <v>141</v>
+        <v>46</v>
       </c>
       <c r="F77" t="s">
         <v>11</v>
@@ -6715,16 +7130,16 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C78">
         <v>21</v>
       </c>
       <c r="D78" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E78" t="s">
-        <v>143</v>
+        <v>48</v>
       </c>
       <c r="F78" t="s">
         <v>15</v>
@@ -6736,16 +7151,16 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C79">
         <v>22</v>
       </c>
       <c r="D79" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E79" t="s">
-        <v>144</v>
+        <v>49</v>
       </c>
       <c r="F79" t="s">
         <v>12</v>
@@ -6757,16 +7172,16 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C80">
         <v>23</v>
       </c>
       <c r="D80" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E80" t="s">
-        <v>142</v>
+        <v>47</v>
       </c>
       <c r="F80" t="s">
         <v>14</v>
@@ -6778,16 +7193,16 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C81">
         <v>24</v>
       </c>
       <c r="D81" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E81" t="s">
-        <v>141</v>
+        <v>46</v>
       </c>
       <c r="F81" t="s">
         <v>10</v>
@@ -6799,16 +7214,16 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C82">
         <v>25</v>
       </c>
       <c r="D82" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E82" t="s">
-        <v>145</v>
+        <v>50</v>
       </c>
       <c r="F82" t="s">
         <v>11</v>
@@ -6820,16 +7235,16 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C83">
         <v>26</v>
       </c>
       <c r="D83" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E83" t="s">
-        <v>146</v>
+        <v>51</v>
       </c>
       <c r="F83" t="s">
         <v>14</v>
@@ -6841,16 +7256,16 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C84">
         <v>27</v>
       </c>
       <c r="D84" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E84" t="s">
-        <v>142</v>
+        <v>47</v>
       </c>
       <c r="F84" t="s">
         <v>14</v>
@@ -6862,16 +7277,16 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C85">
         <v>28</v>
       </c>
       <c r="D85" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E85" t="s">
-        <v>147</v>
+        <v>52</v>
       </c>
       <c r="F85" t="s">
         <v>10</v>
@@ -6883,16 +7298,16 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C86">
         <v>29</v>
       </c>
       <c r="D86" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E86" t="s">
-        <v>145</v>
+        <v>50</v>
       </c>
       <c r="F86" t="s">
         <v>11</v>
@@ -6904,16 +7319,16 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C87">
         <v>30</v>
       </c>
       <c r="D87" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E87" t="s">
-        <v>146</v>
+        <v>51</v>
       </c>
       <c r="F87" t="s">
         <v>15</v>
@@ -6925,16 +7340,16 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C88">
         <v>31</v>
       </c>
       <c r="D88" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E88" t="s">
-        <v>144</v>
+        <v>49</v>
       </c>
       <c r="F88" t="s">
         <v>12</v>
@@ -6946,16 +7361,16 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C89">
         <v>32</v>
       </c>
       <c r="D89" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E89" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F89" t="s">
         <v>14</v>
@@ -6967,16 +7382,16 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C90">
         <v>33</v>
       </c>
       <c r="D90" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E90" t="s">
-        <v>142</v>
+        <v>47</v>
       </c>
       <c r="F90" t="s">
         <v>10</v>
@@ -6988,16 +7403,16 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C91">
         <v>34</v>
       </c>
       <c r="D91" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E91" t="s">
-        <v>141</v>
+        <v>46</v>
       </c>
       <c r="F91" t="s">
         <v>11</v>
@@ -7009,16 +7424,16 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C92">
         <v>35</v>
       </c>
       <c r="D92" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E92" t="s">
-        <v>143</v>
+        <v>48</v>
       </c>
       <c r="F92" t="s">
         <v>10</v>
@@ -7030,16 +7445,16 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C93">
         <v>36</v>
       </c>
       <c r="D93" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E93" t="s">
-        <v>144</v>
+        <v>49</v>
       </c>
       <c r="F93" t="s">
         <v>11</v>
@@ -7051,16 +7466,16 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C94">
         <v>37</v>
       </c>
       <c r="D94" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E94" t="s">
-        <v>142</v>
+        <v>47</v>
       </c>
       <c r="F94" t="s">
         <v>10</v>
@@ -7072,16 +7487,16 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C95">
         <v>38</v>
       </c>
       <c r="D95" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E95" t="s">
-        <v>141</v>
+        <v>46</v>
       </c>
       <c r="F95" t="s">
         <v>0</v>
@@ -7093,16 +7508,16 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C96">
         <v>39</v>
       </c>
       <c r="D96" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E96" t="s">
-        <v>145</v>
+        <v>50</v>
       </c>
       <c r="F96" t="s">
         <v>1</v>
@@ -7114,16 +7529,16 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C97">
         <v>40</v>
       </c>
       <c r="D97" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E97" t="s">
-        <v>146</v>
+        <v>51</v>
       </c>
       <c r="F97" t="s">
         <v>11</v>
@@ -7135,16 +7550,16 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C98">
         <v>41</v>
       </c>
       <c r="D98" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E98" t="s">
-        <v>148</v>
+        <v>53</v>
       </c>
       <c r="F98" t="s">
         <v>15</v>
@@ -7156,16 +7571,16 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C99">
         <v>28</v>
       </c>
       <c r="D99" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E99" t="s">
-        <v>147</v>
+        <v>52</v>
       </c>
       <c r="F99" t="s">
         <v>10</v>
@@ -7177,16 +7592,16 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C100">
         <v>29</v>
       </c>
       <c r="D100" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E100" t="s">
-        <v>145</v>
+        <v>50</v>
       </c>
       <c r="F100" t="s">
         <v>11</v>
@@ -7198,16 +7613,16 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C101">
         <v>30</v>
       </c>
       <c r="D101" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E101" t="s">
-        <v>146</v>
+        <v>51</v>
       </c>
       <c r="F101" t="s">
         <v>15</v>
@@ -7229,13 +7644,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -7254,10 +7670,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>173</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>183</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -7265,10 +7681,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>178</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>179</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -7276,10 +7692,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>180</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -7287,10 +7703,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>176</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>182</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -7298,10 +7714,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>174</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
-        <v>181</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17560" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17560" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Note" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="220">
   <si>
     <t>tomyeh</t>
   </si>
@@ -671,6 +671,21 @@
   </si>
   <si>
     <t>Pilot test</t>
+  </si>
+  <si>
+    <t>cu_design_idea</t>
+  </si>
+  <si>
+    <t>Design Idea</t>
+  </si>
+  <si>
+    <t>Contribute your design idea</t>
+  </si>
+  <si>
+    <t>aces_design_idea</t>
+  </si>
+  <si>
+    <t>uncc_design_idea</t>
   </si>
 </sst>
 </file>
@@ -730,7 +745,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="196">
+  <cellStyleXfs count="200">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -880,6 +895,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -933,7 +952,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="148"/>
   </cellXfs>
-  <cellStyles count="196">
+  <cellStyles count="200">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1081,6 +1100,10 @@
     <cellStyle name="Followed Hyperlink" xfId="193" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="195" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="197" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="199" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1460,8 +1483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K109"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C96"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H96" sqref="H96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5111,12 +5134,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
@@ -5387,23 +5413,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="60.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -5479,6 +5506,86 @@
       </c>
       <c r="F4" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E5" t="s">
+        <v>217</v>
+      </c>
+      <c r="F5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D6" t="s">
+        <v>216</v>
+      </c>
+      <c r="E6" t="s">
+        <v>217</v>
+      </c>
+      <c r="F6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" t="s">
+        <v>215</v>
+      </c>
+      <c r="D7" t="s">
+        <v>216</v>
+      </c>
+      <c r="E7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D8" t="s">
+        <v>216</v>
+      </c>
+      <c r="E8" t="s">
+        <v>217</v>
+      </c>
+      <c r="F8" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -5496,7 +5603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A142" workbookViewId="0">
       <selection activeCell="B4" sqref="B4:B30"/>
     </sheetView>
   </sheetViews>
@@ -7644,7 +7751,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>

--- a/data.xlsx
+++ b/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17560" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17560" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Note" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="226">
   <si>
     <t>tomyeh</t>
   </si>
@@ -686,6 +686,24 @@
   </si>
   <si>
     <t>uncc_design_idea</t>
+  </si>
+  <si>
+    <t>icon_url</t>
+  </si>
+  <si>
+    <t>https://dl.dropboxusercontent.com/u/5104407/nntest/tomyeh.jpg</t>
+  </si>
+  <si>
+    <t>https://dl.dropboxusercontent.com/u/5104407/nntest/avatar.jpg</t>
+  </si>
+  <si>
+    <t>https://dl.dropboxusercontent.com/u/5104407/nntest/rcripe.jpg</t>
+  </si>
+  <si>
+    <t>https://dl.dropboxusercontent.com/u/5104407/nntest/abby.jpg</t>
+  </si>
+  <si>
+    <t>https://dl.dropboxusercontent.com/u/5104407/nntest/mike.jpg</t>
   </si>
 </sst>
 </file>
@@ -745,7 +763,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="200">
+  <cellStyleXfs count="203">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -895,6 +913,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -952,7 +973,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="148"/>
   </cellXfs>
-  <cellStyles count="200">
+  <cellStyles count="203">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1104,6 +1125,9 @@
     <cellStyle name="Followed Hyperlink" xfId="197" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="199" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="201" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -5132,10 +5156,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5145,9 +5169,10 @@
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1">
         <v>11</v>
       </c>
@@ -5166,8 +5191,11 @@
       <c r="F1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5186,8 +5214,11 @@
       <c r="F2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5206,8 +5237,11 @@
       <c r="F3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5226,8 +5260,11 @@
       <c r="F4" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5246,8 +5283,11 @@
       <c r="F5" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5266,8 +5306,11 @@
       <c r="F6" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5286,8 +5329,11 @@
       <c r="F7" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5306,8 +5352,11 @@
       <c r="F8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5326,8 +5375,11 @@
       <c r="F9" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5346,8 +5398,11 @@
       <c r="F10" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5366,8 +5421,11 @@
       <c r="F11" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5385,6 +5443,9 @@
       </c>
       <c r="F12" t="s">
         <v>58</v>
+      </c>
+      <c r="G12" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -5400,6 +5461,9 @@
     <hyperlink ref="D10" r:id="rId9"/>
     <hyperlink ref="D11" r:id="rId10"/>
     <hyperlink ref="D12" r:id="rId11"/>
+    <hyperlink ref="G11" r:id="rId12"/>
+    <hyperlink ref="G3" r:id="rId13"/>
+    <hyperlink ref="G4" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5415,8 +5479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5603,8 +5667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B30"/>
+    <sheetView topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="231">
   <si>
     <t>tomyeh</t>
   </si>
@@ -704,6 +704,21 @@
   </si>
   <si>
     <t>https://dl.dropboxusercontent.com/u/5104407/nntest/mike.jpg</t>
+  </si>
+  <si>
+    <t>https://dl.dropboxusercontent.com/u/5104407/nntest/jose.jpg</t>
+  </si>
+  <si>
+    <t>https://dl.dropboxusercontent.com/u/5104407/nntest/carol.jpg</t>
+  </si>
+  <si>
+    <t>https://dl.dropboxusercontent.com/u/5104407/nntest/janet.jpg</t>
+  </si>
+  <si>
+    <t>https://dl.dropboxusercontent.com/u/5104407/nntest/peter.jpg</t>
+  </si>
+  <si>
+    <t>https://dl.dropboxusercontent.com/u/5104407/nntest/jenny.jpg</t>
   </si>
 </sst>
 </file>
@@ -763,7 +778,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="203">
+  <cellStyleXfs count="204">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -913,6 +928,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -973,7 +989,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="148"/>
   </cellXfs>
-  <cellStyles count="203">
+  <cellStyles count="204">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1128,6 +1144,7 @@
     <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="201" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="203" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -5159,7 +5176,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5283,8 +5300,8 @@
       <c r="F5" t="s">
         <v>58</v>
       </c>
-      <c r="G5" t="s">
-        <v>222</v>
+      <c r="G5" s="2" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -5352,8 +5369,8 @@
       <c r="F8" t="s">
         <v>58</v>
       </c>
-      <c r="G8" t="s">
-        <v>222</v>
+      <c r="G8" s="2" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -5375,8 +5392,8 @@
       <c r="F9" t="s">
         <v>58</v>
       </c>
-      <c r="G9" t="s">
-        <v>222</v>
+      <c r="G9" s="2" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -5398,8 +5415,8 @@
       <c r="F10" t="s">
         <v>58</v>
       </c>
-      <c r="G10" t="s">
-        <v>222</v>
+      <c r="G10" s="2" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -5444,8 +5461,8 @@
       <c r="F12" t="s">
         <v>58</v>
       </c>
-      <c r="G12" t="s">
-        <v>222</v>
+      <c r="G12" s="2" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -5464,6 +5481,11 @@
     <hyperlink ref="G11" r:id="rId12"/>
     <hyperlink ref="G3" r:id="rId13"/>
     <hyperlink ref="G4" r:id="rId14"/>
+    <hyperlink ref="G5" r:id="rId15"/>
+    <hyperlink ref="G8" r:id="rId16"/>
+    <hyperlink ref="G12" r:id="rId17"/>
+    <hyperlink ref="G10" r:id="rId18"/>
+    <hyperlink ref="G9" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17560" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17560" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Note" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="241">
   <si>
     <t>tomyeh</t>
   </si>
@@ -719,6 +719,36 @@
   </si>
   <si>
     <t>https://dl.dropboxusercontent.com/u/5104407/nntest/jenny.jpg</t>
+  </si>
+  <si>
+    <t>DesignIdea</t>
+  </si>
+  <si>
+    <t>bigger font</t>
+  </si>
+  <si>
+    <t>more margin</t>
+  </si>
+  <si>
+    <t>darker color</t>
+  </si>
+  <si>
+    <t>add a delete button</t>
+  </si>
+  <si>
+    <t>move things further apart</t>
+  </si>
+  <si>
+    <t>add a title</t>
+  </si>
+  <si>
+    <t>confusing</t>
+  </si>
+  <si>
+    <t>make the background larger</t>
+  </si>
+  <si>
+    <t>Like</t>
   </si>
 </sst>
 </file>
@@ -778,7 +808,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="204">
+  <cellStyleXfs count="218">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -928,6 +958,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -989,7 +1033,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="148"/>
   </cellXfs>
-  <cellStyles count="204">
+  <cellStyles count="218">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1145,6 +1189,20 @@
     <cellStyle name="Followed Hyperlink" xfId="201" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="203" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="205" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="207" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="209" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="211" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="213" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="215" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="217" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1522,10 +1580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K109"/>
+  <dimension ref="A1:K117"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H96" sqref="H96"/>
+    <sheetView topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1543,7 +1601,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
@@ -3935,7 +3993,7 @@
     </row>
     <row r="74" spans="1:10">
       <c r="A74">
-        <f t="shared" ref="A74:A109" si="1">A73+1</f>
+        <f t="shared" ref="A74:A117" si="1">A73+1</f>
         <v>73</v>
       </c>
       <c r="B74" t="s">
@@ -5158,6 +5216,198 @@
       </c>
       <c r="K109">
         <v>1400084381</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110">
+        <f t="shared" si="1"/>
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>12</v>
+      </c>
+      <c r="C110" t="s">
+        <v>219</v>
+      </c>
+      <c r="D110" t="s">
+        <v>231</v>
+      </c>
+      <c r="E110" t="s">
+        <v>232</v>
+      </c>
+      <c r="I110">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J110">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>14</v>
+      </c>
+      <c r="C111" t="s">
+        <v>219</v>
+      </c>
+      <c r="D111" t="s">
+        <v>231</v>
+      </c>
+      <c r="E111" t="s">
+        <v>233</v>
+      </c>
+      <c r="I111">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J111">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>10</v>
+      </c>
+      <c r="C112" t="s">
+        <v>219</v>
+      </c>
+      <c r="D112" t="s">
+        <v>231</v>
+      </c>
+      <c r="E112" t="s">
+        <v>234</v>
+      </c>
+      <c r="I112">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J112">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
+      <c r="A113">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>11</v>
+      </c>
+      <c r="C113" t="s">
+        <v>219</v>
+      </c>
+      <c r="D113" t="s">
+        <v>231</v>
+      </c>
+      <c r="E113" t="s">
+        <v>235</v>
+      </c>
+      <c r="I113">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J113">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
+      <c r="A114">
+        <f t="shared" si="1"/>
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>14</v>
+      </c>
+      <c r="C114" t="s">
+        <v>219</v>
+      </c>
+      <c r="D114" t="s">
+        <v>231</v>
+      </c>
+      <c r="E114" t="s">
+        <v>236</v>
+      </c>
+      <c r="I114">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J114">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
+      <c r="A115">
+        <f t="shared" si="1"/>
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>10</v>
+      </c>
+      <c r="C115" t="s">
+        <v>219</v>
+      </c>
+      <c r="D115" t="s">
+        <v>231</v>
+      </c>
+      <c r="E115" t="s">
+        <v>237</v>
+      </c>
+      <c r="I115">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J115">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
+      <c r="A116">
+        <f t="shared" si="1"/>
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>11</v>
+      </c>
+      <c r="C116" t="s">
+        <v>219</v>
+      </c>
+      <c r="D116" t="s">
+        <v>231</v>
+      </c>
+      <c r="E116" t="s">
+        <v>238</v>
+      </c>
+      <c r="I116">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J116">
+        <v>-106.8210536</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
+      <c r="A117">
+        <f t="shared" si="1"/>
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>15</v>
+      </c>
+      <c r="C117" t="s">
+        <v>219</v>
+      </c>
+      <c r="D117" t="s">
+        <v>231</v>
+      </c>
+      <c r="E117" t="s">
+        <v>239</v>
+      </c>
+      <c r="I117">
+        <v>39.197670199999997</v>
+      </c>
+      <c r="J117">
+        <v>-106.8210536</v>
       </c>
     </row>
   </sheetData>
@@ -5175,8 +5425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5502,7 +5752,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5687,17 +5937,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:F112"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
@@ -5705,7 +5953,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="B1" t="s">
         <v>39</v>
@@ -7641,7 +7889,7 @@
         <v>43</v>
       </c>
       <c r="C93">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="D93" t="s">
         <v>41</v>
@@ -7662,7 +7910,7 @@
         <v>43</v>
       </c>
       <c r="C94">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="D94" t="s">
         <v>41</v>
@@ -7683,7 +7931,7 @@
         <v>43</v>
       </c>
       <c r="C95">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="D95" t="s">
         <v>41</v>
@@ -7704,7 +7952,7 @@
         <v>43</v>
       </c>
       <c r="C96">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="D96" t="s">
         <v>41</v>
@@ -7725,7 +7973,7 @@
         <v>43</v>
       </c>
       <c r="C97">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="D97" t="s">
         <v>41</v>
@@ -7746,7 +7994,7 @@
         <v>43</v>
       </c>
       <c r="C98">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="D98" t="s">
         <v>41</v>
@@ -7767,7 +8015,7 @@
         <v>43</v>
       </c>
       <c r="C99">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="D99" t="s">
         <v>41</v>
@@ -7788,7 +8036,7 @@
         <v>43</v>
       </c>
       <c r="C100">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="D100" t="s">
         <v>41</v>
@@ -7809,7 +8057,7 @@
         <v>43</v>
       </c>
       <c r="C101">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="D101" t="s">
         <v>41</v>
@@ -7819,6 +8067,212 @@
       </c>
       <c r="F101" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>43</v>
+      </c>
+      <c r="C102">
+        <v>110</v>
+      </c>
+      <c r="D102" t="s">
+        <v>41</v>
+      </c>
+      <c r="E102" t="s">
+        <v>51</v>
+      </c>
+      <c r="F102" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>43</v>
+      </c>
+      <c r="C103">
+        <v>111</v>
+      </c>
+      <c r="D103" t="s">
+        <v>41</v>
+      </c>
+      <c r="E103" t="s">
+        <v>53</v>
+      </c>
+      <c r="F103" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>43</v>
+      </c>
+      <c r="C104">
+        <v>112</v>
+      </c>
+      <c r="D104" t="s">
+        <v>41</v>
+      </c>
+      <c r="E104" t="s">
+        <v>52</v>
+      </c>
+      <c r="F104" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>43</v>
+      </c>
+      <c r="C105">
+        <v>113</v>
+      </c>
+      <c r="D105" t="s">
+        <v>41</v>
+      </c>
+      <c r="E105" t="s">
+        <v>50</v>
+      </c>
+      <c r="F105" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106">
+        <f t="shared" ref="A106:A112" si="4">A105+1</f>
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>43</v>
+      </c>
+      <c r="C106">
+        <v>106</v>
+      </c>
+      <c r="D106" t="s">
+        <v>240</v>
+      </c>
+      <c r="F106" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107">
+        <f t="shared" si="4"/>
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>43</v>
+      </c>
+      <c r="C107">
+        <v>107</v>
+      </c>
+      <c r="D107" t="s">
+        <v>240</v>
+      </c>
+      <c r="F107" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108">
+        <f t="shared" si="4"/>
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>43</v>
+      </c>
+      <c r="C108">
+        <v>108</v>
+      </c>
+      <c r="D108" t="s">
+        <v>240</v>
+      </c>
+      <c r="F108" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109">
+        <f t="shared" si="4"/>
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>43</v>
+      </c>
+      <c r="C109">
+        <v>110</v>
+      </c>
+      <c r="D109" t="s">
+        <v>240</v>
+      </c>
+      <c r="F109" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110">
+        <f t="shared" si="4"/>
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>43</v>
+      </c>
+      <c r="C110">
+        <v>111</v>
+      </c>
+      <c r="D110" t="s">
+        <v>240</v>
+      </c>
+      <c r="F110" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111">
+        <f t="shared" si="4"/>
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>43</v>
+      </c>
+      <c r="C111">
+        <v>112</v>
+      </c>
+      <c r="D111" t="s">
+        <v>240</v>
+      </c>
+      <c r="F111" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112">
+        <f t="shared" si="4"/>
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>43</v>
+      </c>
+      <c r="C112">
+        <v>113</v>
+      </c>
+      <c r="D112" t="s">
+        <v>240</v>
+      </c>
+      <c r="F112" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17560" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17560" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Note" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="265">
   <si>
     <t>tomyeh</t>
   </si>
@@ -670,18 +670,12 @@
     <t>Pilot</t>
   </si>
   <si>
-    <t>Pilot test</t>
-  </si>
-  <si>
     <t>cu_design_idea</t>
   </si>
   <si>
     <t>Design Idea</t>
   </si>
   <si>
-    <t>Contribute your design idea</t>
-  </si>
-  <si>
     <t>aces_design_idea</t>
   </si>
   <si>
@@ -749,6 +743,84 @@
   </si>
   <si>
     <t>Like</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Stump the Community</t>
+  </si>
+  <si>
+    <t>Find an animal or plant that the NatureNet userbase won’t be able to name!</t>
+  </si>
+  <si>
+    <t>Pilot data from 2013</t>
+  </si>
+  <si>
+    <t>aces_stump</t>
+  </si>
+  <si>
+    <t>Find evidence of as many different kinds of bird or animal as you can!</t>
+  </si>
+  <si>
+    <t>Tracks</t>
+  </si>
+  <si>
+    <t>Native or Not?</t>
+  </si>
+  <si>
+    <t>Photograph an animal or plant that you know either is or isn’t indigenous to your region. If it’s not, try to tell us where it’s from!</t>
+  </si>
+  <si>
+    <t>aces_native</t>
+  </si>
+  <si>
+    <t>cu_stump</t>
+  </si>
+  <si>
+    <t>cu_tracks</t>
+  </si>
+  <si>
+    <t>aces_tracks</t>
+  </si>
+  <si>
+    <t>cu_native</t>
+  </si>
+  <si>
+    <t>umd_stump</t>
+  </si>
+  <si>
+    <t>umd_tracks</t>
+  </si>
+  <si>
+    <t>umd_native</t>
+  </si>
+  <si>
+    <t>uncc_stump</t>
+  </si>
+  <si>
+    <t>uncc_tracks</t>
+  </si>
+  <si>
+    <t>uncc_native</t>
+  </si>
+  <si>
+    <t>Contribute a design ideat to make NatureNet better</t>
+  </si>
+  <si>
+    <t>image_url</t>
+  </si>
+  <si>
+    <t>https://dl.dropboxusercontent.com/u/5104407/nntest/cu.jpg</t>
+  </si>
+  <si>
+    <t>https://dl.dropboxusercontent.com/u/5104407/nntest/aces.jpg</t>
+  </si>
+  <si>
+    <t>https://dl.dropboxusercontent.com/u/5104407/nntest/uncc.jpg</t>
+  </si>
+  <si>
+    <t>https://dl.dropboxusercontent.com/u/5104407/nntest/umd.jpg</t>
   </si>
 </sst>
 </file>
@@ -808,7 +880,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="218">
+  <cellStyleXfs count="229">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -958,6 +1030,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1033,7 +1116,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="148"/>
   </cellXfs>
-  <cellStyles count="218">
+  <cellStyles count="229">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1203,6 +1286,17 @@
     <cellStyle name="Followed Hyperlink" xfId="215" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="217" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="219" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="221" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="223" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="225" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="227" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1582,8 +1676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K117"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="C110" sqref="C110"/>
+    <sheetView topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="F117" sqref="F117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5227,13 +5321,13 @@
         <v>12</v>
       </c>
       <c r="C110" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D110" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E110" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I110">
         <v>39.197670199999997</v>
@@ -5251,13 +5345,13 @@
         <v>14</v>
       </c>
       <c r="C111" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D111" t="s">
+        <v>229</v>
+      </c>
+      <c r="E111" t="s">
         <v>231</v>
-      </c>
-      <c r="E111" t="s">
-        <v>233</v>
       </c>
       <c r="I111">
         <v>39.197670199999997</v>
@@ -5275,13 +5369,13 @@
         <v>10</v>
       </c>
       <c r="C112" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D112" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E112" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I112">
         <v>39.197670199999997</v>
@@ -5299,13 +5393,13 @@
         <v>11</v>
       </c>
       <c r="C113" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D113" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E113" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I113">
         <v>39.197670199999997</v>
@@ -5323,13 +5417,13 @@
         <v>14</v>
       </c>
       <c r="C114" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D114" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E114" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="I114">
         <v>39.197670199999997</v>
@@ -5347,13 +5441,13 @@
         <v>10</v>
       </c>
       <c r="C115" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D115" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E115" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I115">
         <v>39.197670199999997</v>
@@ -5371,13 +5465,13 @@
         <v>11</v>
       </c>
       <c r="C116" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D116" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E116" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I116">
         <v>39.197670199999997</v>
@@ -5395,13 +5489,13 @@
         <v>15</v>
       </c>
       <c r="C117" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D117" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E117" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I117">
         <v>39.197670199999997</v>
@@ -5459,7 +5553,7 @@
         <v>57</v>
       </c>
       <c r="G1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -5482,7 +5576,7 @@
         <v>58</v>
       </c>
       <c r="G2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -5505,7 +5599,7 @@
         <v>58</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -5528,7 +5622,7 @@
         <v>58</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -5551,7 +5645,7 @@
         <v>58</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -5574,7 +5668,7 @@
         <v>58</v>
       </c>
       <c r="G6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -5597,7 +5691,7 @@
         <v>58</v>
       </c>
       <c r="G7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5620,7 +5714,7 @@
         <v>58</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -5643,7 +5737,7 @@
         <v>58</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -5666,7 +5760,7 @@
         <v>58</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -5689,7 +5783,7 @@
         <v>58</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -5712,7 +5806,7 @@
         <v>58</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -5749,24 +5843,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="60.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -5789,7 +5883,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>213</v>
       </c>
       <c r="C2" t="s">
         <v>209</v>
@@ -5809,7 +5903,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>213</v>
       </c>
       <c r="C3" t="s">
         <v>210</v>
@@ -5829,7 +5923,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>213</v>
       </c>
       <c r="C4" t="s">
         <v>212</v>
@@ -5838,7 +5932,7 @@
         <v>213</v>
       </c>
       <c r="E4" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="F4" t="s">
         <v>83</v>
@@ -5849,16 +5943,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>239</v>
       </c>
       <c r="C5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D5" t="s">
         <v>215</v>
       </c>
-      <c r="D5" t="s">
-        <v>216</v>
-      </c>
       <c r="E5" t="s">
-        <v>217</v>
+        <v>259</v>
       </c>
       <c r="F5" t="s">
         <v>81</v>
@@ -5869,16 +5963,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>239</v>
       </c>
       <c r="C6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E6" t="s">
-        <v>217</v>
+        <v>259</v>
       </c>
       <c r="F6" t="s">
         <v>83</v>
@@ -5889,16 +5983,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>239</v>
       </c>
       <c r="C7" t="s">
+        <v>214</v>
+      </c>
+      <c r="D7" t="s">
         <v>215</v>
       </c>
-      <c r="D7" t="s">
-        <v>216</v>
-      </c>
       <c r="E7" t="s">
-        <v>217</v>
+        <v>259</v>
       </c>
       <c r="F7" t="s">
         <v>79</v>
@@ -5909,18 +6003,269 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>239</v>
+      </c>
+      <c r="C8" t="s">
+        <v>217</v>
+      </c>
+      <c r="D8" t="s">
+        <v>215</v>
+      </c>
+      <c r="E8" t="s">
+        <v>259</v>
+      </c>
+      <c r="F8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>55</v>
       </c>
-      <c r="C8" t="s">
-        <v>219</v>
-      </c>
-      <c r="D8" t="s">
-        <v>216</v>
-      </c>
-      <c r="E8" t="s">
-        <v>217</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="C9" t="s">
+        <v>243</v>
+      </c>
+      <c r="D9" t="s">
+        <v>240</v>
+      </c>
+      <c r="E9" t="s">
+        <v>241</v>
+      </c>
+      <c r="F9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <f>A9+1</f>
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" t="s">
+        <v>251</v>
+      </c>
+      <c r="D10" t="s">
+        <v>245</v>
+      </c>
+      <c r="E10" t="s">
+        <v>244</v>
+      </c>
+      <c r="F10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <f t="shared" ref="A11:A20" si="0">A10+1</f>
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
+        <v>248</v>
+      </c>
+      <c r="D11" t="s">
+        <v>246</v>
+      </c>
+      <c r="E11" t="s">
+        <v>247</v>
+      </c>
+      <c r="F11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" t="s">
+        <v>249</v>
+      </c>
+      <c r="D12" t="s">
+        <v>240</v>
+      </c>
+      <c r="E12" t="s">
+        <v>241</v>
+      </c>
+      <c r="F12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" t="s">
+        <v>250</v>
+      </c>
+      <c r="D13" t="s">
+        <v>245</v>
+      </c>
+      <c r="E13" t="s">
+        <v>244</v>
+      </c>
+      <c r="F13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" t="s">
+        <v>252</v>
+      </c>
+      <c r="D14" t="s">
+        <v>246</v>
+      </c>
+      <c r="E14" t="s">
+        <v>247</v>
+      </c>
+      <c r="F14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
+        <v>253</v>
+      </c>
+      <c r="D15" t="s">
+        <v>240</v>
+      </c>
+      <c r="E15" t="s">
+        <v>241</v>
+      </c>
+      <c r="F15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" t="s">
+        <v>254</v>
+      </c>
+      <c r="D16" t="s">
+        <v>245</v>
+      </c>
+      <c r="E16" t="s">
+        <v>244</v>
+      </c>
+      <c r="F16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" t="s">
+        <v>255</v>
+      </c>
+      <c r="D17" t="s">
+        <v>246</v>
+      </c>
+      <c r="E17" t="s">
+        <v>247</v>
+      </c>
+      <c r="F17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" t="s">
+        <v>256</v>
+      </c>
+      <c r="D18" t="s">
+        <v>240</v>
+      </c>
+      <c r="E18" t="s">
+        <v>241</v>
+      </c>
+      <c r="F18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s">
+        <v>257</v>
+      </c>
+      <c r="D19" t="s">
+        <v>245</v>
+      </c>
+      <c r="E19" t="s">
+        <v>244</v>
+      </c>
+      <c r="F19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" t="s">
+        <v>258</v>
+      </c>
+      <c r="D20" t="s">
+        <v>246</v>
+      </c>
+      <c r="E20" t="s">
+        <v>247</v>
+      </c>
+      <c r="F20" t="s">
         <v>80</v>
       </c>
     </row>
@@ -5939,7 +6284,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -8161,7 +8508,7 @@
         <v>106</v>
       </c>
       <c r="D106" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F106" t="s">
         <v>1</v>
@@ -8179,7 +8526,7 @@
         <v>107</v>
       </c>
       <c r="D107" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F107" t="s">
         <v>1</v>
@@ -8197,7 +8544,7 @@
         <v>108</v>
       </c>
       <c r="D108" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F108" t="s">
         <v>1</v>
@@ -8215,7 +8562,7 @@
         <v>110</v>
       </c>
       <c r="D109" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F109" t="s">
         <v>14</v>
@@ -8233,7 +8580,7 @@
         <v>111</v>
       </c>
       <c r="D110" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F110" t="s">
         <v>14</v>
@@ -8251,7 +8598,7 @@
         <v>112</v>
       </c>
       <c r="D111" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F111" t="s">
         <v>14</v>
@@ -8269,7 +8616,7 @@
         <v>113</v>
       </c>
       <c r="D112" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F112" t="s">
         <v>14</v>
@@ -8289,10 +8636,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8301,7 +8648,7 @@
     <col min="3" max="3" width="34.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1">
         <v>5</v>
       </c>
@@ -8311,8 +8658,11 @@
       <c r="C1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8323,7 +8673,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8333,8 +8683,11 @@
       <c r="C3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8344,8 +8697,11 @@
       <c r="C4" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8355,8 +8711,11 @@
       <c r="C5" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8366,8 +8725,16 @@
       <c r="C6" t="s">
         <v>86</v>
       </c>
+      <c r="D6" s="2" t="s">
+        <v>264</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId2"/>
+    <hyperlink ref="D6" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/data.xlsx
+++ b/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17560" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17560" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Note" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="275">
   <si>
     <t>tomyeh</t>
   </si>
@@ -821,6 +821,36 @@
   </si>
   <si>
     <t>https://dl.dropboxusercontent.com/u/5104407/nntest/umd.jpg</t>
+  </si>
+  <si>
+    <t>extras</t>
+  </si>
+  <si>
+    <t>Landmark</t>
+  </si>
+  <si>
+    <t>aces_landmark1</t>
+  </si>
+  <si>
+    <t>aces_landmark2</t>
+  </si>
+  <si>
+    <t>Hub of Activities</t>
+  </si>
+  <si>
+    <t>Natural springs feed Hallam Lake throughout the year, creating a hub of animal and plant activity. These springs have always served as a gathering place for people and wildlife. Ute Indians believed that springs were sacred places. They would camp near areas like Hallam Lake when they followed game into the mountains during the summer.</t>
+  </si>
+  <si>
+    <t>It's time to meet ACES' resident Golden Eagle, a real Aspen local. In the summer of 1982 this eagle was found on the backside of Aspen Mountain by hikers.  She was brought to a raptor rehabilitation center in Fort Collins, where she was treated for a broken right wing and left leg. She was then returned to Aspen and Hallam Lake where she has lived ever since.</t>
+  </si>
+  <si>
+    <t>Golden Eagle</t>
+  </si>
+  <si>
+    <t>{"latitude": 39.195216, "longitude": -106.821265}</t>
+  </si>
+  <si>
+    <t>{"latitude": 39.195428,"longitude": -106.822069}</t>
   </si>
 </sst>
 </file>
@@ -880,7 +910,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="229">
+  <cellStyleXfs count="233">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1030,6 +1060,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1116,7 +1150,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="148"/>
   </cellXfs>
-  <cellStyles count="229">
+  <cellStyles count="233">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1297,6 +1331,10 @@
     <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="227" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="229" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="231" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -5843,10 +5881,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5858,9 +5896,9 @@
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -5877,8 +5915,11 @@
       <c r="F1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5898,7 +5939,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5918,7 +5959,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5938,7 +5979,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5958,7 +5999,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5978,7 +6019,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5998,7 +6039,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6018,7 +6059,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6038,7 +6079,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10">
         <f>A9+1</f>
         <v>9</v>
@@ -6059,9 +6100,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11">
-        <f t="shared" ref="A11:A20" si="0">A10+1</f>
+        <f t="shared" ref="A11:A22" si="0">A10+1</f>
         <v>10</v>
       </c>
       <c r="B11" t="s">
@@ -6080,7 +6121,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -6101,7 +6142,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -6122,7 +6163,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -6143,7 +6184,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -6164,7 +6205,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -6185,7 +6226,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:7">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -6206,7 +6247,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:7">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -6227,7 +6268,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:7">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -6248,7 +6289,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:7">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -6267,6 +6308,54 @@
       </c>
       <c r="F20" t="s">
         <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>266</v>
+      </c>
+      <c r="C21" t="s">
+        <v>267</v>
+      </c>
+      <c r="D21" t="s">
+        <v>269</v>
+      </c>
+      <c r="E21" t="s">
+        <v>270</v>
+      </c>
+      <c r="F21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G21" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>266</v>
+      </c>
+      <c r="C22" t="s">
+        <v>268</v>
+      </c>
+      <c r="D22" t="s">
+        <v>272</v>
+      </c>
+      <c r="E22" t="s">
+        <v>271</v>
+      </c>
+      <c r="F22" t="s">
+        <v>83</v>
+      </c>
+      <c r="G22" t="s">
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -8638,7 +8727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>

--- a/data.xlsx
+++ b/data.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="310">
   <si>
     <t>tomyeh</t>
   </si>
@@ -835,22 +835,127 @@
     <t>aces_landmark2</t>
   </si>
   <si>
-    <t>Hub of Activities</t>
-  </si>
-  <si>
     <t>Natural springs feed Hallam Lake throughout the year, creating a hub of animal and plant activity. These springs have always served as a gathering place for people and wildlife. Ute Indians believed that springs were sacred places. They would camp near areas like Hallam Lake when they followed game into the mountains during the summer.</t>
   </si>
   <si>
     <t>It's time to meet ACES' resident Golden Eagle, a real Aspen local. In the summer of 1982 this eagle was found on the backside of Aspen Mountain by hikers.  She was brought to a raptor rehabilitation center in Fort Collins, where she was treated for a broken right wing and left leg. She was then returned to Aspen and Hallam Lake where she has lived ever since.</t>
   </si>
   <si>
-    <t>Golden Eagle</t>
-  </si>
-  <si>
     <t>{"latitude": 39.195216, "longitude": -106.821265}</t>
   </si>
   <si>
     <t>{"latitude": 39.195428,"longitude": -106.822069}</t>
+  </si>
+  <si>
+    <t>1. Hub of Activities</t>
+  </si>
+  <si>
+    <t>2. Golden Eagle</t>
+  </si>
+  <si>
+    <t>aces_landmark3</t>
+  </si>
+  <si>
+    <t>aces_landmark4</t>
+  </si>
+  <si>
+    <t>aces_landmark5</t>
+  </si>
+  <si>
+    <t>aces_landmark6</t>
+  </si>
+  <si>
+    <t>aces_landmark7</t>
+  </si>
+  <si>
+    <t>aces_landmark8</t>
+  </si>
+  <si>
+    <t>aces_landmark9</t>
+  </si>
+  <si>
+    <t>aces_landmark10</t>
+  </si>
+  <si>
+    <t>3. A Safe Haven</t>
+  </si>
+  <si>
+    <t>Take a seat and enjoy the view! The bench here offers us a place of refuge from the sun, rain, or snow, just as the lake offers refuge to a plethora of waterfowl. Geese and ducks return to Hallam Lake every year as the lake provides a safe stepping-stone on the journey of migration. It is a place to rest, relax, recharge, and connect with other travelers. Why do these birds stop here? The lake is an ideal habitat and is full of food. Hallam Lake never completely freezes in winter due to its 48  F spring water source. This provides a consistent, open-water site all year long.  At Hallam Lake we mark the seasons by visits from the birds. We count on their arrival just as they count on the safe haven that Hallam Lake offers</t>
+  </si>
+  <si>
+    <t>4. Beavers: Builders of Community Space</t>
+  </si>
+  <si>
+    <t>Beavers have been living here at Hallam Lake for many decades. They are most active at dawn and dusk. Do you see any signs of their activity? Chewed sticks, pointed tree stumps, dams, and lodges are all clues that beavers live nearby. The beavers here live in a bank lodge located on the other side of the lake, under the leaning blue spruce tree.</t>
+  </si>
+  <si>
+    <t>{"latitude": 39.195798,"longitude": -106.822166}</t>
+  </si>
+  <si>
+    <t>5. Outdoor Classroom</t>
+  </si>
+  <si>
+    <t>As you stand here at the teaching platforms, you are joining a long lineage of visitors who have found Hallam Lake a place of connection and inspiration. Since the very early days of ACES, children and adults have used this spot as an outdoor classroom and laboratory, a place of thoughtful observation and study to reconnect with nature. Artists and writers have used Hallam Lake as an outdoor studio, finding these platforms to be a wonderful spot to express themselves. If you have a camera, a journal, or watercolors, stop and get in touch with your inner artist!</t>
+  </si>
+  <si>
+    <t>{"latitude": 39.195998,"longitude": -106.821823}</t>
+  </si>
+  <si>
+    <t>6. Powerful Ties from Past to Present</t>
+  </si>
+  <si>
+    <t>Look down and take notice of the strange plants growing next to the trail. The plants below are commonly known as horsetails and are a connection to an ancient part of plant history. Spore-producing horsetails belong to the genus Equisetum, in a plant family that is over 300 million years old!  They are also called scouring rushes because silica, stored in the plant's cells, makes them effective for scrubbing pots or polishing wood.  Native Americans used the horsetails as a blood coagulant, and more recent medical research has shown these plants to be an effective diuretic.  Can you think of other ancient plants or animals that are still living today?</t>
+  </si>
+  <si>
+    <t>{"latitude": 39.19643,"longitude": -106.821629}</t>
+  </si>
+  <si>
+    <t>7. Overlook the Sanctuary</t>
+  </si>
+  <si>
+    <t>Turn left for an out-and-back to the marsh platform.</t>
+  </si>
+  <si>
+    <t>{"latitude": 39.196613,"longitude": -106.82156}</t>
+  </si>
+  <si>
+    <t>8. Bird Hollow</t>
+  </si>
+  <si>
+    <t>{"latitude": 39.196513,"longitude": -106.821265}</t>
+  </si>
+  <si>
+    <t>9. Where Rivers Come Together</t>
+  </si>
+  <si>
+    <t>Birding is a great way to connect with wildlife near your home or any place you visit. Take a moment to peek inside Bird Hollow. During the winter, bird feeders are hung from the trees and many species of birds can be seen here. Chickadees, nuthatches, finches, and Steller's Jays all frequent this area looking for food. Bird diversity increases dramatically in the summer.</t>
+  </si>
+  <si>
+    <t>The rushing water below is the Roaring Fork River just before it meets Hunter Creek. Hallam Lake can be geographically defined as the low, wet riparian area adjacent to the confluence of Hunter Creek and the Roaring Fork River.</t>
+  </si>
+  <si>
+    <t>{"latitude": 39.196368,"longitude": -106.821265}</t>
+  </si>
+  <si>
+    <t>10. Birds of Prey</t>
+  </si>
+  <si>
+    <t>You are standing in front of the Birds of Prey (BOP) House, the hub of our non-releasable raptor program. While at ACES, the resident BOP serve as our best educators, allowing visitors to get up close and personal to powerful wild animals.</t>
+  </si>
+  <si>
+    <t>{"latitude": 39.195324,"longitude": -106.821227}</t>
+  </si>
+  <si>
+    <t>aces_landmark11</t>
+  </si>
+  <si>
+    <t>11. Journey's End</t>
+  </si>
+  <si>
+    <t>Thank you for visiting Hallam Lake today! This has always been a place of connection for animals and people, from the early times of the Ute Indians to the present-day visitors and guests of our nature center. Birds touch down on the lake and rest, and this is a safe haven for deer, black bears, and beavers to raise their young. Hallam Lake is an important hub for the Aspen community, offering a place for people to share stories and ideas, as well as find inspiration and peace. Nature centers in many communities provide a place where everyone is welcome regardless of race, religion, or financial status.</t>
+  </si>
+  <si>
+    <t>{"latitude": 39.195241,"longitude": -106.82112}</t>
   </si>
 </sst>
 </file>
@@ -910,7 +1015,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="233">
+  <cellStyleXfs count="241">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1060,6 +1165,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1150,7 +1263,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="148"/>
   </cellXfs>
-  <cellStyles count="233">
+  <cellStyles count="241">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1335,6 +1448,14 @@
     <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="231" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="233" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="235" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="237" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="239" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -5558,7 +5679,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5881,11 +6002,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -5898,7 +6017,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -6102,7 +6221,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <f t="shared" ref="A11:A22" si="0">A10+1</f>
+        <f t="shared" ref="A11:A31" si="0">A10+1</f>
         <v>10</v>
       </c>
       <c r="B11" t="s">
@@ -6322,16 +6441,16 @@
         <v>267</v>
       </c>
       <c r="D21" t="s">
+        <v>273</v>
+      </c>
+      <c r="E21" t="s">
         <v>269</v>
-      </c>
-      <c r="E21" t="s">
-        <v>270</v>
       </c>
       <c r="F21" t="s">
         <v>83</v>
       </c>
       <c r="G21" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -6346,16 +6465,232 @@
         <v>268</v>
       </c>
       <c r="D22" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E22" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F22" t="s">
         <v>83</v>
       </c>
       <c r="G22" t="s">
-        <v>274</v>
+        <v>272</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>266</v>
+      </c>
+      <c r="C23" t="s">
+        <v>275</v>
+      </c>
+      <c r="D23" t="s">
+        <v>283</v>
+      </c>
+      <c r="E23" t="s">
+        <v>284</v>
+      </c>
+      <c r="F23" t="s">
+        <v>83</v>
+      </c>
+      <c r="G23" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>266</v>
+      </c>
+      <c r="C24" t="s">
+        <v>276</v>
+      </c>
+      <c r="D24" t="s">
+        <v>285</v>
+      </c>
+      <c r="E24" t="s">
+        <v>286</v>
+      </c>
+      <c r="F24" t="s">
+        <v>83</v>
+      </c>
+      <c r="G24" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>266</v>
+      </c>
+      <c r="C25" t="s">
+        <v>277</v>
+      </c>
+      <c r="D25" t="s">
+        <v>288</v>
+      </c>
+      <c r="E25" t="s">
+        <v>289</v>
+      </c>
+      <c r="F25" t="s">
+        <v>83</v>
+      </c>
+      <c r="G25" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>266</v>
+      </c>
+      <c r="C26" t="s">
+        <v>278</v>
+      </c>
+      <c r="D26" t="s">
+        <v>291</v>
+      </c>
+      <c r="E26" t="s">
+        <v>292</v>
+      </c>
+      <c r="F26" t="s">
+        <v>83</v>
+      </c>
+      <c r="G26" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>266</v>
+      </c>
+      <c r="C27" t="s">
+        <v>279</v>
+      </c>
+      <c r="D27" t="s">
+        <v>294</v>
+      </c>
+      <c r="E27" t="s">
+        <v>295</v>
+      </c>
+      <c r="F27" t="s">
+        <v>83</v>
+      </c>
+      <c r="G27" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>266</v>
+      </c>
+      <c r="C28" t="s">
+        <v>280</v>
+      </c>
+      <c r="D28" t="s">
+        <v>297</v>
+      </c>
+      <c r="E28" t="s">
+        <v>300</v>
+      </c>
+      <c r="F28" t="s">
+        <v>83</v>
+      </c>
+      <c r="G28" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>266</v>
+      </c>
+      <c r="C29" t="s">
+        <v>281</v>
+      </c>
+      <c r="D29" t="s">
+        <v>299</v>
+      </c>
+      <c r="E29" t="s">
+        <v>301</v>
+      </c>
+      <c r="F29" t="s">
+        <v>83</v>
+      </c>
+      <c r="G29" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>266</v>
+      </c>
+      <c r="C30" t="s">
+        <v>282</v>
+      </c>
+      <c r="D30" t="s">
+        <v>303</v>
+      </c>
+      <c r="E30" t="s">
+        <v>304</v>
+      </c>
+      <c r="F30" t="s">
+        <v>83</v>
+      </c>
+      <c r="G30" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>266</v>
+      </c>
+      <c r="C31" t="s">
+        <v>306</v>
+      </c>
+      <c r="D31" t="s">
+        <v>307</v>
+      </c>
+      <c r="E31" t="s">
+        <v>308</v>
+      </c>
+      <c r="F31" t="s">
+        <v>83</v>
+      </c>
+      <c r="G31" t="s">
+        <v>309</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17560" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="2480" yWindow="0" windowWidth="25600" windowHeight="17560" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Note" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="317">
   <si>
     <t>tomyeh</t>
   </si>
@@ -841,12 +841,6 @@
     <t>It's time to meet ACES' resident Golden Eagle, a real Aspen local. In the summer of 1982 this eagle was found on the backside of Aspen Mountain by hikers.  She was brought to a raptor rehabilitation center in Fort Collins, where she was treated for a broken right wing and left leg. She was then returned to Aspen and Hallam Lake where she has lived ever since.</t>
   </si>
   <si>
-    <t>{"latitude": 39.195216, "longitude": -106.821265}</t>
-  </si>
-  <si>
-    <t>{"latitude": 39.195428,"longitude": -106.822069}</t>
-  </si>
-  <si>
     <t>1. Hub of Activities</t>
   </si>
   <si>
@@ -889,42 +883,27 @@
     <t>Beavers have been living here at Hallam Lake for many decades. They are most active at dawn and dusk. Do you see any signs of their activity? Chewed sticks, pointed tree stumps, dams, and lodges are all clues that beavers live nearby. The beavers here live in a bank lodge located on the other side of the lake, under the leaning blue spruce tree.</t>
   </si>
   <si>
-    <t>{"latitude": 39.195798,"longitude": -106.822166}</t>
-  </si>
-  <si>
     <t>5. Outdoor Classroom</t>
   </si>
   <si>
     <t>As you stand here at the teaching platforms, you are joining a long lineage of visitors who have found Hallam Lake a place of connection and inspiration. Since the very early days of ACES, children and adults have used this spot as an outdoor classroom and laboratory, a place of thoughtful observation and study to reconnect with nature. Artists and writers have used Hallam Lake as an outdoor studio, finding these platforms to be a wonderful spot to express themselves. If you have a camera, a journal, or watercolors, stop and get in touch with your inner artist!</t>
   </si>
   <si>
-    <t>{"latitude": 39.195998,"longitude": -106.821823}</t>
-  </si>
-  <si>
     <t>6. Powerful Ties from Past to Present</t>
   </si>
   <si>
     <t>Look down and take notice of the strange plants growing next to the trail. The plants below are commonly known as horsetails and are a connection to an ancient part of plant history. Spore-producing horsetails belong to the genus Equisetum, in a plant family that is over 300 million years old!  They are also called scouring rushes because silica, stored in the plant's cells, makes them effective for scrubbing pots or polishing wood.  Native Americans used the horsetails as a blood coagulant, and more recent medical research has shown these plants to be an effective diuretic.  Can you think of other ancient plants or animals that are still living today?</t>
   </si>
   <si>
-    <t>{"latitude": 39.19643,"longitude": -106.821629}</t>
-  </si>
-  <si>
     <t>7. Overlook the Sanctuary</t>
   </si>
   <si>
     <t>Turn left for an out-and-back to the marsh platform.</t>
   </si>
   <si>
-    <t>{"latitude": 39.196613,"longitude": -106.82156}</t>
-  </si>
-  <si>
     <t>8. Bird Hollow</t>
   </si>
   <si>
-    <t>{"latitude": 39.196513,"longitude": -106.821265}</t>
-  </si>
-  <si>
     <t>9. Where Rivers Come Together</t>
   </si>
   <si>
@@ -934,18 +913,12 @@
     <t>The rushing water below is the Roaring Fork River just before it meets Hunter Creek. Hallam Lake can be geographically defined as the low, wet riparian area adjacent to the confluence of Hunter Creek and the Roaring Fork River.</t>
   </si>
   <si>
-    <t>{"latitude": 39.196368,"longitude": -106.821265}</t>
-  </si>
-  <si>
     <t>10. Birds of Prey</t>
   </si>
   <si>
     <t>You are standing in front of the Birds of Prey (BOP) House, the hub of our non-releasable raptor program. While at ACES, the resident BOP serve as our best educators, allowing visitors to get up close and personal to powerful wild animals.</t>
   </si>
   <si>
-    <t>{"latitude": 39.195324,"longitude": -106.821227}</t>
-  </si>
-  <si>
     <t>aces_landmark11</t>
   </si>
   <si>
@@ -955,7 +928,55 @@
     <t>Thank you for visiting Hallam Lake today! This has always been a place of connection for animals and people, from the early times of the Ute Indians to the present-day visitors and guests of our nature center. Birds touch down on the lake and rest, and this is a safe haven for deer, black bears, and beavers to raise their young. Hallam Lake is an important hub for the Aspen community, offering a place for people to share stories and ideas, as well as find inspiration and peace. Nature centers in many communities provide a place where everyone is welcome regardless of race, religion, or financial status.</t>
   </si>
   <si>
-    <t>{"latitude": 39.195241,"longitude": -106.82112}</t>
+    <t>umd_landmark_hcil</t>
+  </si>
+  <si>
+    <t>HCIL</t>
+  </si>
+  <si>
+    <t>Human Computer Interaction Laboratory</t>
+  </si>
+  <si>
+    <t>AV Williams</t>
+  </si>
+  <si>
+    <t>AV Williams, Computer Science, UMIACS</t>
+  </si>
+  <si>
+    <t>umd_landmark_avw</t>
+  </si>
+  <si>
+    <t>McKeldin Mall</t>
+  </si>
+  <si>
+    <t>umd_landmark_mall</t>
+  </si>
+  <si>
+    <t>Woodward Hall</t>
+  </si>
+  <si>
+    <t>Woordward Hall</t>
+  </si>
+  <si>
+    <t>uncc_landmark_woodward</t>
+  </si>
+  <si>
+    <t>cu_landmark_dlc</t>
+  </si>
+  <si>
+    <t>Discovery Learning Center</t>
+  </si>
+  <si>
+    <t>DLC</t>
+  </si>
+  <si>
+    <t>C4C - Center for Community</t>
+  </si>
+  <si>
+    <t>Center for Community</t>
+  </si>
+  <si>
+    <t>cu_landmark_c4c</t>
   </si>
 </sst>
 </file>
@@ -1015,7 +1036,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="241">
+  <cellStyleXfs count="249">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1165,6 +1186,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1263,7 +1292,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="148"/>
   </cellXfs>
-  <cellStyles count="241">
+  <cellStyles count="249">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1456,6 +1485,14 @@
     <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="239" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="241" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="243" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="245" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="247" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -6002,9 +6039,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -6017,7 +6056,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -6345,7 +6384,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:8">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -6366,7 +6405,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:8">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -6387,7 +6426,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:8">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -6408,7 +6447,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:8">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -6429,7 +6468,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:8">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -6441,7 +6480,7 @@
         <v>267</v>
       </c>
       <c r="D21" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E21" t="s">
         <v>269</v>
@@ -6449,11 +6488,14 @@
       <c r="F21" t="s">
         <v>83</v>
       </c>
-      <c r="G21" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="G21">
+        <v>39.195</v>
+      </c>
+      <c r="H21">
+        <v>-106.821141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -6465,7 +6507,7 @@
         <v>268</v>
       </c>
       <c r="D22" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E22" t="s">
         <v>270</v>
@@ -6473,11 +6515,14 @@
       <c r="F22" t="s">
         <v>83</v>
       </c>
-      <c r="G22" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="G22">
+        <v>39.195008000000001</v>
+      </c>
+      <c r="H22">
+        <v>-106.82138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -6486,22 +6531,25 @@
         <v>266</v>
       </c>
       <c r="C23" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D23" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E23" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F23" t="s">
         <v>83</v>
       </c>
-      <c r="G23" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="G23">
+        <v>39.195428</v>
+      </c>
+      <c r="H23">
+        <v>-106.822069</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -6510,22 +6558,25 @@
         <v>266</v>
       </c>
       <c r="C24" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D24" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E24" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F24" t="s">
         <v>83</v>
       </c>
-      <c r="G24" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="G24">
+        <v>39.195798000000003</v>
+      </c>
+      <c r="H24">
+        <v>-106.822166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -6534,22 +6585,25 @@
         <v>266</v>
       </c>
       <c r="C25" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D25" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E25" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F25" t="s">
         <v>83</v>
       </c>
-      <c r="G25" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="G25">
+        <v>39.195998000000003</v>
+      </c>
+      <c r="H25">
+        <v>-106.82182299999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -6558,22 +6612,25 @@
         <v>266</v>
       </c>
       <c r="C26" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D26" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E26" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F26" t="s">
         <v>83</v>
       </c>
-      <c r="G26" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="G26">
+        <v>39.196429999999999</v>
+      </c>
+      <c r="H26">
+        <v>-106.821629</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -6582,22 +6639,25 @@
         <v>266</v>
       </c>
       <c r="C27" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D27" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E27" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F27" t="s">
         <v>83</v>
       </c>
-      <c r="G27" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="G27">
+        <v>39.196612999999999</v>
+      </c>
+      <c r="H27">
+        <v>-106.82156000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -6606,22 +6666,25 @@
         <v>266</v>
       </c>
       <c r="C28" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D28" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="E28" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F28" t="s">
         <v>83</v>
       </c>
-      <c r="G28" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="G28">
+        <v>39.196513000000003</v>
+      </c>
+      <c r="H28">
+        <v>-106.521265</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -6630,22 +6693,25 @@
         <v>266</v>
       </c>
       <c r="C29" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D29" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="E29" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="F29" t="s">
         <v>83</v>
       </c>
-      <c r="G29" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="G29">
+        <v>39.196368</v>
+      </c>
+      <c r="H29">
+        <v>-106.821265</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -6654,22 +6720,25 @@
         <v>266</v>
       </c>
       <c r="C30" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D30" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="E30" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="F30" t="s">
         <v>83</v>
       </c>
-      <c r="G30" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="G30">
+        <v>39.195323999999999</v>
+      </c>
+      <c r="H30">
+        <v>-106.82122699999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -6678,19 +6747,178 @@
         <v>266</v>
       </c>
       <c r="C31" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="D31" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="E31" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="F31" t="s">
         <v>83</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31">
+        <v>39.195216000000002</v>
+      </c>
+      <c r="H31">
+        <v>-106.821004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>266</v>
+      </c>
+      <c r="C32" t="s">
+        <v>300</v>
+      </c>
+      <c r="D32" t="s">
+        <v>301</v>
+      </c>
+      <c r="E32" t="s">
+        <v>302</v>
+      </c>
+      <c r="F32" t="s">
+        <v>79</v>
+      </c>
+      <c r="G32">
+        <v>39.987901000000001</v>
+      </c>
+      <c r="H32">
+        <v>-76.941598999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>266</v>
+      </c>
+      <c r="C33" t="s">
+        <v>305</v>
+      </c>
+      <c r="D33" t="s">
+        <v>303</v>
+      </c>
+      <c r="E33" t="s">
+        <v>304</v>
+      </c>
+      <c r="F33" t="s">
+        <v>79</v>
+      </c>
+      <c r="G33">
+        <v>38.990752000000001</v>
+      </c>
+      <c r="H33">
+        <v>-76.936271000000005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>266</v>
+      </c>
+      <c r="C34" t="s">
+        <v>307</v>
+      </c>
+      <c r="D34" t="s">
+        <v>306</v>
+      </c>
+      <c r="E34" t="s">
+        <v>306</v>
+      </c>
+      <c r="F34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G34">
+        <v>38.987133999999998</v>
+      </c>
+      <c r="H34">
+        <v>-76.940305899999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>266</v>
+      </c>
+      <c r="C35" t="s">
+        <v>310</v>
+      </c>
+      <c r="D35" t="s">
         <v>309</v>
+      </c>
+      <c r="E35" t="s">
+        <v>308</v>
+      </c>
+      <c r="F35" t="s">
+        <v>80</v>
+      </c>
+      <c r="G35">
+        <v>35.307238699999999</v>
+      </c>
+      <c r="H35">
+        <v>-80.735332299999996</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>266</v>
+      </c>
+      <c r="C36" t="s">
+        <v>311</v>
+      </c>
+      <c r="D36" t="s">
+        <v>312</v>
+      </c>
+      <c r="E36" t="s">
+        <v>313</v>
+      </c>
+      <c r="F36" t="s">
+        <v>81</v>
+      </c>
+      <c r="G36">
+        <v>40.007613999999997</v>
+      </c>
+      <c r="H36">
+        <v>-105.261771</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>266</v>
+      </c>
+      <c r="C37" t="s">
+        <v>316</v>
+      </c>
+      <c r="D37" t="s">
+        <v>315</v>
+      </c>
+      <c r="E37" t="s">
+        <v>314</v>
+      </c>
+      <c r="F37" t="s">
+        <v>81</v>
+      </c>
+      <c r="G37">
+        <v>40.004443000000002</v>
+      </c>
+      <c r="H37">
+        <v>-105.26484000000001</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2480" yWindow="0" windowWidth="25600" windowHeight="17560" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="2480" yWindow="0" windowWidth="25600" windowHeight="17560" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Note" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="318">
   <si>
     <t>tomyeh</t>
   </si>
@@ -977,6 +977,9 @@
   </si>
   <si>
     <t>cu_landmark_c4c</t>
+  </si>
+  <si>
+    <t>Context</t>
   </si>
 </sst>
 </file>
@@ -1036,7 +1039,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="249">
+  <cellStyleXfs count="251">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1186,6 +1189,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1292,7 +1297,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="148"/>
   </cellXfs>
-  <cellStyles count="249">
+  <cellStyles count="251">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1493,6 +1498,8 @@
     <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="247" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="249" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -6041,8 +6048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6934,11 +6941,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F112"/>
+  <dimension ref="A1:F116"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -6952,7 +6957,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B1" t="s">
         <v>39</v>
@@ -9272,6 +9277,74 @@
       </c>
       <c r="F112" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>317</v>
+      </c>
+      <c r="C113">
+        <v>8</v>
+      </c>
+      <c r="D113" t="s">
+        <v>238</v>
+      </c>
+      <c r="F113" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>317</v>
+      </c>
+      <c r="C114">
+        <v>9</v>
+      </c>
+      <c r="D114" t="s">
+        <v>238</v>
+      </c>
+      <c r="F114" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>317</v>
+      </c>
+      <c r="C115">
+        <v>10</v>
+      </c>
+      <c r="D115" t="s">
+        <v>238</v>
+      </c>
+      <c r="F115" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>317</v>
+      </c>
+      <c r="C116">
+        <v>11</v>
+      </c>
+      <c r="D116" t="s">
+        <v>238</v>
+      </c>
+      <c r="F116" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2480" yWindow="0" windowWidth="25600" windowHeight="17560" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="2480" yWindow="0" windowWidth="25600" windowHeight="17560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Note" sheetId="1" r:id="rId1"/>
@@ -1039,7 +1039,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="251">
+  <cellStyleXfs count="253">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1189,6 +1189,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1297,7 +1299,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="148"/>
   </cellXfs>
-  <cellStyles count="251">
+  <cellStyles count="253">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1500,6 +1502,8 @@
     <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="249" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="251" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1879,8 +1883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K117"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="F117" sqref="F117"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:J96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1945,10 +1949,10 @@
         <v>98</v>
       </c>
       <c r="I2">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J2">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1977,10 +1981,10 @@
         <v>99</v>
       </c>
       <c r="I3">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J3">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2009,10 +2013,10 @@
         <v>100</v>
       </c>
       <c r="I4">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J4">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2041,10 +2045,10 @@
         <v>101</v>
       </c>
       <c r="I5">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J5">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2073,10 +2077,10 @@
         <v>102</v>
       </c>
       <c r="I6">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J6">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2105,10 +2109,10 @@
         <v>103</v>
       </c>
       <c r="I7">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J7">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2137,10 +2141,10 @@
         <v>104</v>
       </c>
       <c r="I8">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J8">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2170,10 +2174,10 @@
         <v>105</v>
       </c>
       <c r="I9">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J9">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2203,10 +2207,10 @@
         <v>106</v>
       </c>
       <c r="I10">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J10">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2236,10 +2240,10 @@
         <v>107</v>
       </c>
       <c r="I11">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J11">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2269,10 +2273,10 @@
         <v>108</v>
       </c>
       <c r="I12">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J12">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -2302,10 +2306,10 @@
         <v>109</v>
       </c>
       <c r="I13">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J13">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -2335,10 +2339,10 @@
         <v>110</v>
       </c>
       <c r="I14">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J14">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -2368,10 +2372,10 @@
         <v>111</v>
       </c>
       <c r="I15">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J15">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2401,10 +2405,10 @@
         <v>112</v>
       </c>
       <c r="I16">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J16">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2434,10 +2438,10 @@
         <v>113</v>
       </c>
       <c r="I17">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J17">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -2467,10 +2471,10 @@
         <v>114</v>
       </c>
       <c r="I18">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J18">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2500,10 +2504,10 @@
         <v>115</v>
       </c>
       <c r="I19">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J19">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2533,10 +2537,10 @@
         <v>116</v>
       </c>
       <c r="I20">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J20">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2566,10 +2570,10 @@
         <v>117</v>
       </c>
       <c r="I21">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J21">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -2599,10 +2603,10 @@
         <v>118</v>
       </c>
       <c r="I22">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J22">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -2632,10 +2636,10 @@
         <v>119</v>
       </c>
       <c r="I23">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J23">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -2665,10 +2669,10 @@
         <v>120</v>
       </c>
       <c r="I24">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J24">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2698,10 +2702,10 @@
         <v>121</v>
       </c>
       <c r="I25">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J25">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -2731,10 +2735,10 @@
         <v>122</v>
       </c>
       <c r="I26">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J26">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2764,10 +2768,10 @@
         <v>123</v>
       </c>
       <c r="I27">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J27">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -2797,10 +2801,10 @@
         <v>124</v>
       </c>
       <c r="I28">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J28">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2830,10 +2834,10 @@
         <v>125</v>
       </c>
       <c r="I29">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J29">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -2863,10 +2867,10 @@
         <v>126</v>
       </c>
       <c r="I30">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J30">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -2896,10 +2900,10 @@
         <v>127</v>
       </c>
       <c r="I31">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J31">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -2929,10 +2933,10 @@
         <v>128</v>
       </c>
       <c r="I32">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J32">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2962,10 +2966,10 @@
         <v>129</v>
       </c>
       <c r="I33">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J33">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2995,10 +2999,10 @@
         <v>130</v>
       </c>
       <c r="I34">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J34">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -3028,10 +3032,10 @@
         <v>131</v>
       </c>
       <c r="I35">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J35">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -3061,10 +3065,10 @@
         <v>132</v>
       </c>
       <c r="I36">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J36">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -3094,10 +3098,10 @@
         <v>133</v>
       </c>
       <c r="I37">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J37">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -3127,10 +3131,10 @@
         <v>134</v>
       </c>
       <c r="I38">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J38">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -3160,10 +3164,10 @@
         <v>135</v>
       </c>
       <c r="I39">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J39">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -3193,10 +3197,10 @@
         <v>136</v>
       </c>
       <c r="I40">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J40">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -3226,10 +3230,10 @@
         <v>137</v>
       </c>
       <c r="I41">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J41">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -3259,10 +3263,10 @@
         <v>138</v>
       </c>
       <c r="I42">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J42">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -3292,10 +3296,10 @@
         <v>139</v>
       </c>
       <c r="I43">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J43">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -3325,10 +3329,10 @@
         <v>140</v>
       </c>
       <c r="I44">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J44">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -3358,10 +3362,10 @@
         <v>141</v>
       </c>
       <c r="I45">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J45">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -3391,10 +3395,10 @@
         <v>142</v>
       </c>
       <c r="I46">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J46">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -3424,10 +3428,10 @@
         <v>143</v>
       </c>
       <c r="I47">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J47">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -3457,10 +3461,10 @@
         <v>144</v>
       </c>
       <c r="I48">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J48">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -3490,10 +3494,10 @@
         <v>145</v>
       </c>
       <c r="I49">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J49">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -3523,10 +3527,10 @@
         <v>146</v>
       </c>
       <c r="I50">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J50">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -3556,10 +3560,10 @@
         <v>147</v>
       </c>
       <c r="I51">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J51">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -3589,10 +3593,10 @@
         <v>148</v>
       </c>
       <c r="I52">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J52">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -3622,10 +3626,10 @@
         <v>149</v>
       </c>
       <c r="I53">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J53">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -3655,10 +3659,10 @@
         <v>150</v>
       </c>
       <c r="I54">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J54">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -3688,10 +3692,10 @@
         <v>151</v>
       </c>
       <c r="I55">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J55">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -3721,10 +3725,10 @@
         <v>152</v>
       </c>
       <c r="I56">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J56">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -3754,10 +3758,10 @@
         <v>153</v>
       </c>
       <c r="I57">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J57">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -3787,10 +3791,10 @@
         <v>154</v>
       </c>
       <c r="I58">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J58">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -3820,10 +3824,10 @@
         <v>155</v>
       </c>
       <c r="I59">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J59">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -3853,10 +3857,10 @@
         <v>156</v>
       </c>
       <c r="I60">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J60">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -3886,10 +3890,10 @@
         <v>157</v>
       </c>
       <c r="I61">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J61">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -3919,10 +3923,10 @@
         <v>158</v>
       </c>
       <c r="I62">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J62">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -3952,10 +3956,10 @@
         <v>159</v>
       </c>
       <c r="I63">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J63">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -3985,10 +3989,10 @@
         <v>160</v>
       </c>
       <c r="I64">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J64">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -4018,10 +4022,10 @@
         <v>161</v>
       </c>
       <c r="I65">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J65">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -4051,10 +4055,10 @@
         <v>162</v>
       </c>
       <c r="I66">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J66">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -4084,10 +4088,10 @@
         <v>163</v>
       </c>
       <c r="I67">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J67">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -4117,10 +4121,10 @@
         <v>164</v>
       </c>
       <c r="I68">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J68">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -4150,10 +4154,10 @@
         <v>165</v>
       </c>
       <c r="I69">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J69">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -4183,10 +4187,10 @@
         <v>166</v>
       </c>
       <c r="I70">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J70">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -4216,10 +4220,10 @@
         <v>167</v>
       </c>
       <c r="I71">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J71">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -4249,10 +4253,10 @@
         <v>168</v>
       </c>
       <c r="I72">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J72">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -4282,10 +4286,10 @@
         <v>169</v>
       </c>
       <c r="I73">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J73">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -4315,10 +4319,10 @@
         <v>170</v>
       </c>
       <c r="I74">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J74">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -4348,10 +4352,10 @@
         <v>171</v>
       </c>
       <c r="I75">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J75">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -4381,10 +4385,10 @@
         <v>172</v>
       </c>
       <c r="I76">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J76">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -4414,10 +4418,10 @@
         <v>173</v>
       </c>
       <c r="I77">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J77">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -4447,10 +4451,10 @@
         <v>174</v>
       </c>
       <c r="I78">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J78">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -4480,10 +4484,10 @@
         <v>175</v>
       </c>
       <c r="I79">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J79">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -4513,10 +4517,10 @@
         <v>176</v>
       </c>
       <c r="I80">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J80">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -4546,10 +4550,10 @@
         <v>177</v>
       </c>
       <c r="I81">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J81">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -4579,10 +4583,10 @@
         <v>178</v>
       </c>
       <c r="I82">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J82">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -4612,10 +4616,10 @@
         <v>179</v>
       </c>
       <c r="I83">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J83">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -4645,10 +4649,10 @@
         <v>180</v>
       </c>
       <c r="I84">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J84">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -4678,10 +4682,10 @@
         <v>181</v>
       </c>
       <c r="I85">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J85">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -4711,10 +4715,10 @@
         <v>182</v>
       </c>
       <c r="I86">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J86">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -4744,10 +4748,10 @@
         <v>183</v>
       </c>
       <c r="I87">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J87">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -4777,10 +4781,10 @@
         <v>184</v>
       </c>
       <c r="I88">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J88">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -4810,10 +4814,10 @@
         <v>185</v>
       </c>
       <c r="I89">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J89">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -4843,10 +4847,10 @@
         <v>186</v>
       </c>
       <c r="I90">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J90">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -4876,10 +4880,10 @@
         <v>187</v>
       </c>
       <c r="I91">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J91">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -4909,10 +4913,10 @@
         <v>188</v>
       </c>
       <c r="I92">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J92">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -4942,10 +4946,10 @@
         <v>189</v>
       </c>
       <c r="I93">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J93">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -4975,10 +4979,10 @@
         <v>190</v>
       </c>
       <c r="I94">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J94">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -5008,10 +5012,10 @@
         <v>191</v>
       </c>
       <c r="I95">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J95">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -5041,10 +5045,10 @@
         <v>192</v>
       </c>
       <c r="I96">
-        <v>39.197670199999997</v>
+        <v>39.195794999999997</v>
       </c>
       <c r="J96">
-        <v>-106.8210536</v>
+        <v>-106.82182899999999</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -6943,7 +6947,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
